--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-02-17 07:57:20</t>
@@ -280,8 +280,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,7 +376,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -584,7 +584,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,24 @@
     <t>e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
   </si>
   <si>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
+  </si>
+  <si>
+    <t>e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:58:49</t>
+  </si>
+  <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
+  </si>
+  <si>
+    <t>e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -139,10 +157,25 @@
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.zh-cn.xlf</t>
   </si>
   <si>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:58:33</t>
+  </si>
+  <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
+  </si>
+  <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -199,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -226,8 +259,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -253,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -270,7 +303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -280,8 +313,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -354,10 +387,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -368,7 +449,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +457,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -396,58 +477,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -461,19 +542,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -485,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -494,13 +575,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -517,48 +598,160 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -566,6 +759,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
     <hyperlink ref="A3" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -576,7 +771,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,7 +779,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -604,58 +799,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -669,16 +864,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -693,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -702,13 +897,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -725,16 +920,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -749,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -758,15 +953,127 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -774,6 +1081,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
     <hyperlink ref="A3" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -70,15 +70,18 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2017-02-17 07:59:38</t>
+  </si>
+  <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
+  </si>
+  <si>
+    <t>e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
+  </si>
+  <si>
     <t>2017-02-17 07:58:49</t>
   </si>
   <si>
-    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
-  </si>
-  <si>
-    <t>e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -160,10 +163,13 @@
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-17 07:59:22</t>
+  </si>
+  <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-02-17 07:58:33</t>
-  </si>
-  <si>
-    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.zh-cn.xlf</t>
   </si>
   <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
@@ -430,7 +436,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -477,58 +483,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -542,19 +548,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -566,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -575,13 +581,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -598,46 +604,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -654,19 +660,19 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -678,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -687,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -710,19 +716,19 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -734,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -743,13 +749,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -799,58 +805,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -864,16 +870,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -888,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -897,13 +903,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -920,16 +926,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -944,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -953,13 +959,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -976,16 +982,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -1000,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1009,13 +1015,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1032,19 +1038,19 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1056,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1065,13 +1071,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -61,6 +61,15 @@
     <t>e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
   </si>
   <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
+  </si>
+  <si>
+    <t>e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:58:49</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
   </si>
   <si>
@@ -73,15 +82,6 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
-    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
-  </si>
-  <si>
-    <t>e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:58:49</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -160,28 +160,28 @@
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.zh-cn.xlf</t>
   </si>
   <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:58:33</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
-    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:58:33</t>
-  </si>
-  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.de-de.xlf</t>
   </si>
   <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.de-de.xlf</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
-  </si>
-  <si>
-    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -407,33 +407,33 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -443,8 +443,8 @@
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
+    <hyperlink ref="B4" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -707,13 +707,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -765,8 +765,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
     <hyperlink ref="A3" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -979,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -994,7 +994,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -1087,8 +1087,8 @@
   <hyperlinks>
     <hyperlink ref="A2" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
     <hyperlink ref="A3" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -88,7 +88,7 @@
     <t>e2e\468c464e-045f-452e-861a-5d59a9d36888.md</t>
   </si>
   <si>
-    <t>2017-02-17 08:01:18</t>
+    <t>2017-02-17 08:02:05</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -184,7 +184,7 @@
     <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:01:01</t>
+    <t>2017-02-17 08:01:50</t>
   </si>
   <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -187,6 +187,12 @@
     <t>2017-02-17 08:01:50</t>
   </si>
   <si>
+    <t>2017-02-17 08:02:43</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c03a0382c7eee7e393a32617fdfdf1863f2f37ce/e2e/468c464e-045f-452e-861a-5d59a9d36888.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e7975e70b8cc84a154f917f2b0b445d5213a5924/e2e/468c464e-045f-452e-861a-5d59a9d36888.md.</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
@@ -200,6 +206,9 @@
   </si>
   <si>
     <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:03:06</t>
   </si>
 </sst>
 </file>
@@ -512,15 +521,15 @@
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -831,14 +840,14 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -856,7 +865,7 @@
         <v>45</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -866,6 +875,7 @@
     <hyperlink ref="A4" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId4"/>
     <hyperlink ref="A5" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId5"/>
     <hyperlink ref="A6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
+    <hyperlink ref="J6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -891,15 +901,15 @@
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -978,7 +988,7 @@
         <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1034,7 +1044,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1090,7 +1100,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -1146,7 +1156,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
@@ -1202,7 +1212,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1210,14 +1220,14 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1235,7 +1245,7 @@
         <v>45</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1245,6 +1255,7 @@
     <hyperlink ref="A4" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId4"/>
     <hyperlink ref="A5" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId5"/>
     <hyperlink ref="A6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
+    <hyperlink ref="J6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -55,6 +55,15 @@
     <t>2017-02-17 07:57:20</t>
   </si>
   <si>
+    <t>468c464e-045f-452e-861a-5d59a9d36888.md</t>
+  </si>
+  <si>
+    <t>e2e\468c464e-045f-452e-861a-5d59a9d36888.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:02:05</t>
+  </si>
+  <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
   </si>
   <si>
@@ -82,15 +91,6 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
-    <t>468c464e-045f-452e-861a-5d59a9d36888.md</t>
-  </si>
-  <si>
-    <t>e2e\468c464e-045f-452e-861a-5d59a9d36888.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:02:05</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -166,6 +166,18 @@
     <t>True</t>
   </si>
   <si>
+    <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:01:50</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:02:43</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c03a0382c7eee7e393a32617fdfdf1863f2f37ce/e2e/468c464e-045f-452e-861a-5d59a9d36888.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e7975e70b8cc84a154f917f2b0b445d5213a5924/e2e/468c464e-045f-452e-861a-5d59a9d36888.md.</t>
+  </si>
+  <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.zh-cn.xlf</t>
   </si>
   <si>
@@ -181,21 +193,15 @@
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
-    <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:01:50</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:02:43</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c03a0382c7eee7e393a32617fdfdf1863f2f37ce/e2e/468c464e-045f-452e-861a-5d59a9d36888.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e7975e70b8cc84a154f917f2b0b445d5213a5924/e2e/468c464e-045f-452e-861a-5d59a9d36888.md.</t>
-  </si>
-  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
+    <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:03:06</t>
+  </si>
+  <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.de-de.xlf</t>
   </si>
   <si>
@@ -203,12 +209,6 @@
   </si>
   <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
-  </si>
-  <si>
-    <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:03:06</t>
   </si>
 </sst>
 </file>
@@ -417,15 +417,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -440,7 +440,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -457,33 +457,33 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -492,10 +492,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
+    <hyperlink ref="B3" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -667,19 +667,19 @@
         <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -697,12 +697,12 @@
         <v>45</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -720,10 +720,10 @@
         <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -764,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -776,10 +776,10 @@
         <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -814,13 +814,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -832,22 +832,22 @@
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -865,17 +865,17 @@
         <v>45</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="J6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
+    <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1047,19 +1047,19 @@
         <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1077,12 +1077,12 @@
         <v>45</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1100,10 +1100,10 @@
         <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1144,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -1156,10 +1156,10 @@
         <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -1212,7 +1212,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1220,14 +1220,14 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1245,17 +1245,17 @@
         <v>45</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="J6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
+    <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>File Name</t>
   </si>
@@ -91,6 +91,15 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
+  </si>
+  <si>
+    <t>e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:04:40</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -193,6 +202,12 @@
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:04:24</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
@@ -209,6 +224,9 @@
   </si>
   <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
+  </si>
+  <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -265,8 +283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R7" headerRowCount="1">
+  <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -292,8 +310,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R7" headerRowCount="1">
+  <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -319,8 +337,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -336,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,6 +507,29 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
@@ -496,6 +537,7 @@
     <hyperlink ref="B4" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -506,7 +548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,58 +576,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -599,19 +641,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -623,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -632,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -655,19 +697,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -676,28 +718,28 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -711,19 +753,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -735,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -744,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -767,19 +809,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -791,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -800,13 +842,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -823,19 +865,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -847,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -856,15 +898,71 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -876,6 +974,7 @@
     <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
     <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -886,7 +985,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -914,58 +1013,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -979,16 +1078,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1003,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1012,13 +1111,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1035,16 +1134,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1056,10 +1155,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1068,16 +1167,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -1091,16 +1190,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1115,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1124,13 +1223,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1147,16 +1246,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1171,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1180,13 +1279,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1203,16 +1302,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1227,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1236,15 +1335,71 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1256,6 +1411,7 @@
     <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
     <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -79,6 +79,15 @@
     <t>2017-02-17 07:58:49</t>
   </si>
   <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
+  </si>
+  <si>
+    <t>e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:04:40</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
   </si>
   <si>
@@ -91,15 +100,6 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
-    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
-  </si>
-  <si>
-    <t>e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:04:40</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -196,18 +196,18 @@
     <t>2017-02-17 07:58:33</t>
   </si>
   <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:04:24</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
-    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:04:24</t>
-  </si>
-  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
@@ -223,10 +223,10 @@
     <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.de-de.xlf</t>
   </si>
   <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
-  </si>
-  <si>
-    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -498,33 +498,33 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -536,8 +536,8 @@
     <hyperlink ref="B3" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
+    <hyperlink ref="B6" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>46</v>
@@ -912,13 +912,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>46</v>
@@ -973,8 +973,8 @@
     <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
     <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1299,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>46</v>
@@ -1314,7 +1314,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>46</v>
@@ -1410,8 +1410,8 @@
     <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
     <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -79,25 +79,25 @@
     <t>2017-02-17 07:58:49</t>
   </si>
   <si>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
+  </si>
+  <si>
+    <t>e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:59:38</t>
+  </si>
+  <si>
     <t>c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
   </si>
   <si>
     <t>e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
   </si>
   <si>
-    <t>2017-02-17 08:04:40</t>
-  </si>
-  <si>
-    <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
-  </si>
-  <si>
-    <t>e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:59:38</t>
+    <t>2017-02-17 08:06:20</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -196,16 +196,16 @@
     <t>2017-02-17 07:58:33</t>
   </si>
   <si>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:59:22</t>
+  </si>
+  <si>
     <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:04:24</t>
-  </si>
-  <si>
-    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:59:22</t>
+    <t>2017-02-17 08:06:03</t>
   </si>
   <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
@@ -223,10 +223,10 @@
     <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.de-de.xlf</t>
   </si>
   <si>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
+  </si>
+  <si>
     <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
-  </si>
-  <si>
-    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -498,21 +498,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -521,10 +521,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -536,8 +536,8 @@
     <hyperlink ref="B3" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
+    <hyperlink ref="B6" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>46</v>
@@ -912,13 +912,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>46</v>
@@ -973,8 +973,8 @@
     <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
     <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1299,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>46</v>
@@ -1314,7 +1314,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>46</v>
@@ -1410,8 +1410,8 @@
     <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
     <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -79,6 +79,15 @@
     <t>2017-02-17 07:58:49</t>
   </si>
   <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
+  </si>
+  <si>
+    <t>e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:07:10</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
   </si>
   <si>
@@ -91,15 +100,6 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
-    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
-  </si>
-  <si>
-    <t>e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:06:20</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -196,18 +196,18 @@
     <t>2017-02-17 07:58:33</t>
   </si>
   <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:06:54</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
-    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:06:03</t>
-  </si>
-  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
@@ -223,10 +223,10 @@
     <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.de-de.xlf</t>
   </si>
   <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
-  </si>
-  <si>
-    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -498,33 +498,33 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -536,8 +536,8 @@
     <hyperlink ref="B3" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
+    <hyperlink ref="B6" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -862,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>46</v>
@@ -912,13 +912,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>46</v>
@@ -973,8 +973,8 @@
     <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
     <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1299,7 +1299,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>46</v>
@@ -1314,7 +1314,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>46</v>
@@ -1410,8 +1410,8 @@
     <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
     <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>File Name</t>
   </si>
@@ -100,6 +100,15 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
+    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.md</t>
+  </si>
+  <si>
+    <t>e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:08:03</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -208,6 +217,12 @@
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
+    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:07:45</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
@@ -227,6 +242,9 @@
   </si>
   <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
+  </si>
+  <si>
+    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -283,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R7" headerRowCount="1">
-  <autoFilter ref="A1:R7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -310,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R7" headerRowCount="1">
-  <autoFilter ref="A1:R7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -337,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -354,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,6 +548,29 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
@@ -538,6 +579,7 @@
     <hyperlink ref="B5" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -548,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -641,19 +683,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -665,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -674,13 +716,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -697,19 +739,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -718,28 +760,28 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -753,19 +795,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -777,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -786,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -809,19 +851,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -833,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -842,13 +884,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -865,19 +907,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -889,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -898,13 +940,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -921,19 +963,19 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -945,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -954,15 +996,71 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -975,6 +1073,7 @@
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
     <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
     <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -985,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1013,58 +1112,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -1078,16 +1177,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1102,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1111,13 +1210,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1134,16 +1233,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1155,10 +1254,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1167,16 +1266,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1190,16 +1289,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1214,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1223,13 +1322,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1246,16 +1345,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1270,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1279,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1302,16 +1401,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
@@ -1326,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1335,13 +1434,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1358,16 +1457,16 @@
         <v>26</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1382,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1391,15 +1490,71 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1412,6 +1567,7 @@
     <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
     <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
     <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.md</t>
+  </si>
+  <si>
+    <t>e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:08:03</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.md</t>
   </si>
   <si>
     <t>e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -100,15 +112,6 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
-    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.md</t>
-  </si>
-  <si>
-    <t>e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:08:03</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -172,6 +175,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:07:45</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:08:39</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.zh-cn.xlf</t>
   </si>
   <si>
@@ -181,9 +196,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.zh-cn.xlf</t>
   </si>
   <si>
@@ -217,10 +229,10 @@
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
-    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:07:45</t>
+    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:09:03</t>
   </si>
   <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
@@ -242,9 +254,6 @@
   </si>
   <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
-  </si>
-  <si>
-    <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -382,8 +391,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,21 +456,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -470,21 +479,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -493,21 +502,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -516,21 +525,21 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -539,10 +548,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -562,24 +571,24 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId8"/>
+    <hyperlink ref="B2" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -598,7 +607,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -618,58 +627,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -683,31 +692,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -716,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -736,90 +745,90 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -828,42 +837,42 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -875,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -884,13 +893,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -898,28 +907,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -931,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -940,13 +949,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -954,28 +963,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -987,7 +996,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -996,13 +1005,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1016,22 +1025,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1043,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1052,13 +1061,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1066,14 +1075,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
-    <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1092,7 +1102,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -1112,58 +1122,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -1177,16 +1187,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1194,14 +1204,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1210,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1230,34 +1240,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1266,54 +1276,54 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1322,42 +1332,42 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1369,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1378,13 +1388,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1392,28 +1402,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1425,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1434,13 +1444,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1448,25 +1458,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1481,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1490,13 +1500,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1510,22 +1520,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1537,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1546,13 +1556,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1560,14 +1570,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId3"/>
-    <hyperlink ref="J3" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>File Name</t>
   </si>
@@ -112,6 +112,15 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:10:21</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -229,6 +238,12 @@
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:10:02</t>
+  </si>
+  <si>
     <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.de-de.xlf</t>
   </si>
   <si>
@@ -254,6 +269,9 @@
   </si>
   <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
+  </si>
+  <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -310,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R8" headerRowCount="1">
-  <autoFilter ref="A1:R8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -337,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
-  <autoFilter ref="A1:R8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -364,8 +382,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -381,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -580,6 +598,29 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
@@ -589,6 +630,7 @@
     <hyperlink ref="B6" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -599,7 +641,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -627,58 +669,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -692,19 +734,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -713,10 +755,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -725,13 +767,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -748,19 +790,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -772,22 +814,22 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -804,19 +846,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -825,10 +867,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -837,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -860,19 +902,19 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -884,22 +926,22 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -916,19 +958,19 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -940,22 +982,22 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -972,19 +1014,19 @@
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -996,22 +1038,22 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1028,19 +1070,19 @@
         <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1052,24 +1094,80 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1084,6 +1182,7 @@
     <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
     <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
     <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1094,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1122,58 +1221,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -1187,16 +1286,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1208,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1220,13 +1319,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1243,16 +1342,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -1267,22 +1366,22 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1299,16 +1398,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -1320,10 +1419,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1332,16 +1431,16 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1355,16 +1454,16 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -1379,22 +1478,22 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1411,16 +1510,16 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1435,22 +1534,22 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1467,16 +1566,16 @@
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1491,22 +1590,22 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1523,16 +1622,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>31</v>
@@ -1547,24 +1646,80 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1579,6 +1734,7 @@
     <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
     <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
     <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -76,6 +76,15 @@
     <t>2017-02-17 08:02:05</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:10:21</t>
+  </si>
+  <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
   </si>
   <si>
@@ -112,15 +121,6 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
-    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
-  </si>
-  <si>
-    <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:10:21</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -217,6 +217,12 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c03a0382c7eee7e393a32617fdfdf1863f2f37ce/e2e/468c464e-045f-452e-861a-5d59a9d36888.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e7975e70b8cc84a154f917f2b0b445d5213a5924/e2e/468c464e-045f-452e-861a-5d59a9d36888.md.</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:10:02</t>
+  </si>
+  <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.zh-cn.xlf</t>
   </si>
   <si>
@@ -238,12 +244,6 @@
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
-    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:10:02</t>
-  </si>
-  <si>
     <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.de-de.xlf</t>
   </si>
   <si>
@@ -259,6 +259,9 @@
     <t>2017-02-17 08:03:06</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
+  </si>
+  <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.de-de.xlf</t>
   </si>
   <si>
@@ -269,9 +272,6 @@
   </si>
   <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
-  </si>
-  <si>
-    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -526,15 +526,15 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -549,7 +549,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -589,33 +589,33 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -626,11 +626,11 @@
     <hyperlink ref="B2" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId9"/>
+    <hyperlink ref="B5" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -914,7 +914,7 @@
         <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -967,10 +967,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1117,13 +1117,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>53</v>
@@ -1178,11 +1178,11 @@
     <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
     <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
     <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId11"/>
+    <hyperlink ref="A5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1466,7 +1466,7 @@
         <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1522,7 +1522,7 @@
         <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1619,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1634,7 +1634,7 @@
         <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>53</v>
@@ -1730,11 +1730,11 @@
     <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
     <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
     <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId11"/>
+    <hyperlink ref="A5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -76,49 +76,49 @@
     <t>2017-02-17 08:02:05</t>
   </si>
   <si>
+    <t>95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
+  </si>
+  <si>
+    <t>e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
+  </si>
+  <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
+  </si>
+  <si>
+    <t>e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:58:49</t>
+  </si>
+  <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
+  </si>
+  <si>
+    <t>e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:07:10</t>
+  </si>
+  <si>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
+  </si>
+  <si>
+    <t>e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:59:38</t>
+  </si>
+  <si>
     <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
   </si>
   <si>
     <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
   </si>
   <si>
-    <t>2017-02-17 08:10:21</t>
-  </si>
-  <si>
-    <t>95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
-  </si>
-  <si>
-    <t>e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
-  </si>
-  <si>
-    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
-  </si>
-  <si>
-    <t>e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:58:49</t>
-  </si>
-  <si>
-    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
-  </si>
-  <si>
-    <t>e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:07:10</t>
-  </si>
-  <si>
-    <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
-  </si>
-  <si>
-    <t>e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:59:38</t>
+    <t>2017-02-17 08:12:04</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -217,31 +217,31 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c03a0382c7eee7e393a32617fdfdf1863f2f37ce/e2e/468c464e-045f-452e-861a-5d59a9d36888.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e7975e70b8cc84a154f917f2b0b445d5213a5924/e2e/468c464e-045f-452e-861a-5d59a9d36888.md.</t>
   </si>
   <si>
+    <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:58:33</t>
+  </si>
+  <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:06:54</t>
+  </si>
+  <si>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:59:22</t>
+  </si>
+  <si>
     <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:10:02</t>
-  </si>
-  <si>
-    <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:58:33</t>
-  </si>
-  <si>
-    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:06:54</t>
-  </si>
-  <si>
-    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:59:22</t>
+    <t>2017-02-17 08:11:47</t>
   </si>
   <si>
     <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.de-de.xlf</t>
@@ -259,19 +259,19 @@
     <t>2017-02-17 08:03:06</t>
   </si>
   <si>
+    <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.de-de.xlf</t>
+  </si>
+  <si>
+    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
+  </si>
+  <si>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
+  </si>
+  <si>
     <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.de-de.xlf</t>
-  </si>
-  <si>
-    <t>bb753406-7a5e-45b3-8cee-8cb79843d7a1.8c4aa768f8f2d60ed0c6cf02fd1b700b1ed8c121.de-de.xlf</t>
-  </si>
-  <si>
-    <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
-  </si>
-  <si>
-    <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -526,30 +526,30 @@
         <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -589,21 +589,21 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -612,10 +612,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -626,11 +626,11 @@
     <hyperlink ref="B2" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId9"/>
+    <hyperlink ref="B5" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -914,7 +914,7 @@
         <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -967,10 +967,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1117,13 +1117,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>53</v>
@@ -1178,11 +1178,11 @@
     <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
     <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
     <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId11"/>
+    <hyperlink ref="A5" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1466,7 +1466,7 @@
         <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1522,7 +1522,7 @@
         <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1619,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1634,7 +1634,7 @@
         <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>53</v>
@@ -1730,11 +1730,11 @@
     <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
     <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
     <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId11"/>
+    <hyperlink ref="A5" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,15 @@
     <t>2017-02-17 08:08:03</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:12:04</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.md</t>
   </si>
   <si>
@@ -112,15 +121,6 @@
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
-    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
-  </si>
-  <si>
-    <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:12:04</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -196,6 +196,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:11:47</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:12:41</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.zh-cn.xlf</t>
   </si>
   <si>
@@ -238,18 +247,18 @@
     <t>2017-02-17 07:59:22</t>
   </si>
   <si>
-    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:11:47</t>
-  </si>
-  <si>
     <t>463090f6-6b58-48ab-a6c3-9f6fda8abc95.f853389c3949ad0ad88f9ca6dd2060afa7864dbb.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:09:03</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:13:04</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
@@ -269,9 +278,6 @@
   </si>
   <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
-  </si>
-  <si>
-    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -474,22 +480,22 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
@@ -497,10 +503,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -520,21 +526,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -543,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -566,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -589,33 +595,33 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>34</v>
@@ -624,13 +630,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId9"/>
+    <hyperlink ref="B3" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -787,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>53</v>
@@ -807,11 +813,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>62</v>
@@ -837,13 +843,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>53</v>
@@ -863,11 +869,11 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>65</v>
@@ -888,7 +894,7 @@
         <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>53</v>
@@ -911,22 +917,22 @@
         <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -944,18 +950,18 @@
         <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>53</v>
@@ -967,10 +973,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -982,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1011,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>53</v>
@@ -1023,10 +1029,10 @@
         <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1038,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1067,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1079,10 +1085,10 @@
         <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1094,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1117,13 +1123,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>53</v>
@@ -1135,10 +1141,10 @@
         <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1150,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1175,14 +1181,15 @@
   <hyperlinks>
     <hyperlink ref="A2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
     <hyperlink ref="J2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
-    <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId11"/>
+    <hyperlink ref="A3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1295,7 +1302,7 @@
         <v>55</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1307,10 +1314,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1339,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>53</v>
@@ -1351,22 +1358,22 @@
         <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1389,13 +1396,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>53</v>
@@ -1407,7 +1414,7 @@
         <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -1415,14 +1422,14 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1440,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1451,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>53</v>
@@ -1463,22 +1470,22 @@
         <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1496,18 +1503,18 @@
         <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>53</v>
@@ -1519,10 +1526,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1534,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1563,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>53</v>
@@ -1575,7 +1582,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1590,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1619,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1631,10 +1638,10 @@
         <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1646,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1669,13 +1676,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>53</v>
@@ -1687,7 +1694,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>34</v>
@@ -1702,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1727,14 +1734,15 @@
   <hyperlinks>
     <hyperlink ref="A2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
     <hyperlink ref="J2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
-    <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId11"/>
+    <hyperlink ref="A3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>File Name</t>
   </si>
@@ -55,34 +55,34 @@
     <t>2017-02-17 08:08:03</t>
   </si>
   <si>
+    <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.md</t>
+  </si>
+  <si>
+    <t>e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:57:20</t>
+  </si>
+  <si>
+    <t>468c464e-045f-452e-861a-5d59a9d36888.md</t>
+  </si>
+  <si>
+    <t>e2e\468c464e-045f-452e-861a-5d59a9d36888.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:02:05</t>
+  </si>
+  <si>
     <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
   </si>
   <si>
     <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
   </si>
   <si>
-    <t>2017-02-17 08:12:04</t>
-  </si>
-  <si>
-    <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.md</t>
-  </si>
-  <si>
-    <t>e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:57:20</t>
-  </si>
-  <si>
-    <t>468c464e-045f-452e-861a-5d59a9d36888.md</t>
-  </si>
-  <si>
-    <t>e2e\468c464e-045f-452e-861a-5d59a9d36888.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:02:05</t>
+    <t>2017-02-17 08:13:58</t>
   </si>
   <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
@@ -196,34 +196,37 @@
     <t>True</t>
   </si>
   <si>
+    <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 07:56:57</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:01:50</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:02:43</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c03a0382c7eee7e393a32617fdfdf1863f2f37ce/e2e/468c464e-045f-452e-861a-5d59a9d36888.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e7975e70b8cc84a154f917f2b0b445d5213a5924/e2e/468c464e-045f-452e-861a-5d59a9d36888.md.</t>
+  </si>
+  <si>
     <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:11:47</t>
+    <t>2017-02-17 08:13:42</t>
   </si>
   <si>
     <t>2017-02-17 08:12:41</t>
   </si>
   <si>
-    <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 07:56:57</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:01:50</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:02:43</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c03a0382c7eee7e393a32617fdfdf1863f2f37ce/e2e/468c464e-045f-452e-861a-5d59a9d36888.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e7975e70b8cc84a154f917f2b0b445d5213a5924/e2e/468c464e-045f-452e-861a-5d59a9d36888.md.</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/14773e26583ac525c192587698612e734f1adb7a/e2e/7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5e59b3160a26b52b7b1316c984784da9792372f9/e2e/7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md.</t>
   </si>
   <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.zh-cn.xlf</t>
@@ -253,19 +256,19 @@
     <t>2017-02-17 08:09:03</t>
   </si>
   <si>
+    <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:03:06</t>
+  </si>
+  <si>
     <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:13:04</t>
-  </si>
-  <si>
-    <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:03:06</t>
   </si>
   <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.de-de.xlf</t>
@@ -480,21 +483,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -503,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -526,10 +529,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -549,13 +552,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +575,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -595,10 +598,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>30</v>
@@ -630,9 +633,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
+    <hyperlink ref="B3" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
@@ -793,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>53</v>
@@ -813,11 +816,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>62</v>
@@ -843,13 +846,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>53</v>
@@ -869,11 +872,11 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>65</v>
@@ -894,7 +897,7 @@
         <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>53</v>
@@ -917,10 +920,10 @@
         <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -929,10 +932,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -950,7 +953,7 @@
         <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>53</v>
@@ -973,10 +976,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -988,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1017,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>53</v>
@@ -1029,10 +1032,10 @@
         <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1044,7 +1047,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1073,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1085,10 +1088,10 @@
         <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1100,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1141,10 +1144,10 @@
         <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1156,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1181,11 +1184,11 @@
   <hyperlinks>
     <hyperlink ref="A2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
     <hyperlink ref="J2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
-    <hyperlink ref="J5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
+    <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId8"/>
     <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
     <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
     <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>
@@ -1302,7 +1305,7 @@
         <v>55</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1314,10 +1317,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1346,7 +1349,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>53</v>
@@ -1358,22 +1361,22 @@
         <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1396,13 +1399,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>53</v>
@@ -1422,14 +1425,14 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1447,7 +1450,7 @@
         <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1458,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>53</v>
@@ -1470,7 +1473,7 @@
         <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
@@ -1482,10 +1485,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1503,7 +1506,7 @@
         <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1514,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>53</v>
@@ -1526,10 +1529,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1541,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1570,7 +1573,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>53</v>
@@ -1582,7 +1585,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1597,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1626,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1638,7 +1641,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>30</v>
@@ -1653,7 +1656,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1694,7 +1697,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>34</v>
@@ -1709,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1734,11 +1737,11 @@
   <hyperlinks>
     <hyperlink ref="A2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
     <hyperlink ref="J2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
-    <hyperlink ref="J5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
+    <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId8"/>
     <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
     <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
     <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,15 @@
     <t>2017-02-17 08:08:03</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:13:58</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.md</t>
   </si>
   <si>
@@ -76,15 +85,6 @@
     <t>2017-02-17 08:02:05</t>
   </si>
   <si>
-    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
-  </si>
-  <si>
-    <t>e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:13:58</t>
-  </si>
-  <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.md</t>
   </si>
   <si>
@@ -196,6 +196,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:13:42</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:14:43</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.zh-cn.xlf</t>
   </si>
   <si>
@@ -217,18 +226,6 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c03a0382c7eee7e393a32617fdfdf1863f2f37ce/e2e/468c464e-045f-452e-861a-5d59a9d36888.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e7975e70b8cc84a154f917f2b0b445d5213a5924/e2e/468c464e-045f-452e-861a-5d59a9d36888.md.</t>
   </si>
   <si>
-    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:13:42</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:12:41</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/14773e26583ac525c192587698612e734f1adb7a/e2e/7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5e59b3160a26b52b7b1316c984784da9792372f9/e2e/7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md.</t>
-  </si>
-  <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.zh-cn.xlf</t>
   </si>
   <si>
@@ -256,6 +253,12 @@
     <t>2017-02-17 08:09:03</t>
   </si>
   <si>
+    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:15:06</t>
+  </si>
+  <si>
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
@@ -263,12 +266,6 @@
   </si>
   <si>
     <t>2017-02-17 08:03:06</t>
-  </si>
-  <si>
-    <t>7f2d55f9-1250-4f40-81b2-ae1e03b433b6.a63845cd2fec44be732facb55dc4505d099f4e0c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:13:04</t>
   </si>
   <si>
     <t>95922f49-7ef2-4b78-b46f-040e059c0785.dbe418d24944b5b3b79ffe68e6ed26e17eaae59e.de-de.xlf</t>
@@ -483,22 +480,22 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
@@ -506,10 +503,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -529,10 +526,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -552,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -575,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -598,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>30</v>
@@ -633,9 +630,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
+    <hyperlink ref="B3" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
@@ -796,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>53</v>
@@ -816,11 +813,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>62</v>
@@ -846,13 +843,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>53</v>
@@ -872,11 +869,11 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>65</v>
@@ -897,7 +894,7 @@
         <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -908,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>53</v>
@@ -920,10 +917,10 @@
         <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -932,10 +929,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -953,7 +950,7 @@
         <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +961,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>53</v>
@@ -976,10 +973,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -991,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1020,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>53</v>
@@ -1032,11 +1029,11 @@
         <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1076,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1088,11 +1085,11 @@
         <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
       </c>
@@ -1103,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1144,11 +1141,11 @@
         <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
       </c>
@@ -1159,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1184,11 +1181,11 @@
   <hyperlinks>
     <hyperlink ref="A2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
     <hyperlink ref="J2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
-    <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
-    <hyperlink ref="J5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId8"/>
+    <hyperlink ref="A3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
     <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
     <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
     <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>
@@ -1305,7 +1302,7 @@
         <v>55</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1317,10 +1314,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1349,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>53</v>
@@ -1361,22 +1358,22 @@
         <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1399,13 +1396,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>53</v>
@@ -1425,14 +1422,14 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1450,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1461,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>53</v>
@@ -1473,7 +1470,7 @@
         <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
@@ -1485,10 +1482,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1506,7 +1503,7 @@
         <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1517,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>53</v>
@@ -1529,10 +1526,10 @@
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1544,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1573,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>53</v>
@@ -1585,7 +1582,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1600,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1629,7 +1626,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -1641,7 +1638,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>30</v>
@@ -1656,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1697,7 +1694,7 @@
         <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>34</v>
@@ -1712,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1737,11 +1734,11 @@
   <hyperlinks>
     <hyperlink ref="A2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
     <hyperlink ref="J2" display="463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
-    <hyperlink ref="J4" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId7"/>
-    <hyperlink ref="J5" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId8"/>
+    <hyperlink ref="A3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
     <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
     <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
     <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>File Name</t>
   </si>
@@ -109,15 +109,24 @@
     <t>2017-02-17 08:07:10</t>
   </si>
   <si>
+    <t>26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md</t>
+  </si>
+  <si>
+    <t>e2e\26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:16:10</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
   </si>
   <si>
     <t>e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
@@ -241,6 +250,12 @@
     <t>2017-02-17 08:06:54</t>
   </si>
   <si>
+    <t>26ce4f6c-7bee-47eb-9301-4620aa6c8b79.188a7b15564fd70b526e7a6a104c206b7b675245.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:15:54</t>
+  </si>
+  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
   </si>
   <si>
@@ -275,6 +290,9 @@
   </si>
   <si>
     <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
+  </si>
+  <si>
+    <t>26ce4f6c-7bee-47eb-9301-4620aa6c8b79.188a7b15564fd70b526e7a6a104c206b7b675245.de-de.xlf</t>
   </si>
   <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
@@ -334,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R9" headerRowCount="1">
-  <autoFilter ref="A1:R9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R10" headerRowCount="1">
+  <autoFilter ref="A1:R10"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -361,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
-  <autoFilter ref="A1:R9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R10" headerRowCount="1">
+  <autoFilter ref="A1:R10"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -388,8 +406,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G10" headerRowCount="1">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -405,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -627,6 +645,29 @@
         <v>34</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
@@ -636,7 +677,8 @@
     <hyperlink ref="B6" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId9"/>
+    <hyperlink ref="B9" display="e2e\26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -647,7 +689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -675,58 +717,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -740,19 +782,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -761,10 +803,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -773,13 +815,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -796,19 +838,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -817,25 +859,25 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -852,19 +894,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -876,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -885,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -908,19 +950,19 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -929,10 +971,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -941,16 +983,16 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -964,19 +1006,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -988,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -997,13 +1039,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1020,19 +1062,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1044,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1053,13 +1095,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1076,19 +1118,19 @@
         <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1100,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1109,13 +1151,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1132,19 +1174,19 @@
         <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1156,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1165,15 +1207,71 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1189,7 +1287,8 @@
     <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
     <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
     <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1200,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1228,58 +1327,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -1293,16 +1392,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1314,10 +1413,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1326,13 +1425,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1349,16 +1448,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1370,10 +1469,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1382,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1405,16 +1504,16 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -1429,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1438,13 +1537,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1461,16 +1560,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
@@ -1482,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1494,16 +1593,16 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1517,16 +1616,16 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>19</v>
@@ -1541,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1550,13 +1649,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1573,16 +1672,16 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1597,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1606,13 +1705,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1629,16 +1728,16 @@
         <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>30</v>
@@ -1653,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1662,13 +1761,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1685,16 +1784,16 @@
         <v>33</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>34</v>
@@ -1709,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1718,15 +1817,71 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1742,7 +1897,8 @@
     <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
     <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
     <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,15 @@
     <t>2017-02-17 07:57:20</t>
   </si>
   <si>
+    <t>26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md</t>
+  </si>
+  <si>
+    <t>e2e\26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:16:10</t>
+  </si>
+  <si>
     <t>468c464e-045f-452e-861a-5d59a9d36888.md</t>
   </si>
   <si>
@@ -109,24 +118,15 @@
     <t>2017-02-17 08:07:10</t>
   </si>
   <si>
-    <t>26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md</t>
-  </si>
-  <si>
-    <t>e2e\26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md</t>
+    <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
+  </si>
+  <si>
+    <t>e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 08:16:10</t>
-  </si>
-  <si>
-    <t>45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
-  </si>
-  <si>
-    <t>e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md</t>
-  </si>
-  <si>
     <t>2017-02-17 07:59:38</t>
   </si>
   <si>
@@ -223,6 +223,15 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
+    <t>26ce4f6c-7bee-47eb-9301-4620aa6c8b79.188a7b15564fd70b526e7a6a104c206b7b675245.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:15:54</t>
+  </si>
+  <si>
+    <t>TestHandoff1</t>
+  </si>
+  <si>
     <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.zh-cn.xlf</t>
   </si>
   <si>
@@ -250,12 +259,6 @@
     <t>2017-02-17 08:06:54</t>
   </si>
   <si>
-    <t>26ce4f6c-7bee-47eb-9301-4620aa6c8b79.188a7b15564fd70b526e7a6a104c206b7b675245.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:15:54</t>
-  </si>
-  <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.zh-cn.xlf</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
     <t>143f6426-46e5-4b0b-8790-369fcb2f4b9c.e627aee98fdc211cc686b4b09c3e0c4cda1bbdfc.de-de.xlf</t>
   </si>
   <si>
+    <t>26ce4f6c-7bee-47eb-9301-4620aa6c8b79.188a7b15564fd70b526e7a6a104c206b7b675245.de-de.xlf</t>
+  </si>
+  <si>
     <t>468c464e-045f-452e-861a-5d59a9d36888.47848760cba20f81d61a15f1b055dda9cac74192.de-de.xlf</t>
   </si>
   <si>
@@ -290,9 +296,6 @@
   </si>
   <si>
     <t>c05037ce-57fe-4517-b9e1-e8532af8799d.65d45af1316fd47f5e4d4ea03c88ebac9c0dc445.de-de.xlf</t>
-  </si>
-  <si>
-    <t>26ce4f6c-7bee-47eb-9301-4620aa6c8b79.188a7b15564fd70b526e7a6a104c206b7b675245.de-de.xlf</t>
   </si>
   <si>
     <t>45adacbf-760e-419c-8f27-a66d66377ffe.6e3d7dc9fc5e0000dbe65cfe718c97203585a820.de-de.xlf</t>
@@ -573,15 +576,15 @@
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -596,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -636,33 +639,33 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>37</v>
@@ -673,11 +676,11 @@
     <hyperlink ref="B2" display="e2e\463090f6-6b58-48ab-a6c3-9f6fda8abc95.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md" r:id="rId9"/>
+    <hyperlink ref="B5" display="e2e\26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId9"/>
     <hyperlink ref="B10" display="e2e\45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
@@ -965,16 +968,16 @@
         <v>70</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -992,7 +995,7 @@
         <v>58</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1015,22 +1018,22 @@
         <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1048,12 +1051,12 @@
         <v>58</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1071,10 +1074,10 @@
         <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1127,10 +1130,10 @@
         <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1171,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>56</v>
@@ -1183,10 +1186,10 @@
         <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1221,13 +1224,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>56</v>
@@ -1239,10 +1242,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1282,12 +1285,12 @@
     <hyperlink ref="A3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId4"/>
     <hyperlink ref="J3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
     <hyperlink ref="A4" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
-    <hyperlink ref="J5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
-    <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
-    <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
-    <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md" r:id="rId12"/>
+    <hyperlink ref="A5" display="26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
+    <hyperlink ref="J6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId12"/>
     <hyperlink ref="A10" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
@@ -1401,7 +1404,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1413,10 +1416,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1457,7 +1460,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1469,10 +1472,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1513,7 +1516,7 @@
         <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -1569,22 +1572,22 @@
         <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1602,7 +1605,7 @@
         <v>58</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1628,19 +1631,19 @@
         <v>89</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1658,12 +1661,12 @@
         <v>58</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1681,10 +1684,10 @@
         <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1737,7 +1740,7 @@
         <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>30</v>
@@ -1781,7 +1784,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>56</v>
@@ -1793,10 +1796,10 @@
         <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1831,13 +1834,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>56</v>
@@ -1849,7 +1852,7 @@
         <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>37</v>
@@ -1892,12 +1895,12 @@
     <hyperlink ref="A3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId4"/>
     <hyperlink ref="J3" display="7f2d55f9-1250-4f40-81b2-ae1e03b433b6.md" r:id="rId5"/>
     <hyperlink ref="A4" display="143f6426-46e5-4b0b-8790-369fcb2f4b9c.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId7"/>
-    <hyperlink ref="J5" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
-    <hyperlink ref="A6" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId9"/>
-    <hyperlink ref="A7" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId10"/>
-    <hyperlink ref="A8" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md" r:id="rId12"/>
+    <hyperlink ref="A5" display="26ce4f6c-7bee-47eb-9301-4620aa6c8b79.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId8"/>
+    <hyperlink ref="J6" display="468c464e-045f-452e-861a-5d59a9d36888.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="95922f49-7ef2-4b78-b46f-040e059c0785.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="bb753406-7a5e-45b3-8cee-8cb79843d7a1.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="c05037ce-57fe-4517-b9e1-e8532af8799d.md" r:id="rId12"/>
     <hyperlink ref="A10" display="45adacbf-760e-419c-8f27-a66d66377ffe.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 08:18:12</t>
@@ -130,13 +130,16 @@
     <t>2017-02-17 08:17:54</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 08:18:47</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:19:11</t>
   </si>
 </sst>
 </file>
@@ -274,8 +277,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -370,7 +373,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -378,7 +381,7 @@
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -472,11 +475,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -528,11 +531,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -559,7 +562,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -578,7 +583,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -586,7 +591,7 @@
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -680,14 +685,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -736,14 +741,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -767,7 +772,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,12 @@
     <t>e2e\b.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:20:12</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:19:54</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5efd40fd4f9bb8d0ad15359747991c5834034a25/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e0f48a10ed1af438d86bd1ad77ff46ce01b846ae/e2e/b.md.</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:19:11</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -342,13 +360,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -388,63 +406,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -458,19 +476,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -479,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -491,13 +509,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -511,22 +529,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -535,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -547,16 +565,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -598,63 +616,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -668,16 +686,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -689,25 +707,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -721,22 +739,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -745,28 +763,28 @@
         <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -61,7 +61,7 @@
     <t>e2e\b.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-02-17 08:20:12</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -37,34 +37,34 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:20:12</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:18:12</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:20:12</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:22:00</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -130,34 +130,37 @@
     <t>False</t>
   </si>
   <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:19:54</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:17:54</t>
-  </si>
-  <si>
     <t>2017-02-17 08:18:47</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:19:54</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5efd40fd4f9bb8d0ad15359747991c5834034a25/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e0f48a10ed1af438d86bd1ad77ff46ce01b846ae/e2e/b.md.</t>
   </si>
   <si>
+    <t>2017-02-17 08:21:45</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5efd40fd4f9bb8d0ad15359747991c5834034a25/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/1cc40178e067b9e95fb83b8c6760fdc8a339f87b/e2e/a.md.</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:19:11</t>
-  </si>
-  <si>
-    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -295,8 +298,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -371,8 +374,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -391,7 +394,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -494,13 +497,13 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -509,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -518,7 +521,7 @@
         <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -541,31 +544,31 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -574,14 +577,14 @@
         <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
     <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
     <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -601,7 +604,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -695,7 +698,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -704,13 +707,13 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -719,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -728,7 +731,7 @@
         <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -760,13 +763,13 @@
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -775,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -784,14 +787,14 @@
         <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
     <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
     <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -37,36 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>a.md</t>
+  </si>
+  <si>
+    <t>e2e\a.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:22:00</t>
+  </si>
+  <si>
     <t>b.md</t>
   </si>
   <si>
     <t>e2e\b.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>2017-02-17 08:20:12</t>
   </si>
   <si>
-    <t>a.md</t>
-  </si>
-  <si>
-    <t>e2e\a.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:22:00</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,37 +127,40 @@
     <t>False</t>
   </si>
   <si>
+    <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:21:45</t>
+  </si>
+  <si>
+    <t>TestHandoff_201702170422</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:18:47</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5efd40fd4f9bb8d0ad15359747991c5834034a25/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/1cc40178e067b9e95fb83b8c6760fdc8a339f87b/e2e/a.md.</t>
+  </si>
+  <si>
     <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:19:54</t>
   </si>
   <si>
-    <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:18:47</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5efd40fd4f9bb8d0ad15359747991c5834034a25/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e0f48a10ed1af438d86bd1ad77ff46ce01b846ae/e2e/b.md.</t>
   </si>
   <si>
-    <t>2017-02-17 08:21:45</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5efd40fd4f9bb8d0ad15359747991c5834034a25/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/1cc40178e067b9e95fb83b8c6760fdc8a339f87b/e2e/a.md.</t>
+    <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:19:11</t>
   </si>
   <si>
     <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
-  </si>
-  <si>
-    <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:19:11</t>
   </si>
 </sst>
 </file>
@@ -298,8 +298,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -363,19 +363,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -394,13 +394,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="9" max="9" width="26.4051609039307" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
@@ -414,58 +414,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -479,49 +479,49 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -532,19 +532,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>44</v>
@@ -553,28 +553,28 @@
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>45</v>
@@ -582,9 +582,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
     <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
     <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -604,13 +604,13 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
-    <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
+    <col min="9" max="9" width="26.4051609039307" customWidth="1"/>
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
@@ -624,58 +624,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -689,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>46</v>
@@ -704,17 +704,17 @@
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
@@ -722,16 +722,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -742,49 +742,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>45</v>
@@ -792,9 +792,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
     <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
     <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>File Name</t>
   </si>
@@ -49,18 +49,21 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:22:00</t>
+  </si>
+  <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
     <t>In Translation</t>
   </si>
   <si>
-    <t>2017-02-17 08:22:00</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
-  </si>
-  <si>
     <t>2017-02-17 08:20:12</t>
   </si>
   <si>
@@ -136,31 +139,37 @@
     <t>TestHandoff_201702170422</t>
   </si>
   <si>
+    <t>2017-02-17 08:23:26</t>
+  </si>
+  <si>
+    <t>TestHandback_201702170423</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:19:54</t>
+  </si>
+  <si>
     <t>2017-02-17 08:18:47</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5efd40fd4f9bb8d0ad15359747991c5834034a25/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/1cc40178e067b9e95fb83b8c6760fdc8a339f87b/e2e/a.md.</t>
-  </si>
-  <si>
-    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:19:54</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5efd40fd4f9bb8d0ad15359747991c5834034a25/e2e/a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/e0f48a10ed1af438d86bd1ad77ff46ce01b846ae/e2e/b.md.</t>
   </si>
   <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
+    <t>2017-02-17 08:23:50</t>
+  </si>
+  <si>
+    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
+  </si>
+  <si>
     <t>2017-02-17 08:19:11</t>
-  </si>
-  <si>
-    <t>b.63290e5768f688058c7b37413b0a5c26c308f864.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -298,8 +307,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -363,13 +372,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -394,7 +403,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -404,7 +413,7 @@
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
-    <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
+    <col min="13" max="13" width="28.0103492736816" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
@@ -414,58 +423,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -479,49 +488,49 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +541,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -556,28 +565,28 @@
         <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +613,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -614,7 +623,7 @@
     <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
-    <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
+    <col min="13" max="13" width="28.0103492736816" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
@@ -624,58 +633,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -689,49 +698,49 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -742,22 +751,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -766,28 +775,28 @@
         <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>test-content-1.md</t>
-  </si>
-  <si>
-    <t>e2e\test-content-1.md</t>
+    <t>file_full_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_full_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,49 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 08:25:29</t>
+    <t>2017-02-17 08:26:29</t>
+  </si>
+  <si>
+    <t>file_full_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_full_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_full_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_full_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_2.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -112,16 +154,16 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>test-content-1.fc92bd3ea58825d16dce72b4174897baa7b370e7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:25:12</t>
+    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:26:11</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -130,7 +172,31 @@
     <t>True</t>
   </si>
   <si>
-    <t>test-content-1.fc92bd3ea58825d16dce72b4174897baa7b370e7.de-de.xlf</t>
+    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -187,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -214,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -258,14 +324,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.4339008331299" customWidth="1"/>
-    <col min="2" max="2" width="21.5097942352295" customWidth="1"/>
+    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="2" max="2" width="39.0533142089844" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
@@ -319,9 +385,177 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\file_full_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\file_full_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\file_full_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\file_no_deleted_single_path.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\file_partial_deleted_multi_path_2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,13 +566,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
+    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -360,58 +594,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -425,19 +659,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -449,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -458,21 +692,420 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -483,13 +1116,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
+    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -511,58 +1144,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -576,16 +1209,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -600,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -609,21 +1242,420 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="test-content-1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
+    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_multi_path_1.md</t>
+    <t>file_no_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -55,24 +55,6 @@
     <t>2017-02-17 08:26:29</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>file_full_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>e2e\file_full_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_multi_path_1.md</t>
-  </si>
-  <si>
     <t>file_no_deleted_multi_path_2.md</t>
   </si>
   <si>
@@ -85,16 +67,19 @@
     <t>e2e\file_no_deleted_single_path.md</t>
   </si>
   <si>
+    <t>2017-02-17 08:27:29</t>
+  </si>
+  <si>
     <t>file_partial_deleted_multi_path_1.md</t>
   </si>
   <si>
     <t>e2e\file_partial_deleted_multi_path_1.md</t>
   </si>
   <si>
-    <t>file_partial_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_partial_deleted_multi_path_2.md</t>
+    <t>newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md</t>
+  </si>
+  <si>
+    <t>e2e\newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -160,7 +145,7 @@
     <t>False</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.zh-cn.xlf</t>
+    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:26:11</t>
@@ -172,22 +157,16 @@
     <t>True</t>
   </si>
   <si>
-    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-17 08:27:12</t>
+  </si>
+  <si>
     <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>file_full_deleted_multi_path_1.48e6116bf01773078e82b70d69ae824d9d3335bf.de-de.xlf</t>
-  </si>
-  <si>
-    <t>file_full_deleted_single_path.e86419d14c4ef175629cef2c2aa65b39701a3167.de-de.xlf</t>
+    <t>newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.3c3ea7b6f9656d2479b2f5584cb40e0a99921ef1.zh-cn.xlf</t>
   </si>
   <si>
     <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
@@ -197,6 +176,9 @@
   </si>
   <si>
     <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.3c3ea7b6f9656d2479b2f5584cb40e0a99921ef1.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -253,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R9" headerRowCount="1">
-  <autoFilter ref="A1:R9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -280,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
-  <autoFilter ref="A1:R9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -307,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -324,14 +306,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
-    <col min="2" max="2" width="39.0533142089844" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
     <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
@@ -428,15 +410,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -456,10 +438,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -474,88 +456,16 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="B2" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -566,13 +476,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -594,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -659,46 +569,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -715,46 +625,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -771,46 +681,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -818,7 +728,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -827,46 +737,46 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -874,7 +784,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -883,229 +793,58 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1116,13 +855,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.977424621582" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
     <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
@@ -1144,58 +883,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1209,16 +948,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1233,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1242,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1265,16 +1004,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1289,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1298,13 +1037,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1321,46 +1060,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1368,7 +1107,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1377,16 +1116,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1401,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1410,13 +1149,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1424,7 +1163,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1433,229 +1172,58 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="file_full_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_full_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_full_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="file_no_deleted_multi_path_2.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="file_no_deleted_single_path.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="file_partial_deleted_multi_path_1.md" r:id="rId8"/>
-    <hyperlink ref="A9" display="file_partial_deleted_multi_path_2.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>File Name</t>
   </si>
@@ -49,33 +49,36 @@
     <t/>
   </si>
   <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:26:29</t>
+  </si>
+  <si>
+    <t>file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_multi_path_2.md</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>e2e\file_partial_deleted_multi_path_1.md</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.md</t>
+  </si>
+  <si>
+    <t>e2e\file_no_deleted_single_path.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 08:26:29</t>
-  </si>
-  <si>
-    <t>file_no_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_multi_path_2.md</t>
-  </si>
-  <si>
-    <t>file_no_deleted_single_path.md</t>
-  </si>
-  <si>
-    <t>e2e\file_no_deleted_single_path.md</t>
-  </si>
-  <si>
     <t>2017-02-17 08:27:29</t>
   </si>
   <si>
-    <t>file_partial_deleted_multi_path_1.md</t>
-  </si>
-  <si>
-    <t>e2e\file_partial_deleted_multi_path_1.md</t>
-  </si>
-  <si>
     <t>newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md</t>
   </si>
   <si>
@@ -151,31 +154,40 @@
     <t>2017-02-17 08:26:11</t>
   </si>
   <si>
+    <t>2017-02-17 08:28:03</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:27:12</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/d6e766f56f677c2b0e2119e1cfda3f2817df1a4f/e2e/file_no_deleted_single_path.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/169aacf0de6b12cd6e4567dcb2ec462c58e42327/e2e/file_no_deleted_single_path.md.</t>
+  </si>
+  <si>
+    <t>newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.3c3ea7b6f9656d2479b2f5584cb40e0a99921ef1.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:27:12</t>
-  </si>
-  <si>
-    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.3c3ea7b6f9656d2479b2f5584cb40e0a99921ef1.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>file_no_deleted_multi_path_1.2336e4b28de82563dc9ea89a1eb254ab730456de.de-de.xlf</t>
   </si>
   <si>
+    <t>2017-02-17 08:28:26</t>
+  </si>
+  <si>
+    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
+  </si>
+  <si>
     <t>file_no_deleted_single_path.84480e30a75eaa7877ca77d49d2059db6121edd7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>file_partial_deleted_multi_path_1.950eb2cafff7c1eccbf1f4ff641b1cbe66aecd0c.de-de.xlf</t>
   </si>
   <si>
     <t>newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.3c3ea7b6f9656d2479b2f5584cb40e0a99921ef1.de-de.xlf</t>
@@ -316,8 +328,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -410,61 +422,61 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\file_no_deleted_multi_path_1.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="B4" display="e2e\file_partial_deleted_multi_path_1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\file_no_deleted_single_path.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
@@ -484,78 +496,78 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="34.977424621582" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -569,31 +581,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -602,13 +614,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -625,32 +637,32 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -658,13 +670,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -681,46 +693,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -728,40 +740,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -770,43 +782,43 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -817,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -826,13 +838,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -841,10 +853,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md" r:id="rId6"/>
+    <hyperlink ref="J2" display="file_no_deleted_multi_path_1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="file_partial_deleted_multi_path_1.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="file_partial_deleted_multi_path_1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="file_no_deleted_single_path.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="file_no_deleted_single_path.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -863,78 +879,78 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="34.977424621582" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -948,16 +964,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -965,14 +981,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -981,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1004,16 +1020,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1021,14 +1037,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1037,13 +1053,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1060,31 +1076,31 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1093,13 +1109,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1107,40 +1123,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1149,43 +1165,43 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1205,13 +1221,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1220,10 +1236,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="file_no_deleted_multi_path_1.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="file_no_deleted_single_path.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="file_partial_deleted_multi_path_1.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md" r:id="rId6"/>
+    <hyperlink ref="J2" display="file_no_deleted_multi_path_1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="file_no_deleted_multi_path_2.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="file_no_deleted_multi_path_1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="file_partial_deleted_multi_path_1.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="file_partial_deleted_multi_path_1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="file_no_deleted_single_path.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="file_no_deleted_single_path.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="newfile.9e3dd880-9afa-482c-baeb-f0f04e09237b.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 08:29:57</t>
@@ -67,21 +67,21 @@
     <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
   </si>
   <si>
+    <t>597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png</t>
+  </si>
+  <si>
+    <t>e2e\597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
     <t>a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png</t>
   </si>
   <si>
     <t>e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png</t>
   </si>
   <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png</t>
-  </si>
-  <si>
-    <t>e2e\597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,7 +151,7 @@
     <t>2017-02-17 08:29:40</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 08:30:36</t>
   </si>
   <si>
     <t>True</t>
@@ -163,16 +163,19 @@
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
   </si>
   <si>
+    <t>0f87e5817b690d1ebcaa672a80fba98a49ec79c1.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
     <t>3f730501e8a860b33ab56851eabb42de4e69bd95.png</t>
   </si>
   <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>0f87e5817b690d1ebcaa672a80fba98a49ec79c1.png</t>
-  </si>
-  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:31:00</t>
   </si>
   <si>
     <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.de-de.xlf</t>
@@ -316,8 +319,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,8 +467,8 @@
     <hyperlink ref="B2" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId6"/>
+    <hyperlink ref="B5" display="e2e\597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,15 +487,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -586,11 +589,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>45</v>
@@ -642,11 +645,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>45</v>
@@ -698,11 +701,11 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>45</v>
@@ -754,11 +757,11 @@
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>45</v>
@@ -773,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>42</v>
@@ -810,11 +813,11 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>45</v>
@@ -829,7 +832,7 @@
         <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>42</v>
@@ -841,10 +844,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId6"/>
+    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId8"/>
+    <hyperlink ref="J5" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId9"/>
+    <hyperlink ref="A6" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId10"/>
+    <hyperlink ref="J6" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -863,15 +871,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -965,14 +973,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1013,7 +1021,7 @@
         <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1021,14 +1029,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1069,7 +1077,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1077,14 +1085,14 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1133,14 +1141,14 @@
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1152,7 +1160,7 @@
         <v>50</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>42</v>
@@ -1189,14 +1197,14 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1208,7 +1216,7 @@
         <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>42</v>
@@ -1220,10 +1228,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId5"/>
-    <hyperlink ref="A6" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId6"/>
+    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId8"/>
+    <hyperlink ref="J5" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId9"/>
+    <hyperlink ref="A6" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId10"/>
+    <hyperlink ref="J6" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -55,31 +55,31 @@
     <t>2017-02-17 08:29:57</t>
   </si>
   <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
+  </si>
+  <si>
+    <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
+  </si>
+  <si>
+    <t>a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png</t>
+  </si>
+  <si>
+    <t>e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
     <t>89e89bf0-5de9-44d8-833a-fcde24034b01.md</t>
   </si>
   <si>
     <t>e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md</t>
   </si>
   <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
-  </si>
-  <si>
-    <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
-  </si>
-  <si>
-    <t>597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png</t>
-  </si>
-  <si>
-    <t>e2e\597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png</t>
-  </si>
-  <si>
-    <t>e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:32:13</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -157,19 +157,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>3f730501e8a860b33ab56851eabb42de4e69bd95.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
     <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.zh-cn.xlf</t>
   </si>
   <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0f87e5817b690d1ebcaa672a80fba98a49ec79c1.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>3f730501e8a860b33ab56851eabb42de4e69bd95.png</t>
+    <t>2017-02-17 08:31:57</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5f9ef75c68b17508eff34571b420f0931b0f8711/e2e/89e89bf0-5de9-44d8-833a-fcde24034b01.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c8bf2e3b7e3cd0aba673eafb98dae9615fdd3115/e2e/89e89bf0-5de9-44d8-833a-fcde24034b01.md.</t>
   </si>
   <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
@@ -178,10 +181,10 @@
     <t>2017-02-17 08:31:00</t>
   </si>
   <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
+  </si>
+  <si>
     <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.de-de.xlf</t>
-  </si>
-  <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -238,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -265,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -292,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -309,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,7 +404,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
@@ -418,57 +421,33 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId6"/>
+    <hyperlink ref="B3" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -479,7 +458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +481,7 @@
     <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -678,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -717,10 +696,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>42</v>
@@ -731,13 +710,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -749,19 +728,19 @@
         <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>45</v>
@@ -773,86 +752,28 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId8"/>
-    <hyperlink ref="J5" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId10"/>
-    <hyperlink ref="J6" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId11"/>
+    <hyperlink ref="A3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId6"/>
+    <hyperlink ref="J4" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId7"/>
+    <hyperlink ref="A5" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -863,7 +784,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +807,7 @@
     <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -965,7 +886,7 @@
         <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -977,10 +898,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1021,7 +942,7 @@
         <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1033,10 +954,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1062,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -1077,7 +998,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1089,10 +1010,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1101,10 +1022,10 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>42</v>
@@ -1115,13 +1036,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -1133,22 +1054,22 @@
         <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1157,86 +1078,28 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId8"/>
-    <hyperlink ref="J5" display="597d8a5d-c35c-40c9-b0bc-7aa8ba80b552.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId10"/>
-    <hyperlink ref="J6" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId11"/>
+    <hyperlink ref="A3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId6"/>
+    <hyperlink ref="J4" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId7"/>
+    <hyperlink ref="A5" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -55,6 +55,15 @@
     <t>2017-02-17 08:29:57</t>
   </si>
   <si>
+    <t>89e89bf0-5de9-44d8-833a-fcde24034b01.md</t>
+  </si>
+  <si>
+    <t>e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:32:13</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
   </si>
   <si>
@@ -70,18 +79,6 @@
     <t>.png</t>
   </si>
   <si>
-    <t>89e89bf0-5de9-44d8-833a-fcde24034b01.md</t>
-  </si>
-  <si>
-    <t>e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:32:13</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -157,6 +154,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:31:57</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:32:51</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
   </si>
   <si>
@@ -166,25 +172,19 @@
     <t>True(Dependency)</t>
   </si>
   <si>
-    <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:31:57</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5f9ef75c68b17508eff34571b420f0931b0f8711/e2e/89e89bf0-5de9-44d8-833a-fcde24034b01.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/c8bf2e3b7e3cd0aba673eafb98dae9615fdd3115/e2e/89e89bf0-5de9-44d8-833a-fcde24034b01.md.</t>
-  </si>
-  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:31:00</t>
   </si>
   <si>
+    <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:33:15</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
-  </si>
-  <si>
-    <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -393,18 +393,18 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
@@ -427,27 +427,27 @@
         <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
+    <hyperlink ref="B3" display="e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -481,63 +481,63 @@
     <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -551,19 +551,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -572,25 +572,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -607,19 +607,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -628,25 +628,25 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -654,55 +654,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="P4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -713,25 +713,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -752,28 +752,28 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId6"/>
-    <hyperlink ref="J4" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId7"/>
-    <hyperlink ref="A5" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId8"/>
+    <hyperlink ref="J5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -807,63 +807,63 @@
     <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -877,16 +877,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -898,11 +898,11 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
@@ -910,13 +910,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -933,19 +933,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -954,11 +954,11 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -966,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -980,25 +980,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1007,13 +1007,13 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1022,13 +1022,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1039,25 +1039,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1066,10 +1066,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1078,28 +1078,28 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId6"/>
-    <hyperlink ref="J4" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId7"/>
-    <hyperlink ref="A5" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId9"/>
+    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId8"/>
+    <hyperlink ref="J5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,46 +37,34 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
+  </si>
+  <si>
+    <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:29:57</t>
+  </si>
+  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
   </si>
   <si>
     <t>e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:29:57</t>
-  </si>
-  <si>
-    <t>89e89bf0-5de9-44d8-833a-fcde24034b01.md</t>
-  </si>
-  <si>
-    <t>e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:32:13</t>
-  </si>
-  <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
-  </si>
-  <si>
-    <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
-  </si>
-  <si>
-    <t>a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png</t>
-  </si>
-  <si>
-    <t>e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png</t>
-  </si>
-  <si>
-    <t>.png</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:34:19</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -142,49 +130,34 @@
     <t>False</t>
   </si>
   <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:29:40</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:30:36</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:29:40</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:30:36</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:31:57</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:32:51</t>
-  </si>
-  <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>3f730501e8a860b33ab56851eabb42de4e69bd95.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
+    <t>2017-02-17 08:34:03</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5f9ef75c68b17508eff34571b420f0931b0f8711/e2e/36f86a74-d99b-4794-9c6d-62d3ca264d00.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/442805766ba4e1681ec0b655717502d566ce9a16/e2e/36f86a74-d99b-4794-9c6d-62d3ca264d00.md.</t>
+  </si>
+  <si>
+    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:31:00</t>
   </si>
   <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:31:00</t>
-  </si>
-  <si>
-    <t>89e89bf0-5de9-44d8-833a-fcde24034b01.f1b311b4027461e9650622f58176a745ef838f07.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:33:15</t>
-  </si>
-  <si>
-    <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -241,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -295,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -312,7 +285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,67 +360,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -458,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -478,66 +403,66 @@
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -551,19 +476,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -572,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -584,13 +509,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -604,22 +529,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -628,10 +553,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -640,140 +565,24 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId8"/>
-    <hyperlink ref="J5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId9"/>
+    <hyperlink ref="A2" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -784,7 +593,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -804,66 +613,66 @@
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -877,16 +686,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -898,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -910,13 +719,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -930,22 +739,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -954,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -966,140 +775,24 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="89e89bf0-5de9-44d8-833a-fcde24034b01.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId8"/>
-    <hyperlink ref="J5" display="a67ecaf0-8bb1-402c-8ae3-a9a057f30ef6.png" r:id="rId9"/>
+    <hyperlink ref="A2" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -37,36 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
+  </si>
+  <si>
+    <t>e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:34:19</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
   </si>
   <si>
     <t>e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-17 08:29:57</t>
   </si>
   <si>
-    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
-  </si>
-  <si>
-    <t>e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:34:19</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,6 +127,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:34:03</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:34:57</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
   </si>
   <si>
@@ -139,25 +148,16 @@
     <t>2017-02-17 08:30:36</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:34:03</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/5f9ef75c68b17508eff34571b420f0931b0f8711/e2e/36f86a74-d99b-4794-9c6d-62d3ca264d00.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/442805766ba4e1681ec0b655717502d566ce9a16/e2e/36f86a74-d99b-4794-9c6d-62d3ca264d00.md.</t>
+    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:35:23</t>
   </si>
   <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:31:00</t>
-  </si>
-  <si>
-    <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -360,19 +360,19 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -406,63 +406,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -476,19 +476,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -497,25 +497,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -529,22 +529,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -553,36 +553,36 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -616,63 +616,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -686,16 +686,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -707,11 +707,11 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
@@ -719,13 +719,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -739,22 +739,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -763,11 +763,11 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -775,24 +775,24 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -55,6 +55,21 @@
     <t>2017-02-17 08:34:19</t>
   </si>
   <si>
+    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
+  </si>
+  <si>
+    <t>e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:36:34</t>
+  </si>
+  <si>
+    <t>833eee87-3cb5-4224-a197-252dfa779bea.md</t>
+  </si>
+  <si>
+    <t>e2e\833eee87-3cb5-4224-a197-252dfa779bea.md</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.md</t>
   </si>
   <si>
@@ -64,24 +79,6 @@
     <t>2017-02-17 08:29:57</t>
   </si>
   <si>
-    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
-  </si>
-  <si>
-    <t>e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:36:34</t>
-  </si>
-  <si>
-    <t>833eee87-3cb5-4224-a197-252dfa779bea.md</t>
-  </si>
-  <si>
-    <t>e2e\833eee87-3cb5-4224-a197-252dfa779bea.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -157,6 +154,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:36:17</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:37:12</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
   </si>
   <si>
@@ -166,28 +172,22 @@
     <t>2017-02-17 08:30:36</t>
   </si>
   <si>
-    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:36:17</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:35:23</t>
   </si>
   <si>
+    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:37:38</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 08:31:00</t>
-  </si>
-  <si>
-    <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -413,21 +413,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -436,21 +436,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId5"/>
+    <hyperlink ref="B3" display="e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -489,58 +489,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -554,19 +554,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -575,25 +575,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -610,19 +610,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -631,10 +631,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -643,13 +643,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -663,34 +663,34 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -699,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -713,41 +713,41 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
@@ -755,13 +755,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -771,10 +771,12 @@
   <hyperlinks>
     <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -813,58 +815,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -878,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -899,11 +901,11 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
@@ -911,13 +913,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -934,16 +936,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -955,11 +957,11 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -967,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -987,34 +989,34 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1023,13 +1025,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1037,41 +1039,41 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="K5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
@@ -1079,13 +1081,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1095,10 +1097,12 @@
   <hyperlinks>
     <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -88,7 +88,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 08:38:50</t>
+    <t>2017-02-17 08:39:39</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -187,7 +187,7 @@
     <t>db74cb5f-5c6c-4252-91e4-b7c9155840cf.d8c3270d535368f03b776ade556e6fff3fd5e980.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:38:32</t>
+    <t>2017-02-17 08:39:23</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>File Name</t>
   </si>
@@ -190,7 +190,10 @@
     <t>2017-02-17 08:39:23</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 08:40:19</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/850d296c50eff54dca06124b04515681cbb40868/e2e/db74cb5f-5c6c-4252-91e4-b7c9155840cf.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/966d08049f214dba4efdf4dd920412853e94e2b4/e2e/db74cb5f-5c6c-4252-91e4-b7c9155840cf.md.</t>
   </si>
   <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>db74cb5f-5c6c-4252-91e4-b7c9155840cf.d8c3270d535368f03b776ade556e6fff3fd5e980.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:40:43</t>
   </si>
 </sst>
 </file>
@@ -532,7 +538,7 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -843,11 +849,11 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>58</v>
@@ -868,7 +874,7 @@
         <v>45</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -882,6 +888,7 @@
     <hyperlink ref="A5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId8"/>
     <hyperlink ref="J5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId9"/>
     <hyperlink ref="A6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -915,7 +922,7 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -994,7 +1001,7 @@
         <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1006,10 +1013,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1050,7 +1057,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1062,10 +1069,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1106,7 +1113,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -1118,10 +1125,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1162,7 +1169,7 @@
         <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1174,10 +1181,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1218,7 +1225,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1226,14 +1233,14 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1251,7 +1258,7 @@
         <v>45</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1265,6 +1272,7 @@
     <hyperlink ref="A5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId8"/>
     <hyperlink ref="J5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId9"/>
     <hyperlink ref="A6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -85,9 +85,6 @@
     <t>e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2017-02-17 08:39:39</t>
   </si>
   <si>
@@ -190,10 +187,7 @@
     <t>2017-02-17 08:39:23</t>
   </si>
   <si>
-    <t>2017-02-17 08:40:19</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/850d296c50eff54dca06124b04515681cbb40868/e2e/db74cb5f-5c6c-4252-91e4-b7c9155840cf.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/966d08049f214dba4efdf4dd920412853e94e2b4/e2e/db74cb5f-5c6c-4252-91e4-b7c9155840cf.md.</t>
+    <t>2017-02-17 08:41:29</t>
   </si>
   <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
@@ -217,7 +211,7 @@
     <t>db74cb5f-5c6c-4252-91e4-b7c9155840cf.d8c3270d535368f03b776ade556e6fff3fd5e980.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:40:43</t>
+    <t>2017-02-17 08:41:52</t>
   </si>
 </sst>
 </file>
@@ -489,13 +483,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -538,63 +532,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -608,19 +602,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -629,25 +623,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -664,19 +658,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -685,10 +679,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -697,13 +691,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -720,19 +714,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -741,10 +735,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -753,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -776,19 +770,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -797,10 +791,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -809,13 +803,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -829,22 +823,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -853,10 +847,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -865,16 +859,16 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -922,63 +916,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -992,16 +986,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1013,10 +1007,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1025,13 +1019,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1048,16 +1042,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1069,10 +1063,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1081,13 +1075,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1104,16 +1098,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -1125,10 +1119,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1137,13 +1131,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1160,16 +1154,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1181,10 +1175,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1193,13 +1187,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1213,22 +1207,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1237,10 +1231,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1249,16 +1243,16 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -97,7 +97,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 08:43:04</t>
+    <t>2017-02-17 08:44:07</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -205,7 +205,7 @@
     <t>f883967a-db19-40e3-8936-058244fad2a3.ba050c8d50eafebb32542db6559b517eaeae44f5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 08:42:43</t>
+    <t>2017-02-17 08:43:43</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -94,9 +94,6 @@
     <t>e2e\f883967a-db19-40e3-8936-058244fad2a3.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2017-02-17 08:44:07</t>
   </si>
   <si>
@@ -208,7 +205,7 @@
     <t>2017-02-17 08:43:43</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 08:44:55</t>
   </si>
   <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>f883967a-db19-40e3-8936-058244fad2a3.ba050c8d50eafebb32542db6559b517eaeae44f5.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:45:25</t>
   </si>
 </sst>
 </file>
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -585,58 +585,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -650,19 +650,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -671,25 +671,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -706,19 +706,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -727,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -739,13 +739,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -783,10 +783,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -795,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -818,19 +818,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -839,10 +839,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -851,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -874,19 +874,19 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -895,10 +895,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -907,13 +907,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -927,35 +927,35 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
       </c>
@@ -963,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -988,6 +988,7 @@
     <hyperlink ref="A6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId10"/>
     <hyperlink ref="J6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId11"/>
     <hyperlink ref="A7" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1026,58 +1027,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1091,16 +1092,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1112,11 +1113,11 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
@@ -1124,13 +1125,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1147,16 +1148,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1168,11 +1169,11 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -1180,13 +1181,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1203,16 +1204,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -1224,11 +1225,11 @@
         <v>13</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1236,13 +1237,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1259,16 +1260,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1280,11 +1281,11 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
@@ -1292,13 +1293,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1315,16 +1316,16 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
@@ -1336,11 +1337,11 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1348,13 +1349,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1368,35 +1369,35 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
       </c>
@@ -1404,13 +1405,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1429,6 +1430,7 @@
     <hyperlink ref="A6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId10"/>
     <hyperlink ref="J6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId11"/>
     <hyperlink ref="A7" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>File Name</t>
   </si>
@@ -103,7 +103,7 @@
     <t>e2e\49906aa1-7bfa-4bd9-ba7c-060d782057c6.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>2017-02-17 08:48:00</t>
@@ -229,6 +229,9 @@
     <t>2017-02-17 08:47:40</t>
   </si>
   <si>
+    <t>Handback file name: d2dxaph2.0sx is different with handoff file name: 49906aa1-7bfa-4bd9-ba7c-060d782057c6.79a23d1e2efe6af140fe58c6d3a1a9f105ff0667.zh-cn.</t>
+  </si>
+  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
   </si>
   <si>
@@ -257,6 +260,9 @@
   </si>
   <si>
     <t>49906aa1-7bfa-4bd9-ba7c-060d782057c6.79a23d1e2efe6af140fe58c6d3a1a9f105ff0667.de-de.xlf</t>
+  </si>
+  <si>
+    <t>Handback file name: d2dxaph2.0sx is different with handoff file name: 49906aa1-7bfa-4bd9-ba7c-060d782057c6.79a23d1e2efe6af140fe58c6d3a1a9f105ff0667.de-de.</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1079,7 @@
         <v>51</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1208,7 @@
         <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1214,10 +1220,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1258,7 +1264,7 @@
         <v>51</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1270,10 +1276,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1314,7 +1320,7 @@
         <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>15</v>
@@ -1326,10 +1332,10 @@
         <v>13</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1370,7 +1376,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1382,10 +1388,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1426,7 +1432,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
@@ -1438,10 +1444,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1482,7 +1488,7 @@
         <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>26</v>
@@ -1538,7 +1544,7 @@
         <v>51</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>30</v>
@@ -1571,7 +1577,7 @@
         <v>51</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,21 @@
     <t>2017-02-17 08:36:34</t>
   </si>
   <si>
+    <t>5f32679b-2c25-405c-9510-405bd14f3601.md</t>
+  </si>
+  <si>
+    <t>e2e\5f32679b-2c25-405c-9510-405bd14f3601.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:50:21</t>
+  </si>
+  <si>
+    <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md</t>
+  </si>
+  <si>
+    <t>e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md</t>
+  </si>
+  <si>
     <t>833eee87-3cb5-4224-a197-252dfa779bea.md</t>
   </si>
   <si>
@@ -109,24 +124,6 @@
     <t>2017-02-17 08:48:00</t>
   </si>
   <si>
-    <t>5f32679b-2c25-405c-9510-405bd14f3601.md</t>
-  </si>
-  <si>
-    <t>e2e\5f32679b-2c25-405c-9510-405bd14f3601.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:50:21</t>
-  </si>
-  <si>
-    <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md</t>
-  </si>
-  <si>
-    <t>e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -211,6 +208,21 @@
     <t>2017-02-17 08:37:12</t>
   </si>
   <si>
+    <t>5f32679b-2c25-405c-9510-405bd14f3601.4cdc07bd6c71459cd342ec37cdf54d0f6860272f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:50:03</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:50:58</t>
+  </si>
+  <si>
+    <t>Full_HB_2017021750</t>
+  </si>
+  <si>
+    <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.37341cd1b354a1721e8e34256c393088de0ae8f4.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.zh-cn.xlf</t>
   </si>
   <si>
@@ -250,15 +262,6 @@
     <t>Handback file name: d2dxaph2.0sx is different with handoff file name: 49906aa1-7bfa-4bd9-ba7c-060d782057c6.79a23d1e2efe6af140fe58c6d3a1a9f105ff0667.zh-cn.</t>
   </si>
   <si>
-    <t>5f32679b-2c25-405c-9510-405bd14f3601.4cdc07bd6c71459cd342ec37cdf54d0f6860272f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:50:03</t>
-  </si>
-  <si>
-    <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.37341cd1b354a1721e8e34256c393088de0ae8f4.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
   </si>
   <si>
@@ -271,6 +274,15 @@
     <t>2017-02-17 08:37:38</t>
   </si>
   <si>
+    <t>5f32679b-2c25-405c-9510-405bd14f3601.4cdc07bd6c71459cd342ec37cdf54d0f6860272f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:51:23</t>
+  </si>
+  <si>
+    <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.37341cd1b354a1721e8e34256c393088de0ae8f4.de-de.xlf</t>
+  </si>
+  <si>
     <t>b2c0b083-72d9-42bd-863b-875a058019a3.9eb420702f9a718bbab80b59b48abed3941622ab.de-de.xlf</t>
   </si>
   <si>
@@ -290,12 +302,6 @@
   </si>
   <si>
     <t>Handback file name: d2dxaph2.0sx is different with handoff file name: 49906aa1-7bfa-4bd9-ba7c-060d782057c6.79a23d1e2efe6af140fe58c6d3a1a9f105ff0667.de-de.</t>
-  </si>
-  <si>
-    <t>5f32679b-2c25-405c-9510-405bd14f3601.4cdc07bd6c71459cd342ec37cdf54d0f6860272f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.37341cd1b354a1721e8e34256c393088de0ae8f4.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -527,30 +533,30 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -573,112 +579,112 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId10"/>
+    <hyperlink ref="B4" display="e2e\5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -717,58 +723,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -782,19 +788,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -803,25 +809,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -838,19 +844,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -859,10 +865,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -871,13 +877,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -894,46 +900,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -941,7 +947,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -950,46 +956,46 @@
         <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1006,31 +1012,31 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1039,13 +1045,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1053,7 +1059,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1062,32 +1068,32 @@
         <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
       </c>
@@ -1095,54 +1101,54 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1151,99 +1157,99 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -1263,16 +1269,16 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1281,16 +1287,18 @@
     <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
     <hyperlink ref="A3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
     <hyperlink ref="J3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId12"/>
-    <hyperlink ref="A8" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId13"/>
-    <hyperlink ref="A9" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId14"/>
-    <hyperlink ref="A10" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId15"/>
+    <hyperlink ref="A4" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId16"/>
+    <hyperlink ref="A10" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1329,58 +1337,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -1394,16 +1402,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1415,10 +1423,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1427,13 +1435,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1450,16 +1458,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1471,10 +1479,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1483,13 +1491,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1506,46 +1514,46 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1553,55 +1561,55 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1618,31 +1626,31 @@
         <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1651,13 +1659,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1665,7 +1673,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1674,31 +1682,31 @@
         <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1707,54 +1715,54 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1763,43 +1771,43 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
       </c>
@@ -1810,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1819,43 +1827,43 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
       </c>
@@ -1866,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -1875,16 +1883,16 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1893,16 +1901,18 @@
     <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
     <hyperlink ref="A3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
     <hyperlink ref="J3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId12"/>
-    <hyperlink ref="A8" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId13"/>
-    <hyperlink ref="A9" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId14"/>
-    <hyperlink ref="A10" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId15"/>
+    <hyperlink ref="A4" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId16"/>
+    <hyperlink ref="A10" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md</t>
+  </si>
+  <si>
+    <t>e2e\2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:52:37</t>
+  </si>
+  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
   </si>
   <si>
     <t>e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-17 08:34:19</t>
   </si>
   <si>
@@ -73,6 +85,12 @@
     <t>2017-02-17 08:50:21</t>
   </si>
   <si>
+    <t>6a5b8b08-42ae-4580-884f-50d0478a04c8.md</t>
+  </si>
+  <si>
+    <t>e2e\6a5b8b08-42ae-4580-884f-50d0478a04c8.md</t>
+  </si>
+  <si>
     <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md</t>
   </si>
   <si>
@@ -124,24 +142,6 @@
     <t>2017-02-17 08:48:00</t>
   </si>
   <si>
-    <t>2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md</t>
-  </si>
-  <si>
-    <t>e2e\2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:52:37</t>
-  </si>
-  <si>
-    <t>6a5b8b08-42ae-4580-884f-50d0478a04c8.md</t>
-  </si>
-  <si>
-    <t>e2e\6a5b8b08-42ae-4580-884f-50d0478a04c8.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -205,6 +205,21 @@
     <t>False</t>
   </si>
   <si>
+    <t>2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.83e9da73a66471378b8947de1d5e33bdbb113c01.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:52:19</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:53:12</t>
+  </si>
+  <si>
+    <t>API_HB_2017021753</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.zh-cn.xlf</t>
   </si>
   <si>
@@ -214,9 +229,6 @@
     <t>2017-02-17 08:34:57</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.zh-cn.xlf</t>
   </si>
   <si>
@@ -238,6 +250,9 @@
     <t>Full_HB_2017021750</t>
   </si>
   <si>
+    <t>6a5b8b08-42ae-4580-884f-50d0478a04c8.4917edd15a0aa9f06e438288c9496e00957d9596.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.37341cd1b354a1721e8e34256c393088de0ae8f4.zh-cn.xlf</t>
   </si>
   <si>
@@ -278,15 +293,6 @@
   </si>
   <si>
     <t>Handback file name: d2dxaph2.0sx is different with handoff file name: 49906aa1-7bfa-4bd9-ba7c-060d782057c6.79a23d1e2efe6af140fe58c6d3a1a9f105ff0667.zh-cn.</t>
-  </si>
-  <si>
-    <t>2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.83e9da73a66471378b8947de1d5e33bdbb113c01.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:52:19</t>
-  </si>
-  <si>
-    <t>6a5b8b08-42ae-4580-884f-50d0478a04c8.4917edd15a0aa9f06e438288c9496e00957d9596.zh-cn.xlf</t>
   </si>
   <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
@@ -517,18 +523,18 @@
         <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
@@ -543,15 +549,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -566,15 +572,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -589,15 +595,15 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -609,18 +615,18 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -635,15 +641,15 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -658,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -698,74 +704,74 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="F12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId11"/>
-    <hyperlink ref="B12" display="e2e\6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId12"/>
+    <hyperlink ref="B2" display="e2e\2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId11"/>
+    <hyperlink ref="B12" display="e2e\49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -896,13 +902,13 @@
         <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -916,7 +922,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -934,22 +940,22 @@
         <v>62</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -958,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -972,7 +978,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -990,31 +996,31 @@
         <v>62</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1028,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1049,28 +1055,28 @@
         <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1084,7 +1090,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1099,34 +1105,34 @@
         <v>61</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1140,7 +1146,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1158,31 +1164,31 @@
         <v>62</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1196,7 +1202,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1211,25 +1217,25 @@
         <v>61</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1238,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1270,23 +1276,23 @@
         <v>62</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
@@ -1303,7 +1309,7 @@
         <v>62</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>60</v>
@@ -1326,23 +1332,23 @@
         <v>62</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
@@ -1359,18 +1365,18 @@
         <v>62</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>60</v>
@@ -1382,51 +1388,51 @@
         <v>62</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="M11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>60</v>
@@ -1441,7 +1447,7 @@
         <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1453,7 +1459,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -1462,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
@@ -1471,29 +1477,31 @@
         <v>62</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId16"/>
-    <hyperlink ref="A10" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId17"/>
-    <hyperlink ref="A11" display="2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId18"/>
-    <hyperlink ref="A12" display="6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId19"/>
+    <hyperlink ref="A2" display="2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId20"/>
+    <hyperlink ref="A12" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId21"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1588,7 +1596,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -1606,22 +1614,22 @@
         <v>62</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1630,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
@@ -1644,7 +1652,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -1662,22 +1670,22 @@
         <v>62</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1686,7 +1694,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
@@ -1700,7 +1708,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1718,31 +1726,31 @@
         <v>62</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
@@ -1756,7 +1764,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1774,31 +1782,31 @@
         <v>62</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
@@ -1812,7 +1820,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1827,25 +1835,25 @@
         <v>61</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1854,7 +1862,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
@@ -1868,7 +1876,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1886,22 +1894,22 @@
         <v>62</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1910,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
@@ -1924,7 +1932,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1942,22 +1950,22 @@
         <v>62</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1966,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
@@ -1980,7 +1988,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1998,10 +2006,10 @@
         <v>62</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -2013,7 +2021,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -2022,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
@@ -2031,18 +2039,18 @@
         <v>62</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>60</v>
@@ -2054,10 +2062,10 @@
         <v>62</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -2069,7 +2077,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -2078,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
@@ -2087,18 +2095,18 @@
         <v>62</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>60</v>
@@ -2110,10 +2118,10 @@
         <v>62</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -2125,7 +2133,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -2134,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
@@ -2148,13 +2156,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>60</v>
@@ -2166,10 +2174,10 @@
         <v>62</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -2181,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -2190,7 +2198,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>File Name</t>
   </si>
@@ -58,6 +58,15 @@
     <t>2017-02-17 08:52:37</t>
   </si>
   <si>
+    <t>35519432-5a42-4790-a129-857787b75d1e.md</t>
+  </si>
+  <si>
+    <t>e2e\35519432-5a42-4790-a129-857787b75d1e.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:57:00</t>
+  </si>
+  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.md</t>
   </si>
   <si>
@@ -76,6 +85,12 @@
     <t>2017-02-17 08:54:26</t>
   </si>
   <si>
+    <t>48e33266-ac25-43a9-a149-3d80245f3da4.md</t>
+  </si>
+  <si>
+    <t>e2e\48e33266-ac25-43a9-a149-3d80245f3da4.md</t>
+  </si>
+  <si>
     <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.md</t>
   </si>
   <si>
@@ -157,21 +172,6 @@
     <t>2017-02-17 08:48:00</t>
   </si>
   <si>
-    <t>35519432-5a42-4790-a129-857787b75d1e.md</t>
-  </si>
-  <si>
-    <t>e2e\35519432-5a42-4790-a129-857787b75d1e.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:57:00</t>
-  </si>
-  <si>
-    <t>48e33266-ac25-43a9-a149-3d80245f3da4.md</t>
-  </si>
-  <si>
-    <t>e2e\48e33266-ac25-43a9-a149-3d80245f3da4.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -250,6 +250,18 @@
     <t>True</t>
   </si>
   <si>
+    <t>35519432-5a42-4790-a129-857787b75d1e.220d5c9fd5825fc30638a42fed896ee46992d7bb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:56:42</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:57:43</t>
+  </si>
+  <si>
+    <t>API_HB1_2017021757</t>
+  </si>
+  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.zh-cn.xlf</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t>2017-02-17 08:54:59</t>
   </si>
   <si>
+    <t>48e33266-ac25-43a9-a149-3d80245f3da4.6c9f5545f32f99cb2339cee90ba96d01655d1957.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.zh-cn.xlf</t>
   </si>
   <si>
@@ -335,15 +350,6 @@
   </si>
   <si>
     <t>Handback file name: d2dxaph2.0sx is different with handoff file name: 49906aa1-7bfa-4bd9-ba7c-060d782057c6.79a23d1e2efe6af140fe58c6d3a1a9f105ff0667.zh-cn.</t>
-  </si>
-  <si>
-    <t>35519432-5a42-4790-a129-857787b75d1e.220d5c9fd5825fc30638a42fed896ee46992d7bb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 08:56:42</t>
-  </si>
-  <si>
-    <t>48e33266-ac25-43a9-a149-3d80245f3da4.6c9f5545f32f99cb2339cee90ba96d01655d1957.zh-cn.xlf</t>
   </si>
   <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -681,33 +687,33 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -730,15 +736,15 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -750,18 +756,18 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -776,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -799,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -845,95 +851,95 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="F16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId11"/>
-    <hyperlink ref="B12" display="e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId12"/>
-    <hyperlink ref="B13" display="e2e\f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId13"/>
-    <hyperlink ref="B14" display="e2e\49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId14"/>
-    <hyperlink ref="B15" display="e2e\35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId15"/>
-    <hyperlink ref="B16" display="e2e\48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId16"/>
+    <hyperlink ref="B3" display="e2e\35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId11"/>
+    <hyperlink ref="B12" display="e2e\b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId12"/>
+    <hyperlink ref="B13" display="e2e\d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId13"/>
+    <hyperlink ref="B14" display="e2e\db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId14"/>
+    <hyperlink ref="B15" display="e2e\f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId15"/>
+    <hyperlink ref="B16" display="e2e\49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1120,7 +1126,7 @@
         <v>80</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
@@ -1158,10 +1164,10 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1170,10 +1176,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1214,10 +1220,10 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1226,10 +1232,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1270,10 +1276,10 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1282,13 +1288,13 @@
         <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
@@ -1308,7 +1314,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1326,25 +1332,25 @@
         <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="M7" s="0" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
@@ -1385,7 +1391,7 @@
         <v>92</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1397,10 +1403,10 @@
         <v>92</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
@@ -1420,7 +1426,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1435,28 +1441,28 @@
         <v>71</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>10</v>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1494,25 +1500,25 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>10</v>
@@ -1547,25 +1553,25 @@
         <v>71</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -1606,10 +1612,10 @@
         <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1618,10 +1624,10 @@
         <v>37</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -1662,22 +1668,22 @@
         <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>10</v>
@@ -1695,18 +1701,18 @@
         <v>72</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>70</v>
@@ -1718,23 +1724,23 @@
         <v>72</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="M14" s="0" t="s">
         <v>10</v>
       </c>
@@ -1751,18 +1757,18 @@
         <v>72</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>70</v>
@@ -1774,51 +1780,51 @@
         <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="M15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>70</v>
@@ -1833,7 +1839,7 @@
         <v>109</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>10</v>
@@ -1845,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>10</v>
@@ -1863,37 +1869,39 @@
         <v>72</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId2"/>
     <hyperlink ref="J2" display="2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId21"/>
-    <hyperlink ref="A12" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId22"/>
-    <hyperlink ref="J12" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId24"/>
-    <hyperlink ref="A14" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId25"/>
-    <hyperlink ref="A15" display="35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId26"/>
-    <hyperlink ref="A16" display="48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId27"/>
+    <hyperlink ref="A3" display="35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId25"/>
+    <hyperlink ref="A14" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId26"/>
+    <hyperlink ref="J14" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId27"/>
+    <hyperlink ref="A15" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId28"/>
+    <hyperlink ref="A16" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId29"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1988,7 +1996,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -2006,22 +2014,22 @@
         <v>72</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -2044,7 +2052,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -2062,22 +2070,22 @@
         <v>72</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -2100,7 +2108,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -2118,22 +2126,22 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -2156,7 +2164,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -2174,25 +2182,25 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
@@ -2212,7 +2220,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -2230,25 +2238,25 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
@@ -2268,7 +2276,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -2286,22 +2294,22 @@
         <v>77</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -2324,7 +2332,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -2342,22 +2350,22 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -2380,7 +2388,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -2398,22 +2406,22 @@
         <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -2436,7 +2444,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2454,22 +2462,22 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -2492,7 +2500,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2510,10 +2518,10 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -2525,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -2543,18 +2551,18 @@
         <v>72</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>70</v>
@@ -2566,10 +2574,10 @@
         <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -2581,7 +2589,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -2599,7 +2607,7 @@
         <v>72</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -2622,7 +2630,7 @@
         <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
@@ -2637,7 +2645,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>10</v>
@@ -2660,7 +2668,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
@@ -2678,10 +2686,10 @@
         <v>72</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -2693,7 +2701,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>10</v>
@@ -2716,7 +2724,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>9</v>
@@ -2734,10 +2742,10 @@
         <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>10</v>
@@ -2749,7 +2757,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>10</v>
@@ -2772,7 +2780,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>9</v>
@@ -2790,7 +2798,7 @@
         <v>72</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>13</v>
@@ -2805,7 +2813,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>File Name</t>
   </si>
@@ -352,6 +352,15 @@
     <t>Handback file name: d2dxaph2.0sx is different with handoff file name: 49906aa1-7bfa-4bd9-ba7c-060d782057c6.79a23d1e2efe6af140fe58c6d3a1a9f105ff0667.zh-cn.</t>
   </si>
   <si>
+    <t>35519432-5a42-4790-a129-857787b75d1e.220d5c9fd5825fc30638a42fed896ee46992d7bb.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 08:58:38</t>
+  </si>
+  <si>
+    <t>API_HB2_2017021758</t>
+  </si>
+  <si>
     <t>36f86a74-d99b-4794-9c6d-62d3ca264d00.43f81a07af03e02b348103a2fe995cc36cbaa688.de-de.xlf</t>
   </si>
   <si>
@@ -364,6 +373,9 @@
     <t>2017-02-17 08:55:24</t>
   </si>
   <si>
+    <t>48e33266-ac25-43a9-a149-3d80245f3da4.6c9f5545f32f99cb2339cee90ba96d01655d1957.de-de.xlf</t>
+  </si>
+  <si>
     <t>58e99e11-ee83-49dd-b047-8c0a59d99fe0.151d874063a294d396fcf66010664ef24ed5e802.de-de.xlf</t>
   </si>
   <si>
@@ -404,12 +416,6 @@
   </si>
   <si>
     <t>2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.83e9da73a66471378b8947de1d5e33bdbb113c01.de-de.xlf</t>
-  </si>
-  <si>
-    <t>35519432-5a42-4790-a129-857787b75d1e.220d5c9fd5825fc30638a42fed896ee46992d7bb.de-de.xlf</t>
-  </si>
-  <si>
-    <t>48e33266-ac25-43a9-a149-3d80245f3da4.6c9f5545f32f99cb2339cee90ba96d01655d1957.de-de.xlf</t>
   </si>
   <si>
     <t>6a5b8b08-42ae-4580-884f-50d0478a04c8.4917edd15a0aa9f06e438288c9496e00957d9596.de-de.xlf</t>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
@@ -1996,7 +2002,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -2017,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>112</v>
@@ -2032,7 +2038,7 @@
         <v>113</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
@@ -2052,7 +2058,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -2070,22 +2076,22 @@
         <v>72</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -2108,7 +2114,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -2126,22 +2132,22 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -2164,7 +2170,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -2182,25 +2188,25 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -2241,22 +2247,22 @@
         <v>120</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>120</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
@@ -2276,7 +2282,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -2291,28 +2297,28 @@
         <v>71</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -2350,25 +2356,25 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
@@ -2388,7 +2394,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -2403,25 +2409,25 @@
         <v>71</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -2444,7 +2450,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2462,22 +2468,22 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -2500,7 +2506,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2518,22 +2524,22 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -2551,18 +2557,18 @@
         <v>72</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>70</v>
@@ -2574,22 +2580,22 @@
         <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>10</v>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -2607,18 +2613,18 @@
         <v>72</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>70</v>
@@ -2630,10 +2636,10 @@
         <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
@@ -2663,18 +2669,18 @@
         <v>72</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>70</v>
@@ -2686,10 +2692,10 @@
         <v>72</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -2719,12 +2725,12 @@
         <v>72</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>9</v>
@@ -2742,10 +2748,10 @@
         <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>10</v>
@@ -2798,7 +2804,7 @@
         <v>72</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>13</v>
@@ -2836,30 +2842,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId20"/>
-    <hyperlink ref="A12" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId21"/>
-    <hyperlink ref="A13" display="2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId22"/>
-    <hyperlink ref="A14" display="35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId23"/>
-    <hyperlink ref="A15" display="48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId24"/>
-    <hyperlink ref="A16" display="6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId25"/>
+    <hyperlink ref="A2" display="35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="35519432-5a42-4790-a129-857787b75d1e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="36f86a74-d99b-4794-9c6d-62d3ca264d00.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="46f4930f-cefc-49dd-ad41-420a8d78c7ee.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="48e33266-ac25-43a9-a149-3d80245f3da4.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="5f32679b-2c25-405c-9510-405bd14f3601.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="74d7b1bd-3aa1-4e31-8b81-56d8c9440cc7.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="833eee87-3cb5-4224-a197-252dfa779bea.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="58e99e11-ee83-49dd-b047-8c0a59d99fe0.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="b2c0b083-72d9-42bd-863b-875a058019a3.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="d29d62a8-5846-4b60-b634-22ef36554ded.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="db74cb5f-5c6c-4252-91e4-b7c9155840cf.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="f883967a-db19-40e3-8936-058244fad2a3.md" r:id="rId24"/>
+    <hyperlink ref="A14" display="49906aa1-7bfa-4bd9-ba7c-060d782057c6.md" r:id="rId25"/>
+    <hyperlink ref="A15" display="2fa6d7f5-8da3-47d7-a8c8-325142e9ba8d.md" r:id="rId26"/>
+    <hyperlink ref="A16" display="6a5b8b08-42ae-4580-884f-50d0478a04c8.md" r:id="rId27"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:00:23</t>
+    <t>2017-02-17 09:01:20</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>69cb68e0-873b-4c03-96db-f069882655c1.706a8c15fa8a40a9fd6880256ade643bdef32427.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:00:02</t>
+    <t>2017-02-17 09:01:04</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>69cb68e0-873b-4c03-96db-f069882655c1.md</t>
-  </si>
-  <si>
-    <t>e2e\69cb68e0-873b-4c03-96db-f069882655c1.md</t>
+    <t>f377ad96-056b-4751-bba6-cdaca01d82cb.md</t>
+  </si>
+  <si>
+    <t>e2e\f377ad96-056b-4751-bba6-cdaca01d82cb.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:01:20</t>
+    <t>2017-02-17 09:02:16</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,10 +118,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>69cb68e0-873b-4c03-96db-f069882655c1.706a8c15fa8a40a9fd6880256ade643bdef32427.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:01:04</t>
+    <t>f377ad96-056b-4751-bba6-cdaca01d82cb.b1922a8510236da5d28bf84a0494413f8576a390.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:02:00</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -130,7 +130,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>69cb68e0-873b-4c03-96db-f069882655c1.706a8c15fa8a40a9fd6880256ade643bdef32427.de-de.xlf</t>
+    <t>f377ad96-056b-4751-bba6-cdaca01d82cb.b1922a8510236da5d28bf84a0494413f8576a390.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\69cb68e0-873b-4c03-96db-f069882655c1.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\f377ad96-056b-4751-bba6-cdaca01d82cb.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -472,7 +472,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="69cb68e0-873b-4c03-96db-f069882655c1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="f377ad96-056b-4751-bba6-cdaca01d82cb.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -623,7 +623,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="69cb68e0-873b-4c03-96db-f069882655c1.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="f377ad96-056b-4751-bba6-cdaca01d82cb.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:02:16</t>
+    <t>2017-02-17 09:03:08</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>f377ad96-056b-4751-bba6-cdaca01d82cb.b1922a8510236da5d28bf84a0494413f8576a390.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:02:00</t>
+    <t>2017-02-17 09:02:52</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:03:08</t>
+    <t>2017-02-17 09:03:59</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>f377ad96-056b-4751-bba6-cdaca01d82cb.b1922a8510236da5d28bf84a0494413f8576a390.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:02:52</t>
+    <t>2017-02-17 09:03:43</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>f377ad96-056b-4751-bba6-cdaca01d82cb.md</t>
-  </si>
-  <si>
-    <t>e2e\f377ad96-056b-4751-bba6-cdaca01d82cb.md</t>
+    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.md</t>
+  </si>
+  <si>
+    <t>e2e\ae14a0ed-0dd7-4940-a671-0137ddd58538.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,13 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:03:59</t>
+    <t>2017-02-17 09:04:56</t>
+  </si>
+  <si>
+    <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
+  </si>
+  <si>
+    <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,10 +124,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>f377ad96-056b-4751-bba6-cdaca01d82cb.b1922a8510236da5d28bf84a0494413f8576a390.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:03:43</t>
+    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:04:41</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -130,7 +136,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>f377ad96-056b-4751-bba6-cdaca01d82cb.b1922a8510236da5d28bf84a0494413f8576a390.de-de.xlf</t>
+    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -187,8 +193,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -214,8 +220,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -258,7 +264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +325,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\f377ad96-056b-4751-bba6-cdaca01d82cb.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +390,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -425,54 +455,111 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f377ad96-056b-4751-bba6-cdaca01d82cb.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -483,7 +570,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -511,58 +598,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -576,16 +663,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -600,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -609,21 +696,78 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f377ad96-056b-4751-bba6-cdaca01d82cb.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 09:04:56</t>
@@ -130,13 +130,16 @@
     <t>2017-02-17 09:04:41</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 09:05:37</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:06:00</t>
   </si>
 </sst>
 </file>
@@ -274,8 +277,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -370,15 +373,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -472,11 +475,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -528,11 +531,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -559,7 +562,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -578,15 +583,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -680,14 +685,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -736,14 +741,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -767,7 +772,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
+  </si>
+  <si>
+    <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:07:51</t>
+  </si>
+  <si>
     <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
   </si>
   <si>
     <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-17 09:04:56</t>
   </si>
   <si>
@@ -61,18 +70,6 @@
     <t>e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
   </si>
   <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
-  </si>
-  <si>
-    <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:07:51</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -136,6 +133,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:07:33</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:08:27</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
   </si>
   <si>
@@ -148,25 +157,16 @@
     <t>2017-02-17 09:05:37</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:07:33</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:08:52</t>
   </si>
   <si>
     <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:06:00</t>
-  </si>
-  <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -375,15 +375,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -392,20 +392,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -444,58 +444,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -509,46 +509,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -565,46 +565,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -612,55 +612,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -668,11 +668,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
+    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -711,58 +712,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -776,16 +777,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -794,28 +795,28 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -832,46 +833,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -879,55 +880,55 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -935,11 +936,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
+    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -37,37 +37,40 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
+  </si>
+  <si>
+    <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:04:56</t>
+  </si>
+  <si>
+    <t>ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
+  </si>
+  <si>
+    <t>e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
+  </si>
+  <si>
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
   </si>
   <si>
     <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:07:51</t>
-  </si>
-  <si>
-    <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:04:56</t>
-  </si>
-  <si>
-    <t>ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:09:58</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -133,40 +136,43 @@
     <t>False</t>
   </si>
   <si>
+    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:04:41</t>
+  </si>
+  <si>
+    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:05:37</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:07:33</t>
+    <t>2017-02-17 09:09:41</t>
   </si>
   <si>
     <t>2017-02-17 09:08:27</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:04:41</t>
-  </si>
-  <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:05:37</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/556848ea044a65c170332c614b244e49a36b0d11/e2e/4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4bf4f389d02f947d787b6fb12dbbfa51433e6f8e/e2e/4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md.</t>
+  </si>
+  <si>
+    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:06:00</t>
   </si>
   <si>
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:08:52</t>
-  </si>
-  <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:06:00</t>
   </si>
 </sst>
 </file>
@@ -375,15 +381,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -392,20 +398,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -439,63 +445,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -509,46 +515,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -565,46 +571,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -612,68 +618,68 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -707,63 +713,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -777,16 +783,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -795,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -810,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -833,25 +839,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>49</v>
@@ -866,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -880,40 +886,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -922,26 +928,26 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
+  </si>
+  <si>
+    <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:09:58</t>
+  </si>
+  <si>
     <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
   </si>
   <si>
     <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-17 09:04:56</t>
   </si>
   <si>
@@ -61,18 +70,6 @@
     <t>e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
   </si>
   <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
-  </si>
-  <si>
-    <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:09:58</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -136,6 +133,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:09:41</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:10:35</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
   </si>
   <si>
@@ -148,31 +157,16 @@
     <t>2017-02-17 09:05:37</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:09:41</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:08:27</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/556848ea044a65c170332c614b244e49a36b0d11/e2e/4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4bf4f389d02f947d787b6fb12dbbfa51433e6f8e/e2e/4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md.</t>
+    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:10:59</t>
   </si>
   <si>
     <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:06:00</t>
-  </si>
-  <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:08:52</t>
   </si>
 </sst>
 </file>
@@ -381,15 +375,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -398,20 +392,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -445,63 +439,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -515,46 +509,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -571,46 +565,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -618,68 +612,68 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -713,63 +707,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -783,16 +777,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -801,28 +795,28 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -839,25 +833,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>49</v>
@@ -872,13 +866,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -886,68 +880,68 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -37,37 +37,40 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
+  </si>
+  <si>
+    <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:04:56</t>
+  </si>
+  <si>
+    <t>ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
+  </si>
+  <si>
+    <t>e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
+  </si>
+  <si>
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
   </si>
   <si>
     <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:09:58</t>
-  </si>
-  <si>
-    <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:04:56</t>
-  </si>
-  <si>
-    <t>ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:12:10</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -133,40 +136,43 @@
     <t>False</t>
   </si>
   <si>
+    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:04:41</t>
+  </si>
+  <si>
+    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:05:37</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:09:41</t>
+    <t>2017-02-17 09:11:50</t>
   </si>
   <si>
     <t>2017-02-17 09:10:35</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:04:41</t>
-  </si>
-  <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:05:37</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4bf4f389d02f947d787b6fb12dbbfa51433e6f8e/e2e/4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4c260fae15182bff448d188561c78317981bd2bd/e2e/4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md.</t>
+  </si>
+  <si>
+    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:06:00</t>
   </si>
   <si>
     <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:10:59</t>
-  </si>
-  <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:06:00</t>
   </si>
 </sst>
 </file>
@@ -375,15 +381,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -392,20 +398,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -439,63 +445,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -509,46 +515,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -565,46 +571,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -612,68 +618,68 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -707,63 +713,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -777,16 +783,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -795,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -810,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -833,25 +839,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>49</v>
@@ -866,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -880,40 +886,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -922,26 +928,26 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
+  </si>
+  <si>
+    <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:12:10</t>
+  </si>
+  <si>
     <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
   </si>
   <si>
     <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-17 09:04:56</t>
   </si>
   <si>
@@ -61,18 +70,6 @@
     <t>e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
   </si>
   <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
-  </si>
-  <si>
-    <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:12:10</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -136,6 +133,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:11:50</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:12:49</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
   </si>
   <si>
@@ -148,31 +157,16 @@
     <t>2017-02-17 09:05:37</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:11:50</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:10:35</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4bf4f389d02f947d787b6fb12dbbfa51433e6f8e/e2e/4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/4c260fae15182bff448d188561c78317981bd2bd/e2e/4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md.</t>
+    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:13:12</t>
   </si>
   <si>
     <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:06:00</t>
-  </si>
-  <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:10:59</t>
   </si>
 </sst>
 </file>
@@ -381,15 +375,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -398,20 +392,20 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -445,63 +439,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -515,46 +509,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -571,46 +565,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -618,68 +612,68 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -713,63 +707,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -783,16 +777,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -801,28 +795,28 @@
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -839,25 +833,25 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>49</v>
@@ -872,13 +866,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -886,68 +880,68 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
-  </si>
-  <si>
-    <t>e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md</t>
+    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.md</t>
+  </si>
+  <si>
+    <t>e2e\5a2b8c7b-1851-4b27-8151-5e33496728ad.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,25 +49,16 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:12:10</t>
-  </si>
-  <si>
-    <t>ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:04:56</t>
-  </si>
-  <si>
-    <t>ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:14:23</t>
+  </si>
+  <si>
+    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.md</t>
+  </si>
+  <si>
+    <t>e2e\9f0f84c7-fc5b-441d-999c-266a476e0997.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -133,40 +124,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:11:50</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:12:49</t>
+    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.ea2dabf3cdd667496a1e5c8be20ce127903db8c1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:14:06</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:04:41</t>
-  </si>
-  <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:05:37</t>
-  </si>
-  <si>
-    <t>4a19c5c0-6cd8-4e43-b85e-1c424f75657d.55d99f9943233a5de0dfb909c79a311f3a3a37de.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:13:12</t>
-  </si>
-  <si>
-    <t>ae14a0ed-0dd7-4940-a671-0137ddd58538.df8ab9f08ed0f9654e758454c1f61419f0842e70.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:06:00</t>
+    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.ffaac31508c900bea1d3131432b6428877cdc162.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.ea2dabf3cdd667496a1e5c8be20ce127903db8c1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.ffaac31508c900bea1d3131432b6428877cdc162.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -223,8 +199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -250,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -277,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -294,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -304,8 +280,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -375,37 +351,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -416,7 +368,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,15 +376,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -444,58 +396,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -509,46 +461,46 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -565,32 +517,32 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -598,82 +550,22 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -684,7 +576,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -692,15 +584,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -712,58 +604,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -777,16 +669,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -794,14 +686,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -810,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -833,32 +725,32 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -866,82 +758,22 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4a19c5c0-6cd8-4e43-b85e-1c424f75657d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff3f157b0f-dbdc-4f6d-ad30-afbde8eabfb3.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff6471b3eb-0ad4-40f1-a1d6-77e8da5d466f.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ae14a0ed-0dd7-4940-a671-0137ddd58538.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 09:14:23</t>
@@ -130,7 +130,7 @@
     <t>2017-02-17 09:14:06</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 09:15:00</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.ea2dabf3cdd667496a1e5c8be20ce127903db8c1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:15:25</t>
   </si>
   <si>
     <t>9f0f84c7-fc5b-441d-999c-266a476e0997.ffaac31508c900bea1d3131432b6428877cdc162.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.md</t>
-  </si>
-  <si>
-    <t>e2e\5a2b8c7b-1851-4b27-8151-5e33496728ad.md</t>
+    <t>calleeMd1.md</t>
+  </si>
+  <si>
+    <t>e2e\calleeMd1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,16 +49,28 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:14:23</t>
-  </si>
-  <si>
-    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.md</t>
-  </si>
-  <si>
-    <t>e2e\9f0f84c7-fc5b-441d-999c-266a476e0997.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:17:39</t>
+  </si>
+  <si>
+    <t>calleeMd2.md</t>
+  </si>
+  <si>
+    <t>e2e\calleeMd2.md</t>
+  </si>
+  <si>
+    <t>callerMd1.md</t>
+  </si>
+  <si>
+    <t>e2e\callerMd1.md</t>
+  </si>
+  <si>
+    <t>callerMd2.md</t>
+  </si>
+  <si>
+    <t>e2e\callerMd2.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -124,28 +136,43 @@
     <t>False</t>
   </si>
   <si>
-    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.ea2dabf3cdd667496a1e5c8be20ce127903db8c1.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:14:06</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:15:00</t>
+    <t>calleeMd1.e8f5ecec2b522eb147a4ff0ca19ca72e17f2186d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:17:09</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.ffaac31508c900bea1d3131432b6428877cdc162.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>5a2b8c7b-1851-4b27-8151-5e33496728ad.ea2dabf3cdd667496a1e5c8be20ce127903db8c1.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:15:25</t>
-  </si>
-  <si>
-    <t>9f0f84c7-fc5b-441d-999c-266a476e0997.ffaac31508c900bea1d3131432b6428877cdc162.de-de.xlf</t>
+    <t>e2e\callerMd2.md,e2e\callerMd1.md</t>
+  </si>
+  <si>
+    <t>calleeMd2.63b76063f058ecc63ff1dda71ea2a67db72ae6e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>callerMd1.a3bf9f4e7fa2750ec06df0b78a76ae5cafa0e0fd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>e2e\calleeMd1.md,e2e\calleeMd2.md</t>
+  </si>
+  <si>
+    <t>callerMd2.c7d976edeb9cd5406eae7aba4c05d6d92e81ae95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>calleeMd1.e8f5ecec2b522eb147a4ff0ca19ca72e17f2186d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>calleeMd2.63b76063f058ecc63ff1dda71ea2a67db72ae6e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>callerMd1.a3bf9f4e7fa2750ec06df0b78a76ae5cafa0e0fd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>callerMd2.c7d976edeb9cd5406eae7aba4c05d6d92e81ae95.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -202,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +283,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,18 +300,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="1" max="1" width="13.9728708267212" customWidth="1"/>
+    <col min="2" max="2" width="18.0487632751465" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -357,10 +384,58 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\calleeMd1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\calleeMd2.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\callerMd1.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\callerMd2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -371,86 +446,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
-    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="14" max="14" width="35.2229614257813" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
-    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
+    <col min="16" max="16" width="34.5784301757813" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -464,31 +539,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -497,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -520,57 +595,169 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="E4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="calleeMd1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="calleeMd2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="callerMd1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="callerMd2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -581,86 +768,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
-    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="14" max="14" width="35.2229614257813" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
-    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
+    <col min="16" max="16" width="34.5784301757813" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -674,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -691,11 +878,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>42</v>
@@ -707,13 +894,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -730,16 +917,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -747,11 +934,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>42</v>
@@ -763,24 +950,136 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="5a2b8c7b-1851-4b27-8151-5e33496728ad.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="9f0f84c7-fc5b-441d-999c-266a476e0997.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="calleeMd1.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="calleeMd2.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="callerMd1.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="callerMd2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:18:31</t>
+    <t>2017-02-17 09:19:29</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:18:15</t>
+    <t>2017-02-17 09:19:14</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-02-17 09:19:29</t>
@@ -268,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -491,7 +491,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:19:29</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:20:59</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:19:14</t>
+    <t>2017-02-17 09:20:42</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -268,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -491,7 +491,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 09:20:59</t>
@@ -124,13 +124,16 @@
     <t>2017-02-17 09:20:42</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 09:21:42</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:22:05</t>
   </si>
 </sst>
 </file>
@@ -268,8 +271,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,15 +343,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -442,11 +445,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -473,6 +476,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -491,15 +495,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -593,14 +597,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -624,6 +628,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:20:59</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:23:01</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:20:42</t>
+    <t>2017-02-17 09:22:45</t>
   </si>
   <si>
     <t>2017-02-17 09:21:42</t>
@@ -271,8 +271,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -343,7 +343,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -495,7 +495,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>31919597-49f0-4bd7-94a7-6977a4835286.md</t>
-  </si>
-  <si>
-    <t>e2e\31919597-49f0-4bd7-94a7-6977a4835286.md</t>
+    <t>753f231d-5255-40c6-8a90-9743430aa792.md</t>
+  </si>
+  <si>
+    <t>e2e\753f231d-5255-40c6-8a90-9743430aa792.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:23:01</t>
+    <t>2017-02-17 09:24:01</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,22 +118,19 @@
     <t>False</t>
   </si>
   <si>
-    <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:22:45</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:21:42</t>
+    <t>753f231d-5255-40c6-8a90-9743430aa792.f8ee534449a79c5911aa99b00394da67f566e8d5.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:23:45</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>31919597-49f0-4bd7-94a7-6977a4835286.3dd97a080f5d38c4dcb8d2e3445955a81a426c68.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:22:05</t>
+    <t>753f231d-5255-40c6-8a90-9743430aa792.f8ee534449a79c5911aa99b00394da67f566e8d5.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -324,7 +321,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\753f231d-5255-40c6-8a90-9743430aa792.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -350,8 +347,8 @@
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -445,11 +442,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>36</v>
@@ -467,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -475,8 +472,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="753f231d-5255-40c6-8a90-9743430aa792.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -502,8 +498,8 @@
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -597,14 +593,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -619,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -627,8 +623,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="31919597-49f0-4bd7-94a7-6977a4835286.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="753f231d-5255-40c6-8a90-9743430aa792.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:24:01</t>
+    <t>2017-02-17 09:25:43</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,7 +121,7 @@
     <t>753f231d-5255-40c6-8a90-9743430aa792.f8ee534449a79c5911aa99b00394da67f566e8d5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:23:45</t>
+    <t>2017-02-17 09:25:20</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>753f231d-5255-40c6-8a90-9743430aa792.md</t>
-  </si>
-  <si>
-    <t>e2e\753f231d-5255-40c6-8a90-9743430aa792.md</t>
+    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.md</t>
+  </si>
+  <si>
+    <t>e2e\81450a3e-6807-4fb5-8592-0a16b1dbafc2.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,13 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:25:43</t>
+    <t>2017-02-17 09:26:37</t>
+  </si>
+  <si>
+    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
+  </si>
+  <si>
+    <t>e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,10 +124,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>753f231d-5255-40c6-8a90-9743430aa792.f8ee534449a79c5911aa99b00394da67f566e8d5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:25:20</t>
+    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.5b2fbc62bd16e4811015e65de6d85ea0c845e350.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:26:22</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -130,7 +136,13 @@
     <t>True</t>
   </si>
   <si>
-    <t>753f231d-5255-40c6-8a90-9743430aa792.f8ee534449a79c5911aa99b00394da67f566e8d5.de-de.xlf</t>
+    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.5162cc688de70d19e1ab219a977419606e830219.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.5b2fbc62bd16e4811015e65de6d85ea0c845e350.de-de.xlf</t>
+  </si>
+  <si>
+    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.5162cc688de70d19e1ab219a977419606e830219.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -187,8 +199,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -214,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -258,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +331,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\753f231d-5255-40c6-8a90-9743430aa792.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +368,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +396,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -425,54 +461,111 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="753f231d-5255-40c6-8a90-9743430aa792.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -483,7 +576,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -511,58 +604,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -576,16 +669,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -600,7 +693,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -609,21 +702,78 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="753f231d-5255-40c6-8a90-9743430aa792.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.md</t>
-  </si>
-  <si>
-    <t>e2e\81450a3e-6807-4fb5-8592-0a16b1dbafc2.md</t>
+    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
+  </si>
+  <si>
+    <t>e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,13 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:26:37</t>
-  </si>
-  <si>
-    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
-  </si>
-  <si>
-    <t>e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
+    <t>2017-02-17 09:27:35</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -124,22 +118,16 @@
     <t>False</t>
   </si>
   <si>
-    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.5b2fbc62bd16e4811015e65de6d85ea0c845e350.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:26:22</t>
+    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.5162cc688de70d19e1ab219a977419606e830219.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:27:20</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
-  </si>
-  <si>
-    <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.5162cc688de70d19e1ab219a977419606e830219.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.5b2fbc62bd16e4811015e65de6d85ea0c845e350.de-de.xlf</t>
   </si>
   <si>
     <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.5162cc688de70d19e1ab219a977419606e830219.de-de.xlf</t>
@@ -199,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -226,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -253,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -270,7 +258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -331,33 +319,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -368,7 +332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,58 +360,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -461,111 +425,54 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -576,7 +483,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,58 +511,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -669,16 +576,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -693,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -702,78 +609,21 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.md</t>
+  </si>
+  <si>
+    <t>e2e\81450a3e-6807-4fb5-8592-0a16b1dbafc2.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:26:37</t>
+  </si>
+  <si>
     <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
   </si>
   <si>
     <t>e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2017-02-17 09:27:35</t>
   </si>
   <si>
@@ -118,16 +127,28 @@
     <t>False</t>
   </si>
   <si>
+    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.5b2fbc62bd16e4811015e65de6d85ea0c845e350.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:26:22</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:28:19</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.5162cc688de70d19e1ab219a977419606e830219.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:27:20</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>81450a3e-6807-4fb5-8592-0a16b1dbafc2.5b2fbc62bd16e4811015e65de6d85ea0c845e350.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:28:43</t>
   </si>
   <si>
     <t>d0c60d2b-f99b-45aa-b341-4dc21b19dcee.5162cc688de70d19e1ab219a977419606e830219.de-de.xlf</t>
@@ -187,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -214,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -258,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -268,8 +289,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -319,9 +340,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -340,15 +385,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -360,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -425,54 +470,113 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -483,7 +587,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,15 +595,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -511,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -576,16 +680,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -593,37 +697,96 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="81450a3e-6807-4fb5-8592-0a16b1dbafc2.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="d0c60d2b-f99b-45aa-b341-4dc21b19dcee.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 09:32:20</t>
@@ -130,7 +130,7 @@
     <t>2017-02-17 09:32:02</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 09:32:52</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:33:15</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>File Name</t>
   </si>
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:32:20</t>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:34:19</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
@@ -61,6 +61,9 @@
     <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
   </si>
   <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -127,7 +130,7 @@
     <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:32:02</t>
+    <t>2017-02-17 09:33:59</t>
   </si>
   <si>
     <t>2017-02-17 09:32:52</t>
@@ -136,7 +139,13 @@
     <t>True</t>
   </si>
   <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ba7c30cb7634de06ee7f66b7800a784787b1c369/e2e/1ce831e9-b69c-434f-b499-f8674386e5c9.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/8ea793686916e4eef8759fec6daf5fbf19239cc9/e2e/1ce831e9-b69c-434f-b499-f8674386e5c9.md.</t>
+  </si>
+  <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ba7c30cb7634de06ee7f66b7800a784787b1c369/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/8ea793686916e4eef8759fec6daf5fbf19239cc9/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md.</t>
   </si>
   <si>
     <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.de-de.xlf</t>
@@ -283,8 +292,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -348,10 +357,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -379,7 +388,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -394,63 +403,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -464,19 +473,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -485,28 +494,28 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +526,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -541,28 +550,28 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +598,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -604,63 +613,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -674,16 +683,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -695,28 +704,28 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -727,19 +736,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -751,28 +760,28 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 09:34:19</t>
@@ -133,28 +133,31 @@
     <t>2017-02-17 09:33:59</t>
   </si>
   <si>
+    <t>2017-02-17 09:34:52</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-02-17 09:32:52</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ba7c30cb7634de06ee7f66b7800a784787b1c369/e2e/1ce831e9-b69c-434f-b499-f8674386e5c9.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/8ea793686916e4eef8759fec6daf5fbf19239cc9/e2e/1ce831e9-b69c-434f-b499-f8674386e5c9.md.</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ba7c30cb7634de06ee7f66b7800a784787b1c369/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/8ea793686916e4eef8759fec6daf5fbf19239cc9/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md.</t>
   </si>
   <si>
     <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.de-de.xlf</t>
   </si>
   <si>
+    <t>2017-02-17 09:35:15</t>
+  </si>
+  <si>
+    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
+  </si>
+  <si>
     <t>2017-02-17 09:33:15</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -292,8 +295,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -388,7 +391,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -515,7 +518,7 @@
         <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>38</v>
@@ -550,10 +553,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -598,7 +601,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -725,7 +728,7 @@
         <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -763,7 +766,7 @@
         <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -55,15 +55,24 @@
     <t>2017-02-17 09:34:19</t>
   </si>
   <si>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
+    <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:36:07</t>
+  </si>
+  <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
   </si>
   <si>
     <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -139,6 +148,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:35:50</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
   </si>
   <si>
@@ -152,6 +170,9 @@
   </si>
   <si>
     <t>2017-02-17 09:35:15</t>
+  </si>
+  <si>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
@@ -214,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -285,7 +306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,13 +387,37 @@
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId3"/>
+    <hyperlink ref="B3" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -383,7 +428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,58 +456,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -476,19 +521,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -497,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -509,13 +554,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -532,57 +577,114 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -593,7 +695,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -621,58 +723,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -686,16 +788,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -707,10 +809,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -719,13 +821,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -742,57 +844,114 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -61,18 +61,18 @@
     <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
   </si>
   <si>
+    <t>2017-02-17 09:36:07</t>
+  </si>
+  <si>
+    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
+  </si>
+  <si>
+    <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:36:07</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
-  </si>
-  <si>
-    <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -154,7 +154,7 @@
     <t>2017-02-17 09:35:50</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 09:36:44</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:37:08</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
@@ -381,21 +384,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -404,10 +407,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -574,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -594,11 +597,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>46</v>
@@ -624,13 +627,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -651,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>47</v>
@@ -683,8 +686,9 @@
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
     <hyperlink ref="A3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
-    <hyperlink ref="J4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId6"/>
+    <hyperlink ref="J3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -841,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -856,19 +860,19 @@
         <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -891,13 +895,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -909,7 +913,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -918,13 +922,13 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -950,8 +954,9 @@
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
     <hyperlink ref="A3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
-    <hyperlink ref="J4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId6"/>
+    <hyperlink ref="J3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>File Name</t>
   </si>
@@ -61,7 +61,10 @@
     <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
   </si>
   <si>
-    <t>2017-02-17 09:36:07</t>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:38:05</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
@@ -151,10 +154,13 @@
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:35:50</t>
+    <t>2017-02-17 09:37:49</t>
   </si>
   <si>
     <t>2017-02-17 09:36:44</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/f4628176429fc25ef3f5c5e2690b4744eb70185c/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/eb49a54b6e461f7f27fa510be098785493daea29/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md.</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
@@ -384,21 +390,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -407,10 +413,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -459,58 +465,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -524,19 +530,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -545,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -557,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -577,22 +583,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -601,66 +607,66 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -669,16 +675,16 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -727,58 +733,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -792,16 +798,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -813,10 +819,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -825,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -845,22 +851,22 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -869,10 +875,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -881,39 +887,39 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -922,13 +928,13 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -937,16 +943,16 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -61,10 +61,10 @@
     <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
   </si>
   <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:38:05</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:38:59</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
@@ -73,9 +73,6 @@
     <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -154,13 +151,13 @@
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:37:49</t>
+    <t>2017-02-17 09:38:41</t>
   </si>
   <si>
     <t>2017-02-17 09:36:44</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/f4628176429fc25ef3f5c5e2690b4744eb70185c/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/eb49a54b6e461f7f27fa510be098785493daea29/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md.</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/f4628176429fc25ef3f5c5e2690b4744eb70185c/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/40d86b4d7842a7cedbf32bbd9c64b7886a1c84ce/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md.</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
@@ -413,10 +410,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -465,58 +462,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -530,19 +527,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -551,25 +548,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -586,19 +583,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -607,28 +604,28 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -639,22 +636,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -663,28 +660,28 @@
         <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -733,58 +730,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -798,16 +795,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -819,11 +816,11 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
@@ -831,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -854,16 +851,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -875,11 +872,11 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -887,16 +884,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -907,19 +904,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -931,11 +928,11 @@
         <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
@@ -943,16 +940,16 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -154,10 +154,10 @@
     <t>2017-02-17 09:38:41</t>
   </si>
   <si>
-    <t>2017-02-17 09:36:44</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/f4628176429fc25ef3f5c5e2690b4744eb70185c/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/40d86b4d7842a7cedbf32bbd9c64b7886a1c84ce/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md.</t>
+    <t>2017-02-17 09:39:25</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/eb49a54b6e461f7f27fa510be098785493daea29/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/40d86b4d7842a7cedbf32bbd9c64b7886a1c84ce/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md.</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:37:08</t>
+    <t>2017-02-17 09:39:48</t>
   </si>
   <si>
     <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>File Name</t>
   </si>
@@ -55,15 +55,24 @@
     <t>2017-02-17 09:34:19</t>
   </si>
   <si>
+    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
+  </si>
+  <si>
+    <t>e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:40:53</t>
+  </si>
+  <si>
     <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
   </si>
   <si>
     <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2017-02-17 09:38:59</t>
   </si>
   <si>
@@ -148,6 +157,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:40:33</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
   </si>
   <si>
@@ -173,6 +191,9 @@
   </si>
   <si>
     <t>2017-02-17 09:35:15</t>
+  </si>
+  <si>
+    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.de-de.xlf</t>
   </si>
   <si>
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
@@ -241,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -295,8 +316,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -312,7 +333,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,14 +437,38 @@
         <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -434,7 +479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -462,58 +507,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -527,19 +572,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -548,10 +593,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -560,13 +605,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -583,49 +628,49 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -639,19 +684,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -660,10 +705,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -672,26 +717,83 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -702,7 +804,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -730,58 +832,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -795,16 +897,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -816,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -828,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -851,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -868,14 +970,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -884,16 +986,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -907,19 +1009,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -928,38 +1030,95 @@
         <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -61,18 +61,18 @@
     <t>e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
   </si>
   <si>
+    <t>2017-02-17 09:40:53</t>
+  </si>
+  <si>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
+    <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:40:53</t>
-  </si>
-  <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
-  </si>
-  <si>
-    <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
-  </si>
-  <si>
     <t>2017-02-17 09:38:59</t>
   </si>
   <si>
@@ -163,7 +163,7 @@
     <t>2017-02-17 09:40:33</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 09:41:29</t>
   </si>
   <si>
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:41:54</t>
   </si>
   <si>
     <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
@@ -408,21 +411,21 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -431,10 +434,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -454,10 +457,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -625,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>40</v>
@@ -645,11 +648,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>49</v>
@@ -675,13 +678,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -702,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>50</v>
@@ -737,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -790,10 +793,11 @@
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
     <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId5"/>
-    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId7"/>
-    <hyperlink ref="J5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId8"/>
+    <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -950,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>40</v>
@@ -965,19 +969,19 @@
         <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1000,13 +1004,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -1018,7 +1022,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -1027,13 +1031,13 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1062,7 +1066,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -1074,7 +1078,7 @@
         <v>42</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1086,10 +1090,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1115,10 +1119,11 @@
     <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
     <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId5"/>
-    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId7"/>
-    <hyperlink ref="J5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId8"/>
+    <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>1ce831e9-b69c-434f-b499-f8674386e5c9.md</t>
-  </si>
-  <si>
-    <t>e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md</t>
+    <t>54f7fcb2-e703-4e23-b88e-950d6fa21052.md</t>
+  </si>
+  <si>
+    <t>e2e\54f7fcb2-e703-4e23-b88e-950d6fa21052.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,37 +49,46 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:34:19</t>
-  </si>
-  <si>
-    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
-  </si>
-  <si>
-    <t>e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:40:53</t>
-  </si>
-  <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
-  </si>
-  <si>
-    <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
-  </si>
-  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:38:59</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
-  </si>
-  <si>
-    <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
+    <t>2017-02-17 09:43:18</t>
+  </si>
+  <si>
+    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
+  </si>
+  <si>
+    <t>e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
+  </si>
+  <si>
+    <t>959fabb0-d320-4735-a213-982162b53bbe.md</t>
+  </si>
+  <si>
+    <t>e2e\959fabb0-d320-4735-a213-982162b53bbe.md</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
+  </si>
+  <si>
+    <t>e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
+  </si>
+  <si>
+    <t>e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
+  </si>
+  <si>
+    <t>e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
+  </si>
+  <si>
+    <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md</t>
+  </si>
+  <si>
+    <t>e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -145,70 +154,55 @@
     <t>False</t>
   </si>
   <si>
-    <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:33:59</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:34:52</t>
+    <t>54f7fcb2-e703-4e23-b88e-950d6fa21052.505dec05b777832185d7d600dfe0159f0d2ce090.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:43:01</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:40:33</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:41:29</t>
-  </si>
-  <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:38:41</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:39:25</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/eb49a54b6e461f7f27fa510be098785493daea29/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/40d86b4d7842a7cedbf32bbd9c64b7886a1c84ce/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md.</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:32:52</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ba7c30cb7634de06ee7f66b7800a784787b1c369/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/8ea793686916e4eef8759fec6daf5fbf19239cc9/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md.</t>
-  </si>
-  <si>
-    <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:35:15</t>
-  </si>
-  <si>
-    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:41:54</t>
-  </si>
-  <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:39:48</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:33:15</t>
+    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>54f7fcb2-e703-4e23-b88e-950d6fa21052.505dec05b777832185d7d600dfe0159f0d2ce090.de-de.xlf</t>
+  </si>
+  <si>
+    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -265,8 +259,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -292,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -319,8 +313,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -336,7 +330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -346,8 +340,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -417,16 +411,16 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
@@ -434,21 +428,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -457,21 +451,93 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -482,7 +548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -490,78 +556,78 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -575,31 +641,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -608,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -631,46 +697,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -678,40 +744,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -720,84 +786,251 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="F8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>56</v>
+      <c r="H8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -808,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,78 +1049,78 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
+    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -901,16 +1134,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -918,14 +1151,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -934,13 +1167,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -957,31 +1190,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -990,13 +1223,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1004,40 +1237,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1046,39 +1279,39 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1086,14 +1319,14 @@
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1102,28 +1335,195 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>56</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId5"/>
+    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId6"/>
+    <hyperlink ref="A7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId7"/>
+    <hyperlink ref="A8" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>File Name</t>
   </si>
@@ -37,28 +37,85 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>1ce831e9-b69c-434f-b499-f8674386e5c9.md</t>
+  </si>
+  <si>
+    <t>e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:34:19</t>
+  </si>
+  <si>
+    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
+  </si>
+  <si>
+    <t>e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:40:53</t>
+  </si>
+  <si>
+    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
+  </si>
+  <si>
+    <t>e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:43:18</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
+  </si>
+  <si>
+    <t>e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
+  </si>
+  <si>
+    <t>e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
+  </si>
+  <si>
+    <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md</t>
+  </si>
+  <si>
+    <t>e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md</t>
+  </si>
+  <si>
     <t>54f7fcb2-e703-4e23-b88e-950d6fa21052.md</t>
   </si>
   <si>
     <t>e2e\54f7fcb2-e703-4e23-b88e-950d6fa21052.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 09:43:18</t>
-  </si>
-  <si>
-    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
-  </si>
-  <si>
-    <t>e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
+    <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:38:59</t>
+  </si>
+  <si>
+    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
+  </si>
+  <si>
+    <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
   </si>
   <si>
     <t>959fabb0-d320-4735-a213-982162b53bbe.md</t>
@@ -67,30 +124,12 @@
     <t>e2e\959fabb0-d320-4735-a213-982162b53bbe.md</t>
   </si>
   <si>
-    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
-  </si>
-  <si>
-    <t>e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
-  </si>
-  <si>
-    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
-  </si>
-  <si>
-    <t>e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
-  </si>
-  <si>
     <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
   </si>
   <si>
     <t>e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
   </si>
   <si>
-    <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md</t>
-  </si>
-  <si>
-    <t>e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -154,55 +193,118 @@
     <t>False</t>
   </si>
   <si>
+    <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:33:59</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:34:52</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:40:33</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:41:29</t>
+  </si>
+  <si>
+    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:43:01</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>54f7fcb2-e703-4e23-b88e-950d6fa21052.505dec05b777832185d7d600dfe0159f0d2ce090.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:43:01</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.zh-cn.xlf</t>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:38:41</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:39:25</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/eb49a54b6e461f7f27fa510be098785493daea29/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/40d86b4d7842a7cedbf32bbd9c64b7886a1c84ce/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md.</t>
+  </si>
+  <si>
+    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:32:52</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ba7c30cb7634de06ee7f66b7800a784787b1c369/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/8ea793686916e4eef8759fec6daf5fbf19239cc9/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md.</t>
   </si>
   <si>
     <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.zh-cn.xlf</t>
   </si>
   <si>
-    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.zh-cn.xlf</t>
   </si>
   <si>
-    <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.zh-cn.xlf</t>
+    <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:35:15</t>
+  </si>
+  <si>
+    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:41:54</t>
+  </si>
+  <si>
+    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.de-de.xlf</t>
   </si>
   <si>
     <t>54f7fcb2-e703-4e23-b88e-950d6fa21052.505dec05b777832185d7d600dfe0159f0d2ce090.de-de.xlf</t>
   </si>
   <si>
-    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.de-de.xlf</t>
+    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:39:48</t>
+  </si>
+  <si>
+    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:33:15</t>
   </si>
   <si>
     <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.de-de.xlf</t>
   </si>
   <si>
-    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.de-de.xlf</t>
-  </si>
-  <si>
-    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.de-de.xlf</t>
-  </si>
-  <si>
     <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -259,8 +361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R8" headerRowCount="1">
-  <autoFilter ref="A1:R8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R12" headerRowCount="1">
+  <autoFilter ref="A1:R12"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -286,8 +388,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
-  <autoFilter ref="A1:R8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R12" headerRowCount="1">
+  <autoFilter ref="A1:R12"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -313,8 +415,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G12" headerRowCount="1">
+  <autoFilter ref="A1:G12"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -330,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -340,8 +442,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,15 +513,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -428,67 +530,67 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -497,21 +599,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -520,24 +622,120 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId8"/>
+    <hyperlink ref="B7" display="e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId11"/>
+    <hyperlink ref="B12" display="e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -548,7 +746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,78 +754,78 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -641,31 +839,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -674,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -697,31 +895,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -730,13 +928,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -744,28 +942,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -777,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -786,13 +984,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -800,28 +998,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -833,7 +1031,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -842,13 +1040,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -856,28 +1054,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -889,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -898,13 +1096,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -912,28 +1110,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -945,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -954,13 +1152,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -968,28 +1166,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1001,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1010,27 +1208,259 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId11"/>
+    <hyperlink ref="J9" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId13"/>
+    <hyperlink ref="J10" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId14"/>
+    <hyperlink ref="A11" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId15"/>
+    <hyperlink ref="A12" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1041,7 +1471,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1049,78 +1479,78 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -1134,16 +1564,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1151,14 +1581,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1167,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1190,31 +1620,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1223,13 +1653,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1237,28 +1667,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1270,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1279,13 +1709,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1293,28 +1723,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1326,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1335,13 +1765,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1349,29 +1779,29 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1382,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1391,13 +1821,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1405,28 +1835,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1438,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1447,13 +1877,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1461,69 +1891,301 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="0" t="s">
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId5"/>
-    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId6"/>
-    <hyperlink ref="A7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId7"/>
-    <hyperlink ref="A8" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId11"/>
+    <hyperlink ref="J9" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId13"/>
+    <hyperlink ref="J10" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId14"/>
+    <hyperlink ref="A11" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId15"/>
+    <hyperlink ref="A12" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId16"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,33 @@
     <t>2017-02-17 09:40:53</t>
   </si>
   <si>
+    <t>959fabb0-d320-4735-a213-982162b53bbe.md</t>
+  </si>
+  <si>
+    <t>e2e\959fabb0-d320-4735-a213-982162b53bbe.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:43:18</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
+  </si>
+  <si>
+    <t>e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
+  </si>
+  <si>
+    <t>e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
+  </si>
+  <si>
+    <t>e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
+  </si>
+  <si>
     <t>847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
   </si>
   <si>
@@ -73,21 +100,6 @@
     <t>In Translation</t>
   </si>
   <si>
-    <t>2017-02-17 09:43:18</t>
-  </si>
-  <si>
-    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
-  </si>
-  <si>
-    <t>e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
-  </si>
-  <si>
-    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
-  </si>
-  <si>
-    <t>e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
-  </si>
-  <si>
     <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md</t>
   </si>
   <si>
@@ -118,18 +130,6 @@
     <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
   </si>
   <si>
-    <t>959fabb0-d320-4735-a213-982162b53bbe.md</t>
-  </si>
-  <si>
-    <t>e2e\959fabb0-d320-4735-a213-982162b53bbe.md</t>
-  </si>
-  <si>
-    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
-  </si>
-  <si>
-    <t>e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -214,21 +214,30 @@
     <t>2017-02-17 09:41:29</t>
   </si>
   <si>
+    <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:43:01</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:44:31</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:43:01</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.zh-cn.xlf</t>
   </si>
   <si>
@@ -256,12 +265,6 @@
     <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ba7c30cb7634de06ee7f66b7800a784787b1c369/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/8ea793686916e4eef8759fec6daf5fbf19239cc9/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md.</t>
   </si>
   <si>
-    <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.de-de.xlf</t>
   </si>
   <si>
@@ -274,15 +277,24 @@
     <t>2017-02-17 09:41:54</t>
   </si>
   <si>
+    <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:44:53</t>
+  </si>
+  <si>
+    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.de-de.xlf</t>
+  </si>
+  <si>
     <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.de-de.xlf</t>
   </si>
   <si>
-    <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.de-de.xlf</t>
-  </si>
-  <si>
-    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.de-de.xlf</t>
-  </si>
-  <si>
     <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.de-de.xlf</t>
   </si>
   <si>
@@ -299,12 +311,6 @@
   </si>
   <si>
     <t>2017-02-17 09:33:15</t>
-  </si>
-  <si>
-    <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.de-de.xlf</t>
-  </si>
-  <si>
-    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -530,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
@@ -553,22 +559,22 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
@@ -576,22 +582,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
       </c>
@@ -599,45 +605,45 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
       </c>
@@ -645,59 +651,59 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -714,28 +720,28 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId4"/>
+    <hyperlink ref="B4" display="e2e\959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId11"/>
-    <hyperlink ref="B12" display="e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId12"/>
+    <hyperlink ref="B7" display="e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId11"/>
+    <hyperlink ref="B12" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId12"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -948,7 +954,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>56</v>
@@ -968,11 +974,11 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>68</v>
@@ -998,13 +1004,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>56</v>
@@ -1024,11 +1030,11 @@
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>68</v>
@@ -1054,13 +1060,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>56</v>
@@ -1080,11 +1086,11 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>68</v>
@@ -1110,13 +1116,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>56</v>
@@ -1136,11 +1142,11 @@
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>68</v>
@@ -1166,13 +1172,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>56</v>
@@ -1199,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1222,13 +1228,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>56</v>
@@ -1240,22 +1246,22 @@
         <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1273,18 +1279,18 @@
         <v>58</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>56</v>
@@ -1296,22 +1302,22 @@
         <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
+      <c r="J10" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -1329,18 +1335,18 @@
         <v>58</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>56</v>
@@ -1352,22 +1358,22 @@
         <v>58</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -1385,7 +1391,7 @@
         <v>58</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>56</v>
@@ -1408,22 +1414,22 @@
         <v>58</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -1441,7 +1447,7 @@
         <v>58</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1450,17 +1456,21 @@
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
     <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
     <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId11"/>
-    <hyperlink ref="J9" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId13"/>
-    <hyperlink ref="J10" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId14"/>
-    <hyperlink ref="A11" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId15"/>
-    <hyperlink ref="A12" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId16"/>
+    <hyperlink ref="A4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId14"/>
+    <hyperlink ref="A9" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId15"/>
+    <hyperlink ref="A10" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId16"/>
+    <hyperlink ref="A11" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId17"/>
+    <hyperlink ref="J11" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId18"/>
+    <hyperlink ref="A12" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId19"/>
+    <hyperlink ref="J12" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1573,7 +1583,7 @@
         <v>58</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1585,10 +1595,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1629,7 +1639,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1641,10 +1651,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1673,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>56</v>
@@ -1685,22 +1695,22 @@
         <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1723,13 +1733,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>56</v>
@@ -1741,22 +1751,22 @@
         <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1779,13 +1789,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>56</v>
@@ -1797,22 +1807,22 @@
         <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1835,13 +1845,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>56</v>
@@ -1853,22 +1863,22 @@
         <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1891,13 +1901,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>56</v>
@@ -1909,10 +1919,10 @@
         <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1924,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1947,13 +1957,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>56</v>
@@ -1965,22 +1975,22 @@
         <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>29</v>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1998,18 +2008,18 @@
         <v>58</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>56</v>
@@ -2021,22 +2031,22 @@
         <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
+      <c r="J10" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -2054,18 +2064,18 @@
         <v>58</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>56</v>
@@ -2080,19 +2090,19 @@
         <v>95</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -2110,7 +2120,7 @@
         <v>58</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -2121,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>56</v>
@@ -2133,22 +2143,22 @@
         <v>58</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>10</v>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -2166,7 +2176,7 @@
         <v>58</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2175,17 +2185,21 @@
     <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
     <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
     <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId11"/>
-    <hyperlink ref="J9" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId13"/>
-    <hyperlink ref="J10" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId14"/>
-    <hyperlink ref="A11" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId15"/>
-    <hyperlink ref="A12" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId16"/>
+    <hyperlink ref="A4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId14"/>
+    <hyperlink ref="A9" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId15"/>
+    <hyperlink ref="A10" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId16"/>
+    <hyperlink ref="A11" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId17"/>
+    <hyperlink ref="J11" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId18"/>
+    <hyperlink ref="A12" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId19"/>
+    <hyperlink ref="J12" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId20"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>1ce831e9-b69c-434f-b499-f8674386e5c9.md</t>
-  </si>
-  <si>
-    <t>e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md</t>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
+  </si>
+  <si>
+    <t>e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,16 +52,22 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-17 09:34:19</t>
-  </si>
-  <si>
-    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
-  </si>
-  <si>
-    <t>e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:40:53</t>
+    <t>2017-02-17 09:43:18</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
+  </si>
+  <si>
+    <t>e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
+  </si>
+  <si>
+    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
+  </si>
+  <si>
+    <t>e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
   </si>
   <si>
     <t>959fabb0-d320-4735-a213-982162b53bbe.md</t>
@@ -70,7 +76,7 @@
     <t>e2e\959fabb0-d320-4735-a213-982162b53bbe.md</t>
   </si>
   <si>
-    <t>2017-02-17 09:43:18</t>
+    <t>2017-02-17 09:45:59</t>
   </si>
   <si>
     <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
@@ -79,27 +85,6 @@
     <t>e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md</t>
   </si>
   <si>
-    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
-  </si>
-  <si>
-    <t>e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md</t>
-  </si>
-  <si>
-    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
-  </si>
-  <si>
-    <t>e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md</t>
-  </si>
-  <si>
-    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
-  </si>
-  <si>
-    <t>e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md</t>
   </si>
   <si>
@@ -115,19 +100,10 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.md</t>
-  </si>
-  <si>
-    <t>e2e\614fb894-1524-4b63-a580-394b1a45dc50.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:38:59</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
-  </si>
-  <si>
-    <t>e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md</t>
+    <t>c98c81d3-a109-4df8-8ff1-8b1756a65420.md</t>
+  </si>
+  <si>
+    <t>e2e\c98c81d3-a109-4df8-8ff1-8b1756a65420.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -193,124 +169,73 @@
     <t>False</t>
   </si>
   <si>
-    <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:33:59</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:34:52</t>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:43:01</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:44:31</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:40:33</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:41:29</t>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>mt</t>
   </si>
   <si>
     <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:43:01</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:44:31</t>
+    <t>2017-02-17 09:45:40</t>
   </si>
   <si>
     <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.zh-cn.xlf</t>
   </si>
   <si>
-    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.zh-cn.xlf</t>
   </si>
   <si>
     <t>54f7fcb2-e703-4e23-b88e-950d6fa21052.505dec05b777832185d7d600dfe0159f0d2ce090.zh-cn.xlf</t>
   </si>
   <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:38:41</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:39:25</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/eb49a54b6e461f7f27fa510be098785493daea29/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/40d86b4d7842a7cedbf32bbd9c64b7886a1c84ce/e2e/614fb894-1524-4b63-a580-394b1a45dc50.md.</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:32:52</t>
-  </si>
-  <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/ba7c30cb7634de06ee7f66b7800a784787b1c369/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/8ea793686916e4eef8759fec6daf5fbf19239cc9/e2e/95109f71-78c5-4dd6-8c95-c18930da5f63.md.</t>
-  </si>
-  <si>
-    <t>1ce831e9-b69c-434f-b499-f8674386e5c9.ee0a9836ccc8ff28653cfa964e8e4c284996f8d7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:35:15</t>
-  </si>
-  <si>
-    <t>3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.81128374e429756d48e2597df6ee93a2d3f65293.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:41:54</t>
+    <t>c98c81d3-a109-4df8-8ff1-8b1756a65420.e414b4dc91db61526c5fdfbe5fc33f3ee8c2a866.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:44:53</t>
+  </si>
+  <si>
+    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.de-de.xlf</t>
+  </si>
+  <si>
+    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.de-de.xlf</t>
   </si>
   <si>
     <t>959fabb0-d320-4735-a213-982162b53bbe.3e920dc02c80bc1f362d65041539732118f6f2fd.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:44:53</t>
-  </si>
-  <si>
     <t>971c2ae1-be4c-4e37-a44a-60652c6741c4.407de0586fbdf93189b1a29559e97db952d5c844.de-de.xlf</t>
   </si>
   <si>
-    <t>b1ac6686-8825-47c5-9621-17bc844aa44e.8e6edbdd1ff7d22f5a20daf96f121a3035cefefc.de-de.xlf</t>
-  </si>
-  <si>
-    <t>babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.5e03bfab94dd41e62bd73544b2580253bd9789ca.de-de.xlf</t>
-  </si>
-  <si>
-    <t>847bc690-249b-4a3d-9a43-ccee91e0e275.00ac36a2408dad012d42b86084b2575b53483f6d.de-de.xlf</t>
-  </si>
-  <si>
     <t>fc8fdd64-6d6a-4f99-844f-c96434b1ea90.2bd622e1e8e25ef536ecbc11e45687940fee8b2e.de-de.xlf</t>
   </si>
   <si>
     <t>54f7fcb2-e703-4e23-b88e-950d6fa21052.505dec05b777832185d7d600dfe0159f0d2ce090.de-de.xlf</t>
   </si>
   <si>
-    <t>614fb894-1524-4b63-a580-394b1a45dc50.4fe3a609b5fe7955a0db8d224017350ac6d1704d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:39:48</t>
-  </si>
-  <si>
-    <t>95109f71-78c5-4dd6-8c95-c18930da5f63.f5425e2307442b48b50d98e7cbc2c33eef6cfc77.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:33:15</t>
+    <t>c98c81d3-a109-4df8-8ff1-8b1756a65420.e414b4dc91db61526c5fdfbe5fc33f3ee8c2a866.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -367,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R12" headerRowCount="1">
-  <autoFilter ref="A1:R12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -394,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R12" headerRowCount="1">
-  <autoFilter ref="A1:R12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -421,8 +346,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G12" headerRowCount="1">
-  <autoFilter ref="A1:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -438,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -519,53 +444,53 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -582,13 +507,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -605,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +559,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -657,91 +582,19 @@
         <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId11"/>
-    <hyperlink ref="B12" display="e2e\95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId12"/>
+    <hyperlink ref="B2" display="e2e\b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\c98c81d3-a109-4df8-8ff1-8b1756a65420.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -752,7 +605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -775,63 +628,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -845,19 +698,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -866,10 +719,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -878,13 +731,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -901,19 +754,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -922,10 +775,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -934,13 +787,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -948,41 +801,41 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
@@ -990,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1004,40 +857,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1046,13 +899,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1066,22 +919,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1090,10 +943,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1102,13 +955,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1122,35 +975,35 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
       </c>
@@ -1158,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1181,32 +1034,32 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
       </c>
@@ -1214,13 +1067,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1237,32 +1090,32 @@
         <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
       </c>
@@ -1270,207 +1123,32 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId14"/>
-    <hyperlink ref="A9" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId15"/>
-    <hyperlink ref="A10" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId16"/>
-    <hyperlink ref="A11" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId17"/>
-    <hyperlink ref="J11" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId18"/>
-    <hyperlink ref="A12" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId19"/>
-    <hyperlink ref="J12" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId20"/>
+    <hyperlink ref="A2" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId9"/>
+    <hyperlink ref="J6" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="c98c81d3-a109-4df8-8ff1-8b1756a65420.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1481,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1504,63 +1182,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -1574,16 +1252,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1595,10 +1273,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1607,13 +1285,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1630,19 +1308,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -1651,10 +1329,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1663,13 +1341,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1677,41 +1355,41 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1719,13 +1397,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1733,40 +1411,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1775,13 +1453,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1795,22 +1473,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1819,10 +1497,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1831,13 +1509,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1851,35 +1529,35 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
       </c>
@@ -1887,13 +1565,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1910,32 +1588,32 @@
         <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
       </c>
@@ -1943,13 +1621,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1966,32 +1644,32 @@
         <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
       </c>
@@ -1999,207 +1677,32 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1ce831e9-b69c-434f-b499-f8674386e5c9.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="3a5c89dd-aa36-4cc1-8cab-1bfe5a066509.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId14"/>
-    <hyperlink ref="A9" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId15"/>
-    <hyperlink ref="A10" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId16"/>
-    <hyperlink ref="A11" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId17"/>
-    <hyperlink ref="J11" display="614fb894-1524-4b63-a580-394b1a45dc50.md" r:id="rId18"/>
-    <hyperlink ref="A12" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId19"/>
-    <hyperlink ref="J12" display="95109f71-78c5-4dd6-8c95-c18930da5f63.md" r:id="rId20"/>
+    <hyperlink ref="A2" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b1ac6686-8825-47c5-9621-17bc844aa44e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="babc6f0a-3b0d-40eb-819a-94e7dc5bdb34.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="847bc690-249b-4a3d-9a43-ccee91e0e275.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId7"/>
+    <hyperlink ref="J5" display="959fabb0-d320-4735-a213-982162b53bbe.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId9"/>
+    <hyperlink ref="J6" display="971c2ae1-be4c-4e37-a44a-60652c6741c4.md" r:id="rId10"/>
+    <hyperlink ref="A7" display="fc8fdd64-6d6a-4f99-844f-c96434b1ea90.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="54f7fcb2-e703-4e23-b88e-950d6fa21052.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="c98c81d3-a109-4df8-8ff1-8b1756a65420.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-02-17 09:47:36</t>
@@ -280,8 +280,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,7 +376,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -584,7 +584,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>In Translation</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 09:47:36</t>
@@ -130,7 +130,7 @@
     <t>2017-02-17 09:47:18</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 09:49:46</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>07caae6d-e958-45c2-8b6b-051206744b00.d60924759905a7f4000a62ccb3c7bbe5a11bf279.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:50:12</t>
   </si>
   <si>
     <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.d06c0ab42108331d13ac48a353b377e9c44a0c4c.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -55,24 +55,21 @@
     <t>2017-02-17 09:47:36</t>
   </si>
   <si>
+    <t>195aa539-88a7-4ceb-85b5-40a6df274ad1.md</t>
+  </si>
+  <si>
+    <t>e2e\195aa539-88a7-4ceb-85b5-40a6df274ad1.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:52:19</t>
+  </si>
+  <si>
     <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md</t>
   </si>
   <si>
     <t>e2e\2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md</t>
   </si>
   <si>
-    <t>195aa539-88a7-4ceb-85b5-40a6df274ad1.md</t>
-  </si>
-  <si>
-    <t>e2e\195aa539-88a7-4ceb-85b5-40a6df274ad1.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:52:19</t>
-  </si>
-  <si>
     <t>f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md</t>
   </si>
   <si>
@@ -154,18 +151,18 @@
     <t>True</t>
   </si>
   <si>
+    <t>195aa539-88a7-4ceb-85b5-40a6df274ad1.b7b059198bb2a9b4f6f70d0c1a632ad5bcb1e695.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:52:02</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:52:55</t>
+  </si>
+  <si>
     <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.d06c0ab42108331d13ac48a353b377e9c44a0c4c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>195aa539-88a7-4ceb-85b5-40a6df274ad1.b7b059198bb2a9b4f6f70d0c1a632ad5bcb1e695.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:52:02</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>f47cb2fb-4b2f-48dd-8382-e0634ddb6881.571c7903a5bcd94186b69d0e53bf4f8226703a53.zh-cn.xlf</t>
   </si>
   <si>
@@ -175,10 +172,13 @@
     <t>2017-02-17 09:50:12</t>
   </si>
   <si>
+    <t>195aa539-88a7-4ceb-85b5-40a6df274ad1.b7b059198bb2a9b4f6f70d0c1a632ad5bcb1e695.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:53:18</t>
+  </si>
+  <si>
     <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.d06c0ab42108331d13ac48a353b377e9c44a0c4c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>195aa539-88a7-4ceb-85b5-40a6df274ad1.b7b059198bb2a9b4f6f70d0c1a632ad5bcb1e695.de-de.xlf</t>
   </si>
   <si>
     <t>f47cb2fb-4b2f-48dd-8382-e0634ddb6881.571c7903a5bcd94186b69d0e53bf4f8226703a53.de-de.xlf</t>
@@ -390,15 +390,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -407,21 +407,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -430,20 +430,20 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -483,58 +483,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -548,19 +548,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -569,25 +569,25 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -604,19 +604,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -625,25 +625,25 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -651,40 +651,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -707,40 +707,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -749,13 +749,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -765,10 +765,12 @@
   <hyperlinks>
     <hyperlink ref="A2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -807,58 +809,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -872,16 +874,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -893,11 +895,11 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
@@ -905,13 +907,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -928,19 +930,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -949,11 +951,11 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
       </c>
@@ -961,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -975,40 +977,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1017,13 +1019,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1031,40 +1033,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1073,13 +1075,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1089,10 +1091,12 @@
   <hyperlinks>
     <hyperlink ref="A2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>File Name</t>
   </si>
@@ -55,19 +55,22 @@
     <t>2017-02-17 09:47:36</t>
   </si>
   <si>
+    <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md</t>
+  </si>
+  <si>
+    <t>e2e\2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md</t>
+  </si>
+  <si>
     <t>195aa539-88a7-4ceb-85b5-40a6df274ad1.md</t>
   </si>
   <si>
     <t>e2e\195aa539-88a7-4ceb-85b5-40a6df274ad1.md</t>
   </si>
   <si>
-    <t>2017-02-17 09:52:19</t>
-  </si>
-  <si>
-    <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md</t>
-  </si>
-  <si>
-    <t>e2e\2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:54:29</t>
   </si>
   <si>
     <t>f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md</t>
@@ -151,34 +154,40 @@
     <t>True</t>
   </si>
   <si>
+    <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.d06c0ab42108331d13ac48a353b377e9c44a0c4c.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>195aa539-88a7-4ceb-85b5-40a6df274ad1.b7b059198bb2a9b4f6f70d0c1a632ad5bcb1e695.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:52:02</t>
+    <t>2017-02-17 09:54:10</t>
   </si>
   <si>
     <t>2017-02-17 09:52:55</t>
   </si>
   <si>
-    <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.d06c0ab42108331d13ac48a353b377e9c44a0c4c.zh-cn.xlf</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7c0d8a35d839db46378bc06ca9e5cc7bc860aaf7/e2e/195aa539-88a7-4ceb-85b5-40a6df274ad1.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/bb82c66b9049e03f840363fbfc7042b438479d55/e2e/195aa539-88a7-4ceb-85b5-40a6df274ad1.md.</t>
   </si>
   <si>
     <t>f47cb2fb-4b2f-48dd-8382-e0634ddb6881.571c7903a5bcd94186b69d0e53bf4f8226703a53.zh-cn.xlf</t>
   </si>
   <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/7c0d8a35d839db46378bc06ca9e5cc7bc860aaf7/e2e/f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/bb82c66b9049e03f840363fbfc7042b438479d55/e2e/f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md.</t>
+  </si>
+  <si>
     <t>07caae6d-e958-45c2-8b6b-051206744b00.d60924759905a7f4000a62ccb3c7bbe5a11bf279.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:50:12</t>
   </si>
   <si>
+    <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.d06c0ab42108331d13ac48a353b377e9c44a0c4c.de-de.xlf</t>
+  </si>
+  <si>
     <t>195aa539-88a7-4ceb-85b5-40a6df274ad1.b7b059198bb2a9b4f6f70d0c1a632ad5bcb1e695.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:53:18</t>
-  </si>
-  <si>
-    <t>2f4014ee-9612-4d73-9bd4-696dd5a25dc5.d06c0ab42108331d13ac48a353b377e9c44a0c4c.de-de.xlf</t>
   </si>
   <si>
     <t>f47cb2fb-4b2f-48dd-8382-e0634ddb6881.571c7903a5bcd94186b69d0e53bf4f8226703a53.de-de.xlf</t>
@@ -390,15 +399,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -407,21 +416,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -430,20 +439,20 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
@@ -478,63 +487,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -548,19 +557,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -569,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -581,13 +590,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -604,19 +613,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -625,25 +634,25 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -651,40 +660,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -693,55 +702,55 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
@@ -749,26 +758,26 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId7"/>
     <hyperlink ref="A5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId8"/>
     <hyperlink ref="J5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId9"/>
   </hyperlinks>
@@ -804,63 +813,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -874,16 +883,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -895,10 +904,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -907,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -930,19 +939,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -951,10 +960,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -963,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -977,40 +986,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1019,54 +1028,54 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1075,26 +1084,26 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId2"/>
     <hyperlink ref="J2" display="07caae6d-e958-45c2-8b6b-051206744b00.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="2f4014ee-9612-4d73-9bd4-696dd5a25dc5.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="195aa539-88a7-4ceb-85b5-40a6df274ad1.md" r:id="rId7"/>
     <hyperlink ref="A5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId8"/>
     <hyperlink ref="J5" display="f47cb2fb-4b2f-48dd-8382-e0634ddb6881.md" r:id="rId9"/>
   </hyperlinks>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 09:56:26</t>
@@ -130,7 +130,7 @@
     <t>2017-02-17 09:56:08</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 09:57:02</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:57:26</t>
   </si>
   <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -49,10 +49,10 @@
     <t/>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:56:26</t>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:58:33</t>
   </si>
   <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
@@ -118,7 +118,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
@@ -127,13 +127,16 @@
     <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:56:08</t>
+    <t>2017-02-17 09:58:16</t>
   </si>
   <si>
     <t>2017-02-17 09:57:02</t>
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/68de26946227fbf20e045aa7e5d7a6aa9c6044c8/e2e/de898377-1a40-4256-a36e-cf8b89338f72.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/20eadb958ccb25a5449925b4bd67b9d5b51f09a6/e2e/de898377-1a40-4256-a36e-cf8b89338f72.md.</t>
   </si>
   <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
@@ -283,8 +286,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -379,7 +382,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -394,7 +397,7 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,7 +509,7 @@
         <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +532,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
@@ -541,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -589,7 +592,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -604,7 +607,7 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -683,7 +686,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -695,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -716,7 +719,7 @@
         <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -739,7 +742,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -751,10 +754,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 09:58:33</t>
@@ -130,22 +130,19 @@
     <t>2017-02-17 09:58:16</t>
   </si>
   <si>
-    <t>2017-02-17 09:57:02</t>
+    <t>2017-02-17 09:59:08</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/68de26946227fbf20e045aa7e5d7a6aa9c6044c8/e2e/de898377-1a40-4256-a36e-cf8b89338f72.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/20eadb958ccb25a5449925b4bd67b9d5b51f09a6/e2e/de898377-1a40-4256-a36e-cf8b89338f72.md.</t>
-  </si>
-  <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
   </si>
   <si>
     <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 09:57:26</t>
+    <t>2017-02-17 09:59:33</t>
   </si>
   <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
@@ -286,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -382,7 +379,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -397,7 +394,7 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -509,7 +506,7 @@
         <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +529,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
@@ -544,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -592,7 +589,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -607,7 +604,7 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="40" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -686,7 +683,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -698,10 +695,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -719,7 +716,7 @@
         <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -754,10 +751,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -37,39 +37,45 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
+  </si>
+  <si>
+    <t>e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:02:46</t>
+  </si>
+  <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
+  </si>
+  <si>
+    <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
+  </si>
+  <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
   </si>
   <si>
     <t>e2e\fc27428e-122e-437e-b182-a7091826a6e4.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:02:46</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
-  </si>
-  <si>
-    <t>e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
+    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
+  </si>
+  <si>
+    <t>e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
-  </si>
-  <si>
-    <t>e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
-  </si>
-  <si>
     <t>de898377-1a40-4256-a36e-cf8b89338f72.md</t>
   </si>
   <si>
@@ -82,12 +88,6 @@
     <t>e2e\f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md</t>
   </si>
   <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
-  </si>
-  <si>
-    <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,24 +151,27 @@
     <t>False</t>
   </si>
   <si>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:02:26</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 10:02:26</t>
-  </si>
-  <si>
     <t>2017-02-17 09:59:08</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
     <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.zh-cn.xlf</t>
   </si>
   <si>
@@ -178,7 +181,10 @@
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.zh-cn.xlf</t>
   </si>
   <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
   </si>
   <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
@@ -187,9 +193,6 @@
     <t>2017-02-17 09:59:33</t>
   </si>
   <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
-  </si>
-  <si>
     <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.de-de.xlf</t>
   </si>
   <si>
@@ -197,9 +200,6 @@
   </si>
   <si>
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -402,10 +402,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -413,11 +413,11 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
@@ -425,10 +425,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -436,22 +436,22 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -471,10 +471,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -494,10 +494,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>12</v>
@@ -505,12 +505,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId7"/>
+    <hyperlink ref="B2" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -631,11 +631,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>47</v>
@@ -667,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>42</v>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>42</v>
@@ -735,7 +735,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>46</v>
@@ -743,14 +743,14 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>42</v>
@@ -799,11 +799,11 @@
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>47</v>
@@ -835,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>42</v>
@@ -855,14 +855,14 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -891,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>42</v>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -941,14 +941,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId6"/>
-    <hyperlink ref="J5" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
+    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId7"/>
+    <hyperlink ref="J6" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1069,14 +1069,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1105,7 +1105,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>42</v>
@@ -1117,7 +1117,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1132,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>42</v>
@@ -1173,7 +1173,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1181,14 +1181,14 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>42</v>
@@ -1237,14 +1237,14 @@
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1273,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>42</v>
@@ -1293,14 +1293,14 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1329,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>42</v>
@@ -1356,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1379,14 +1379,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId6"/>
-    <hyperlink ref="J5" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
+    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId7"/>
+    <hyperlink ref="J6" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -37,34 +37,46 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>de898377-1a40-4256-a36e-cf8b89338f72.md</t>
+  </si>
+  <si>
+    <t>e2e\de898377-1a40-4256-a36e-cf8b89338f72.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:04:18</t>
+  </si>
+  <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
+  </si>
+  <si>
+    <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:02:46</t>
+  </si>
+  <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
+  </si>
+  <si>
+    <t>e2e\fc27428e-122e-437e-b182-a7091826a6e4.md</t>
+  </si>
+  <si>
     <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
   </si>
   <si>
     <t>e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:02:46</t>
-  </si>
-  <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
-  </si>
-  <si>
-    <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
-  </si>
-  <si>
-    <t>e2e\fc27428e-122e-437e-b182-a7091826a6e4.md</t>
+    <t>Ready for handoff</t>
   </si>
   <si>
     <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
@@ -73,15 +85,6 @@
     <t>e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>de898377-1a40-4256-a36e-cf8b89338f72.md</t>
-  </si>
-  <si>
-    <t>e2e\de898377-1a40-4256-a36e-cf8b89338f72.md</t>
-  </si>
-  <si>
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md</t>
   </si>
   <si>
@@ -145,58 +148,64 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:04:01</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:59:08</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>ht</t>
   </si>
   <si>
-    <t>False</t>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:02:26</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
   </si>
   <si>
     <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 10:02:26</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:59:08</t>
-  </si>
-  <si>
     <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.zh-cn.xlf</t>
   </si>
   <si>
+    <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 09:59:33</t>
+  </si>
+  <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
+  </si>
+  <si>
     <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
   </si>
   <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 09:59:33</t>
-  </si>
-  <si>
     <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.de-de.xlf</t>
   </si>
   <si>
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.de-de.xlf</t>
@@ -408,15 +417,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -436,10 +445,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -448,10 +457,10 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>12</v>
@@ -459,22 +468,22 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -482,10 +491,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -494,10 +503,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>12</v>
@@ -505,11 +514,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId6"/>
+    <hyperlink ref="B5" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
@@ -549,58 +558,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -614,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -647,13 +656,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -670,46 +679,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -717,7 +726,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -726,31 +735,31 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -759,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -773,28 +782,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -806,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -815,13 +824,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -829,41 +838,41 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
       </c>
@@ -871,13 +880,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -885,28 +894,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -918,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -927,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -941,13 +950,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId7"/>
-    <hyperlink ref="J6" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId8"/>
     <hyperlink ref="A7" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
@@ -987,58 +996,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -1052,16 +1061,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1069,14 +1078,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1085,13 +1094,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1108,19 +1117,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -1132,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1141,13 +1150,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1155,7 +1164,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1164,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1182,13 +1191,13 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1197,13 +1206,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1211,25 +1220,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1244,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1253,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1267,25 +1276,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -1293,14 +1302,14 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1309,13 +1318,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1323,25 +1332,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1356,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1365,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1379,13 +1388,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId7"/>
-    <hyperlink ref="J6" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId8"/>
+    <hyperlink ref="A2" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId8"/>
     <hyperlink ref="A7" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>File Name</t>
   </si>
@@ -37,48 +37,54 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
+  </si>
+  <si>
+    <t>e2e\fc27428e-122e-437e-b182-a7091826a6e4.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:05:20</t>
+  </si>
+  <si>
+    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
+  </si>
+  <si>
+    <t>e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
+  </si>
+  <si>
+    <t>Handback transform failed</t>
+  </si>
+  <si>
     <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
   </si>
   <si>
     <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
     <t>2017-02-17 10:02:46</t>
   </si>
   <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
-  </si>
-  <si>
-    <t>e2e\fc27428e-122e-437e-b182-a7091826a6e4.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:05:20</t>
-  </si>
-  <si>
-    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
-  </si>
-  <si>
-    <t>e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
+  </si>
+  <si>
+    <t>e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
   </si>
   <si>
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
-  </si>
-  <si>
-    <t>e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
-  </si>
-  <si>
     <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
   </si>
   <si>
@@ -160,61 +166,73 @@
     <t>False</t>
   </si>
   <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:04:59</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:05:55</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
     <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 10:02:26</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:04:59</t>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:59:08</t>
   </si>
   <si>
-    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.zh-cn.xlf</t>
   </si>
   <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:06:19</t>
+  </si>
+  <si>
+    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
     <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
   </si>
   <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-17 09:59:33</t>
-  </si>
-  <si>
-    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>de898377-1a40-4256-a36e-cf8b89338f72.2efd77531f499766f4c2227927c500e5fb63c97f.de-de.xlf</t>
   </si>
   <si>
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.de-de.xlf</t>
@@ -355,8 +373,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -420,13 +438,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -449,15 +467,15 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -466,44 +484,44 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -512,21 +530,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -535,20 +553,20 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId7"/>
@@ -571,7 +589,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -586,63 +604,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -656,31 +674,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -689,13 +707,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -709,52 +727,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -768,46 +786,46 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -815,55 +833,55 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -871,55 +889,55 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -927,55 +945,55 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -983,55 +1001,55 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1039,10 +1057,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
-    <hyperlink ref="J3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId5"/>
     <hyperlink ref="A5" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId6"/>
     <hyperlink ref="A6" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId7"/>
     <hyperlink ref="A7" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId8"/>
@@ -1066,7 +1084,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -1081,63 +1099,63 @@
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1151,16 +1169,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1168,14 +1186,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1184,13 +1202,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1204,34 +1222,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1240,16 +1258,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -1263,19 +1281,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1287,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1296,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1310,28 +1328,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
@@ -1343,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1352,13 +1370,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1366,28 +1384,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1399,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1408,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1422,40 +1440,40 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1464,13 +1482,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1478,28 +1496,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1511,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1520,13 +1538,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1534,10 +1552,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
-    <hyperlink ref="J3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId5"/>
     <hyperlink ref="A5" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId6"/>
     <hyperlink ref="A6" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId7"/>
     <hyperlink ref="A7" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>File Name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Ready for handoff</t>
   </si>
   <si>
+    <t>2017-02-17 10:08:25</t>
+  </si>
+  <si>
     <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:08:03</t>
   </si>
   <si>
     <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf is not match with handoff type ht</t>
@@ -485,38 +491,38 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -531,15 +537,15 @@
         <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -554,15 +560,15 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -577,15 +583,15 @@
         <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -605,10 +611,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -623,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -675,58 +681,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -740,19 +746,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -764,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -773,13 +779,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -796,19 +802,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -817,25 +823,25 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -852,19 +858,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -876,7 +882,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -885,21 +891,21 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -908,20 +914,20 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
@@ -932,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -941,13 +947,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -955,7 +961,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -964,19 +970,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -988,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -997,13 +1003,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1011,7 +1017,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1020,19 +1026,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1044,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1053,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1067,7 +1073,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1076,19 +1082,19 @@
         <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1100,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1109,13 +1115,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1123,7 +1129,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1132,31 +1138,31 @@
         <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1165,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -1179,7 +1185,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1188,19 +1194,19 @@
         <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1212,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -1221,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>
@@ -1284,58 +1290,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -1349,16 +1355,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1373,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1382,13 +1388,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1405,16 +1411,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1426,10 +1432,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1438,13 +1444,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1461,19 +1467,19 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1485,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1494,43 +1500,43 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1550,13 +1556,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1564,7 +1570,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1573,19 +1579,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1597,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1606,13 +1612,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1620,7 +1626,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1629,19 +1635,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1653,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1662,13 +1668,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1676,7 +1682,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1685,19 +1691,19 @@
         <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1709,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1718,13 +1724,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1732,7 +1738,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1741,16 +1747,16 @@
         <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
@@ -1759,13 +1765,13 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1774,13 +1780,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -1788,7 +1794,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1797,19 +1803,19 @@
         <v>18</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1821,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -1830,13 +1836,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -37,21 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
+  </si>
+  <si>
+    <t>e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:09:21</t>
+  </si>
+  <si>
+    <t>8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
+  </si>
+  <si>
+    <t>e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
+  </si>
+  <si>
     <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
   </si>
   <si>
     <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
     <t>2017-02-17 10:02:46</t>
   </si>
   <si>
@@ -73,15 +88,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 10:09:21</t>
-  </si>
-  <si>
-    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
-  </si>
-  <si>
-    <t>e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
-  </si>
-  <si>
     <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
   </si>
   <si>
@@ -100,12 +106,6 @@
     <t>e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
   </si>
   <si>
-    <t>8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
-  </si>
-  <si>
-    <t>e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
-  </si>
-  <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.md</t>
   </si>
   <si>
@@ -181,24 +181,33 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:09:04</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>ht</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-17 10:02:26</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
   </si>
   <si>
@@ -211,15 +220,9 @@
     <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 10:09:04</t>
-  </si>
-  <si>
     <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf is not match with handoff type ht</t>
   </si>
   <si>
-    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
   </si>
   <si>
@@ -229,9 +232,6 @@
     <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.39531d096b7352f366bec4b5b565a1964ceb38c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -244,6 +244,12 @@
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.zh-cn.xlf</t>
   </si>
   <si>
+    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.de-de.xlf</t>
+  </si>
+  <si>
     <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
   </si>
   <si>
@@ -259,9 +265,6 @@
     <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf is not match with handoff type ht</t>
   </si>
   <si>
-    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.de-de.xlf</t>
-  </si>
-  <si>
     <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
   </si>
   <si>
@@ -269,9 +272,6 @@
   </si>
   <si>
     <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.de-de.xlf</t>
   </si>
   <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.39531d096b7352f366bec4b5b565a1964ceb38c8.de-de.xlf</t>
@@ -492,62 +492,62 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
@@ -555,13 +555,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -578,13 +578,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -601,13 +601,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -624,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -647,13 +647,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -693,25 +693,25 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId9"/>
+    <hyperlink ref="B2" display="e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
     <hyperlink ref="B10" display="e2e\ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId10"/>
     <hyperlink ref="B11" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId11"/>
     <hyperlink ref="B12" display="e2e\f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId12"/>
@@ -821,43 +821,43 @@
         <v>54</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -880,25 +880,25 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -907,13 +907,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -921,28 +921,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -954,36 +954,36 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>54</v>
@@ -992,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>65</v>
@@ -1003,29 +1003,29 @@
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1033,13 +1033,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>54</v>
@@ -1048,43 +1048,43 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1095,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>54</v>
@@ -1104,13 +1104,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1122,22 +1122,22 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1151,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>54</v>
@@ -1160,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1178,22 +1178,22 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1207,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>54</v>
@@ -1216,13 +1216,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1234,22 +1234,22 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -1263,7 +1263,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>54</v>
@@ -1272,13 +1272,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1290,22 +1290,22 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>
@@ -1319,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>54</v>
@@ -1328,13 +1328,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>73</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1355,13 +1355,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>10</v>
@@ -1375,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>54</v>
@@ -1384,13 +1384,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>75</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1402,22 +1402,22 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>10</v>
@@ -1425,15 +1425,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
-    <hyperlink ref="J3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId10"/>
+    <hyperlink ref="A2" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="J5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId9"/>
+    <hyperlink ref="A9" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId10"/>
     <hyperlink ref="A10" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId11"/>
     <hyperlink ref="A11" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId12"/>
     <hyperlink ref="J11" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId13"/>
@@ -1544,10 +1544,10 @@
         <v>54</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>76</v>
@@ -1565,22 +1565,22 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1603,25 +1603,25 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1630,13 +1630,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1644,28 +1644,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>54</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1677,36 +1677,36 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>54</v>
@@ -1715,40 +1715,40 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>54</v>
@@ -1771,43 +1771,43 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1818,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>54</v>
@@ -1827,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1845,22 +1845,22 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1874,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>54</v>
@@ -1883,13 +1883,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1901,22 +1901,22 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1930,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>54</v>
@@ -1939,13 +1939,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1957,22 +1957,22 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -1986,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>54</v>
@@ -1995,13 +1995,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -2013,22 +2013,22 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>
@@ -2042,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>54</v>
@@ -2051,13 +2051,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -2078,13 +2078,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>10</v>
@@ -2098,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>54</v>
@@ -2107,13 +2107,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>89</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -2125,22 +2125,22 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>10</v>
@@ -2148,15 +2148,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId3"/>
-    <hyperlink ref="J3" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId10"/>
+    <hyperlink ref="A2" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
+    <hyperlink ref="A5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="J5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId9"/>
+    <hyperlink ref="A9" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId10"/>
     <hyperlink ref="A10" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId11"/>
     <hyperlink ref="A11" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId12"/>
     <hyperlink ref="J11" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId13"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>File Name</t>
   </si>
@@ -55,57 +55,60 @@
     <t>2017-02-17 10:09:21</t>
   </si>
   <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
+  </si>
+  <si>
+    <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:02:46</t>
+  </si>
+  <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
+  </si>
+  <si>
+    <t>e2e\fc27428e-122e-437e-b182-a7091826a6e4.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:07:33</t>
+  </si>
+  <si>
+    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
+  </si>
+  <si>
+    <t>e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:10:56</t>
+  </si>
+  <si>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
+  </si>
+  <si>
+    <t>e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
+  </si>
+  <si>
+    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md</t>
+  </si>
+  <si>
+    <t>e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md</t>
+  </si>
+  <si>
+    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
+  </si>
+  <si>
+    <t>e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
+  </si>
+  <si>
     <t>8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
   </si>
   <si>
     <t>e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
   </si>
   <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
-  </si>
-  <si>
-    <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:02:46</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
-  </si>
-  <si>
-    <t>e2e\fc27428e-122e-437e-b182-a7091826a6e4.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:07:33</t>
-  </si>
-  <si>
-    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
-  </si>
-  <si>
-    <t>e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
-  </si>
-  <si>
-    <t>e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
-  </si>
-  <si>
-    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md</t>
-  </si>
-  <si>
-    <t>e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md</t>
-  </si>
-  <si>
-    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
-  </si>
-  <si>
-    <t>e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
-  </si>
-  <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.md</t>
   </si>
   <si>
@@ -196,42 +199,45 @@
     <t>True</t>
   </si>
   <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:02:26</t>
+  </si>
+  <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:07:15</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:05:55</t>
+  </si>
+  <si>
+    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:10:39</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.2490ad4cc5c345c91d45b69c2b0c142b75f34391.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.zh-cn.xlf</t>
   </si>
   <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:02:26</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:07:15</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:05:55</t>
-  </si>
-  <si>
-    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf is not match with handoff type ht</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.2490ad4cc5c345c91d45b69c2b0c142b75f34391.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.39531d096b7352f366bec4b5b565a1964ceb38c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -247,31 +253,31 @@
     <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.de-de.xlf</t>
   </si>
   <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:06:19</t>
+  </si>
+  <si>
+    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.2490ad4cc5c345c91d45b69c2b0c142b75f34391.de-de.xlf</t>
+  </si>
+  <si>
+    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.de-de.xlf</t>
+  </si>
+  <si>
     <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:06:19</t>
-  </si>
-  <si>
-    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf</t>
-  </si>
-  <si>
-    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf is not match with handoff type ht</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.2490ad4cc5c345c91d45b69c2b0c142b75f34391.de-de.xlf</t>
-  </si>
-  <si>
-    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.de-de.xlf</t>
   </si>
   <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.39531d096b7352f366bec4b5b565a1964ceb38c8.de-de.xlf</t>
@@ -492,15 +498,15 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -515,15 +521,15 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -532,44 +538,44 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -578,21 +584,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -601,21 +607,21 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -624,21 +630,21 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -647,21 +653,21 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
@@ -670,21 +676,21 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
@@ -693,25 +699,25 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
+    <hyperlink ref="B3" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId9"/>
     <hyperlink ref="B10" display="e2e\ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId10"/>
     <hyperlink ref="B11" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId11"/>
     <hyperlink ref="B12" display="e2e\f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId12"/>
@@ -753,58 +759,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -818,19 +824,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -842,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -851,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -874,46 +880,46 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -921,7 +927,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -930,31 +936,31 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -963,13 +969,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -977,40 +983,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1019,42 +1025,42 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1066,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1075,42 +1081,42 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1122,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1131,13 +1137,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1145,28 +1151,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1178,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1187,13 +1193,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1201,28 +1207,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1234,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1243,13 +1249,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -1257,28 +1263,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1290,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -1299,13 +1305,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>
@@ -1313,25 +1319,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>65</v>
@@ -1340,13 +1346,13 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -1355,13 +1361,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>10</v>
@@ -1369,28 +1375,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1402,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -1411,13 +1417,13 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>10</v>
@@ -1426,14 +1432,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
-    <hyperlink ref="J5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId10"/>
+    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
+    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
+    <hyperlink ref="A9" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId10"/>
     <hyperlink ref="A10" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId11"/>
     <hyperlink ref="A11" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId12"/>
     <hyperlink ref="J11" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId13"/>
@@ -1476,58 +1482,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -1541,16 +1547,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1565,7 +1571,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1574,13 +1580,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1597,19 +1603,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -1621,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1630,13 +1636,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1644,7 +1650,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1653,31 +1659,31 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1686,13 +1692,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1700,40 +1706,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1742,42 +1748,42 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -1789,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1798,42 +1804,42 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1845,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1854,13 +1860,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" s="0" t="s">
         <v>10</v>
@@ -1868,28 +1874,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1901,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1910,13 +1916,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1924,28 +1930,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1957,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1966,13 +1972,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -1980,28 +1986,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -2013,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -2022,13 +2028,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>
@@ -2036,40 +2042,40 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -2078,13 +2084,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>10</v>
@@ -2092,28 +2098,28 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -2125,7 +2131,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -2134,13 +2140,13 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>10</v>
@@ -2149,14 +2155,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
-    <hyperlink ref="A5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
-    <hyperlink ref="J5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId10"/>
+    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
+    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
+    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
+    <hyperlink ref="A7" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
+    <hyperlink ref="A8" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
+    <hyperlink ref="A9" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId10"/>
     <hyperlink ref="A10" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId11"/>
     <hyperlink ref="A11" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId12"/>
     <hyperlink ref="J11" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId13"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>caaa9247-f93c-4940-9926-f97c5661445a.md</t>
+  </si>
+  <si>
+    <t>e2e\caaa9247-f93c-4940-9926-f97c5661445a.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:11:54</t>
+  </si>
+  <si>
+    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
+  </si>
+  <si>
+    <t>e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
+  </si>
+  <si>
     <t>54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
   </si>
   <si>
     <t>e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
@@ -82,9 +100,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 10:11:54</t>
-  </si>
-  <si>
     <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
   </si>
   <si>
@@ -109,12 +124,6 @@
     <t>e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
   </si>
   <si>
-    <t>caaa9247-f93c-4940-9926-f97c5661445a.md</t>
-  </si>
-  <si>
-    <t>e2e\caaa9247-f93c-4940-9926-f97c5661445a.md</t>
-  </si>
-  <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.md</t>
   </si>
   <si>
@@ -127,12 +136,6 @@
     <t>e2e\de898377-1a40-4256-a36e-cf8b89338f72.md</t>
   </si>
   <si>
-    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
-  </si>
-  <si>
-    <t>e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
-  </si>
-  <si>
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md</t>
   </si>
   <si>
@@ -199,6 +202,21 @@
     <t>False</t>
   </si>
   <si>
+    <t>caaa9247-f93c-4940-9926-f97c5661445a.61953e823f839261a4447373f31dc4321c46d6a9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:11:38</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:12:30</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.zh-cn.xlf</t>
   </si>
   <si>
@@ -208,9 +226,6 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>ht</t>
   </si>
   <si>
@@ -232,9 +247,6 @@
     <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 10:11:38</t>
-  </si>
-  <si>
     <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf is not match with handoff type ht</t>
   </si>
   <si>
@@ -250,9 +262,6 @@
     <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.zh-cn.xlf</t>
   </si>
   <si>
-    <t>caaa9247-f93c-4940-9926-f97c5661445a.61953e823f839261a4447373f31dc4321c46d6a9.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.39531d096b7352f366bec4b5b565a1964ceb38c8.zh-cn.xlf</t>
   </si>
   <si>
@@ -262,12 +271,18 @@
     <t>2017-02-17 09:59:08</t>
   </si>
   <si>
-    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.zh-cn.xlf</t>
   </si>
   <si>
+    <t>caaa9247-f93c-4940-9926-f97c5661445a.61953e823f839261a4447373f31dc4321c46d6a9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:12:53</t>
+  </si>
+  <si>
+    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.de-de.xlf</t>
+  </si>
+  <si>
     <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.de-de.xlf</t>
   </si>
   <si>
@@ -298,9 +313,6 @@
     <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.de-de.xlf</t>
   </si>
   <si>
-    <t>caaa9247-f93c-4940-9926-f97c5661445a.61953e823f839261a4447373f31dc4321c46d6a9.de-de.xlf</t>
-  </si>
-  <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.39531d096b7352f366bec4b5b565a1964ceb38c8.de-de.xlf</t>
   </si>
   <si>
@@ -308,9 +320,6 @@
   </si>
   <si>
     <t>2017-02-17 09:59:33</t>
-  </si>
-  <si>
-    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.de-de.xlf</t>
   </si>
   <si>
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.de-de.xlf</t>
@@ -451,8 +460,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,27 +531,27 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -562,36 +571,36 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -608,21 +617,21 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -631,21 +640,21 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -654,21 +663,21 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -677,21 +686,21 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
@@ -700,21 +709,21 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
@@ -723,21 +732,21 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
@@ -746,21 +755,21 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
@@ -769,29 +778,29 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId11"/>
-    <hyperlink ref="B12" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId12"/>
-    <hyperlink ref="B13" display="e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId13"/>
+    <hyperlink ref="B2" display="e2e\caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId11"/>
+    <hyperlink ref="B12" display="e2e\ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId12"/>
+    <hyperlink ref="B13" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId13"/>
     <hyperlink ref="B14" display="e2e\f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId14"/>
   </hyperlinks>
   <headerFooter/>
@@ -811,7 +820,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -831,58 +840,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -896,31 +905,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -929,13 +938,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -952,31 +961,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -985,13 +994,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -999,41 +1008,41 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1041,13 +1050,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1061,16 +1070,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>71</v>
@@ -1088,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1097,54 +1106,54 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1153,13 +1162,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -1173,22 +1182,22 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1200,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1209,42 +1218,42 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1256,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1265,13 +1274,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1279,28 +1288,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1312,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1321,13 +1330,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -1335,28 +1344,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1368,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -1377,13 +1386,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>
@@ -1391,28 +1400,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1424,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -1433,13 +1442,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>10</v>
@@ -1447,41 +1456,41 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
       </c>
@@ -1489,13 +1498,13 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>10</v>
@@ -1503,40 +1512,40 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>10</v>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>10</v>
@@ -1545,13 +1554,13 @@
         <v>10</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>10</v>
@@ -1559,28 +1568,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -1592,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>10</v>
@@ -1601,13 +1610,13 @@
         <v>10</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R14" s="0" t="s">
         <v>10</v>
@@ -1615,21 +1624,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId10"/>
-    <hyperlink ref="A10" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId11"/>
-    <hyperlink ref="A11" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId12"/>
-    <hyperlink ref="A12" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId13"/>
-    <hyperlink ref="J12" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId14"/>
-    <hyperlink ref="A13" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId15"/>
-    <hyperlink ref="A14" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId16"/>
+    <hyperlink ref="A2" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId8"/>
+    <hyperlink ref="J6" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId13"/>
+    <hyperlink ref="A11" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId14"/>
+    <hyperlink ref="A12" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId15"/>
+    <hyperlink ref="A13" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId16"/>
+    <hyperlink ref="J13" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId17"/>
+    <hyperlink ref="A14" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1648,7 +1659,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -1668,58 +1679,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -1733,16 +1744,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1750,14 +1761,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1766,13 +1777,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1789,31 +1800,31 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1822,13 +1833,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1836,25 +1847,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -1862,14 +1873,14 @@
       <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1878,13 +1889,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1898,23 +1909,23 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1934,54 +1945,54 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K6" s="0" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1990,13 +2001,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>10</v>
@@ -2010,22 +2021,22 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -2037,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -2046,42 +2057,42 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -2093,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -2102,13 +2113,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -2116,28 +2127,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -2149,7 +2160,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -2158,13 +2169,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -2172,28 +2183,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -2205,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -2214,13 +2225,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>
@@ -2228,28 +2239,28 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -2261,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -2270,13 +2281,13 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>10</v>
@@ -2284,40 +2295,40 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>35</v>
+      <c r="J12" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -2326,13 +2337,13 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>10</v>
@@ -2340,40 +2351,40 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>10</v>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>10</v>
@@ -2382,13 +2393,13 @@
         <v>10</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>10</v>
@@ -2396,28 +2407,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -2429,7 +2440,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>10</v>
@@ -2438,13 +2449,13 @@
         <v>10</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R14" s="0" t="s">
         <v>10</v>
@@ -2452,21 +2463,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId3"/>
-    <hyperlink ref="A4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId4"/>
-    <hyperlink ref="J4" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
-    <hyperlink ref="A7" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
-    <hyperlink ref="A8" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
-    <hyperlink ref="A9" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId10"/>
-    <hyperlink ref="A10" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId11"/>
-    <hyperlink ref="A11" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId12"/>
-    <hyperlink ref="A12" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId13"/>
-    <hyperlink ref="J12" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId14"/>
-    <hyperlink ref="A13" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId15"/>
-    <hyperlink ref="A14" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId16"/>
+    <hyperlink ref="A2" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId6"/>
+    <hyperlink ref="A5" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId8"/>
+    <hyperlink ref="J6" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId10"/>
+    <hyperlink ref="A8" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId11"/>
+    <hyperlink ref="A9" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId12"/>
+    <hyperlink ref="A10" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId13"/>
+    <hyperlink ref="A11" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId14"/>
+    <hyperlink ref="A12" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId15"/>
+    <hyperlink ref="A13" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId16"/>
+    <hyperlink ref="J13" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId17"/>
+    <hyperlink ref="A14" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId18"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>File Name</t>
   </si>
@@ -37,93 +37,96 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
+  </si>
+  <si>
+    <t>e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:11:54</t>
+  </si>
+  <si>
+    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
+  </si>
+  <si>
+    <t>e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
+  </si>
+  <si>
+    <t>In Translation</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:09:21</t>
+  </si>
+  <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
+  </si>
+  <si>
+    <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:02:46</t>
+  </si>
+  <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
+  </si>
+  <si>
+    <t>e2e\fc27428e-122e-437e-b182-a7091826a6e4.md</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:07:33</t>
+  </si>
+  <si>
+    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
+  </si>
+  <si>
+    <t>e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:13:52</t>
+  </si>
+  <si>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
+  </si>
+  <si>
+    <t>e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
+  </si>
+  <si>
+    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md</t>
+  </si>
+  <si>
+    <t>e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md</t>
+  </si>
+  <si>
+    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
+  </si>
+  <si>
+    <t>e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
+  </si>
+  <si>
+    <t>8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
+  </si>
+  <si>
+    <t>e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
+  </si>
+  <si>
     <t>caaa9247-f93c-4940-9926-f97c5661445a.md</t>
   </si>
   <si>
     <t>e2e\caaa9247-f93c-4940-9926-f97c5661445a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:11:54</t>
-  </si>
-  <si>
-    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
-  </si>
-  <si>
-    <t>e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
-  </si>
-  <si>
-    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
-  </si>
-  <si>
-    <t>e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md</t>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:09:21</t>
-  </si>
-  <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
-  </si>
-  <si>
-    <t>e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:02:46</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.md</t>
-  </si>
-  <si>
-    <t>e2e\fc27428e-122e-437e-b182-a7091826a6e4.md</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:07:33</t>
-  </si>
-  <si>
-    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
-  </si>
-  <si>
-    <t>e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
-  </si>
-  <si>
-    <t>e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
-  </si>
-  <si>
-    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md</t>
-  </si>
-  <si>
-    <t>e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md</t>
-  </si>
-  <si>
-    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
-  </si>
-  <si>
-    <t>e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md</t>
-  </si>
-  <si>
-    <t>8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
-  </si>
-  <si>
-    <t>e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
-  </si>
-  <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.md</t>
   </si>
   <si>
@@ -202,64 +205,70 @@
     <t>False</t>
   </si>
   <si>
+    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:11:38</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:12:30</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:09:04</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:02:26</t>
+  </si>
+  <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:07:15</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:05:55</t>
+  </si>
+  <si>
+    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:13:33</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.2490ad4cc5c345c91d45b69c2b0c142b75f34391.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>caaa9247-f93c-4940-9926-f97c5661445a.61953e823f839261a4447373f31dc4321c46d6a9.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 10:11:38</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:12:30</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:09:04</t>
-  </si>
-  <si>
-    <t>0001-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:02:26</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:07:15</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:05:55</t>
-  </si>
-  <si>
-    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf is not match with handoff type ht</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.2490ad4cc5c345c91d45b69c2b0c142b75f34391.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.zh-cn.xlf</t>
+    <t>The version of handback file is not the latest, current: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/2156843103eda3b05ae77616ade0b5df8005b219/e2e/caaa9247-f93c-4940-9926-f97c5661445a.md, latest: https://github.com/OpenLocalizationTestOrg/ol-test0/blob/754ebfa01526eb5ca434d2c45d182296bddc2f86/e2e/caaa9247-f93c-4940-9926-f97c5661445a.md.</t>
   </si>
   <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.39531d096b7352f366bec4b5b565a1964ceb38c8.zh-cn.xlf</t>
@@ -274,43 +283,43 @@
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.zh-cn.xlf</t>
   </si>
   <si>
+    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:12:53</t>
+  </si>
+  <si>
+    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:06:19</t>
+  </si>
+  <si>
+    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf</t>
+  </si>
+  <si>
+    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf is not match with handoff type ht</t>
+  </si>
+  <si>
+    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.2490ad4cc5c345c91d45b69c2b0c142b75f34391.de-de.xlf</t>
+  </si>
+  <si>
+    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.de-de.xlf</t>
+  </si>
+  <si>
     <t>caaa9247-f93c-4940-9926-f97c5661445a.61953e823f839261a4447373f31dc4321c46d6a9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:12:53</t>
-  </si>
-  <si>
-    <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.de-de.xlf</t>
-  </si>
-  <si>
-    <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fb4beb2a-c7a3-46e9-b710-a1081ae3120e.74291f2a6c39420396c81e800d5a61730a39c5d7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fc27428e-122e-437e-b182-a7091826a6e4.e81b93e2e76f7862521cedf77167183d531b2600.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:06:19</t>
-  </si>
-  <si>
-    <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf</t>
-  </si>
-  <si>
-    <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.de-de.xlf is not match with handoff type ht</t>
-  </si>
-  <si>
-    <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.adc724f2f33d8a0282aab5df6fed3c71e606141c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.2490ad4cc5c345c91d45b69c2b0c142b75f34391.de-de.xlf</t>
-  </si>
-  <si>
-    <t>789b79aa-973b-41b1-bf3d-6618be69d1cf.d80a64ea898722873530ae178007403daf610b1d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.de-de.xlf</t>
   </si>
   <si>
     <t>ce99729a-3533-4679-b13b-af789b537112.39531d096b7352f366bec4b5b565a1964ceb38c8.de-de.xlf</t>
@@ -525,44 +534,44 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -571,21 +580,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -594,44 +603,44 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -640,21 +649,21 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -663,21 +672,21 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -686,21 +695,21 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
@@ -709,21 +718,21 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
@@ -732,21 +741,21 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
@@ -755,21 +764,21 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
@@ -778,27 +787,27 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId11"/>
+    <hyperlink ref="B2" display="e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId11"/>
     <hyperlink ref="B12" display="e2e\ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId12"/>
     <hyperlink ref="B13" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId13"/>
     <hyperlink ref="B14" display="e2e\f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId14"/>
@@ -840,58 +849,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -905,19 +914,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -926,10 +935,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -938,13 +947,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -958,34 +967,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -994,13 +1003,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1008,28 +1017,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1050,13 +1059,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1064,40 +1073,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1106,13 +1115,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1120,40 +1129,40 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1162,42 +1171,42 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -1218,42 +1227,42 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1274,13 +1283,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -1288,28 +1297,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1330,13 +1339,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -1344,28 +1353,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1386,13 +1395,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>
@@ -1400,40 +1409,40 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -1442,42 +1451,42 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1498,13 +1507,13 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>10</v>
@@ -1512,25 +1521,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>74</v>
@@ -1539,13 +1548,13 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>10</v>
@@ -1554,13 +1563,13 @@
         <v>10</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>10</v>
@@ -1568,28 +1577,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -1610,13 +1619,13 @@
         <v>10</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R14" s="0" t="s">
         <v>10</v>
@@ -1624,19 +1633,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId8"/>
-    <hyperlink ref="J6" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId9"/>
-    <hyperlink ref="A7" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId10"/>
-    <hyperlink ref="A8" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId13"/>
-    <hyperlink ref="A11" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId14"/>
+    <hyperlink ref="A2" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
+    <hyperlink ref="J5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId11"/>
+    <hyperlink ref="A10" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId12"/>
+    <hyperlink ref="A11" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId13"/>
+    <hyperlink ref="J11" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId14"/>
     <hyperlink ref="A12" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId15"/>
     <hyperlink ref="A13" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId16"/>
     <hyperlink ref="J13" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId17"/>
@@ -1679,58 +1688,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -1744,16 +1753,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1765,10 +1774,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1777,13 +1786,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1797,34 +1806,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1833,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -1847,28 +1856,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -1889,13 +1898,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1903,40 +1912,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1945,13 +1954,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1959,40 +1968,40 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -2001,42 +2010,42 @@
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
@@ -2057,42 +2066,42 @@
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -2113,13 +2122,13 @@
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R8" s="0" t="s">
         <v>10</v>
@@ -2127,28 +2136,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -2169,13 +2178,13 @@
         <v>10</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>10</v>
@@ -2183,28 +2192,28 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -2225,13 +2234,13 @@
         <v>10</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R10" s="0" t="s">
         <v>10</v>
@@ -2239,40 +2248,40 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>10</v>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -2281,42 +2290,42 @@
         <v>10</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -2337,13 +2346,13 @@
         <v>10</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>10</v>
@@ -2351,40 +2360,40 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>10</v>
@@ -2393,13 +2402,13 @@
         <v>10</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>10</v>
@@ -2407,28 +2416,28 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -2449,13 +2458,13 @@
         <v>10</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R14" s="0" t="s">
         <v>10</v>
@@ -2463,19 +2472,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId8"/>
-    <hyperlink ref="J6" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId9"/>
-    <hyperlink ref="A7" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId10"/>
-    <hyperlink ref="A8" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId11"/>
-    <hyperlink ref="A9" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId12"/>
-    <hyperlink ref="A10" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId13"/>
-    <hyperlink ref="A11" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId14"/>
+    <hyperlink ref="A2" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId4"/>
+    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId5"/>
+    <hyperlink ref="A5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
+    <hyperlink ref="J5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId7"/>
+    <hyperlink ref="A6" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId8"/>
+    <hyperlink ref="A7" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId9"/>
+    <hyperlink ref="A8" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId10"/>
+    <hyperlink ref="A9" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId11"/>
+    <hyperlink ref="A10" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId12"/>
+    <hyperlink ref="A11" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId13"/>
+    <hyperlink ref="J11" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId14"/>
     <hyperlink ref="A12" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId15"/>
     <hyperlink ref="A13" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId16"/>
     <hyperlink ref="J13" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId17"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>8cb80ee7-e896-4776-8509-d2967011a1b3.md</t>
+  </si>
+  <si>
+    <t>e2e\8cb80ee7-e896-4776-8509-d2967011a1b3.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:14:50</t>
+  </si>
+  <si>
+    <t>bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md</t>
+  </si>
+  <si>
+    <t>e2e\bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md</t>
+  </si>
+  <si>
     <t>df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
   </si>
   <si>
     <t>e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-17 10:11:54</t>
   </si>
   <si>
@@ -94,9 +109,6 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 10:14:50</t>
-  </si>
-  <si>
     <t>5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md</t>
   </si>
   <si>
@@ -121,18 +133,6 @@
     <t>e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md</t>
   </si>
   <si>
-    <t>8cb80ee7-e896-4776-8509-d2967011a1b3.md</t>
-  </si>
-  <si>
-    <t>e2e\8cb80ee7-e896-4776-8509-d2967011a1b3.md</t>
-  </si>
-  <si>
-    <t>bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md</t>
-  </si>
-  <si>
-    <t>e2e\bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md</t>
-  </si>
-  <si>
     <t>caaa9247-f93c-4940-9926-f97c5661445a.md</t>
   </si>
   <si>
@@ -217,6 +217,21 @@
     <t>False</t>
   </si>
   <si>
+    <t>8cb80ee7-e896-4776-8509-d2967011a1b3.8529622d9a9adbb878a3e747adcc6d8bdf59a6a6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:14:33</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:15:28</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.9fae9d1cc1355f5a153bb6403f986a4b1e82a8cb.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.zh-cn.xlf</t>
   </si>
   <si>
@@ -226,9 +241,6 @@
     <t>2017-02-17 10:12:30</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>54eab5df-7df3-468c-a087-4d2a4512d58a.f60e544a2b83bc0f66cf09a1639dab2c6233e091.zh-cn.xlf</t>
   </si>
   <si>
@@ -259,9 +271,6 @@
     <t>1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 10:14:33</t>
-  </si>
-  <si>
     <t>The handback priority in file path mt\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.c851ed4af0d067adfbe95d41e58a21af51813c10.zh-cn.xlf is not match with handoff type ht</t>
   </si>
   <si>
@@ -277,12 +286,6 @@
     <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.zh-cn.xlf</t>
   </si>
   <si>
-    <t>8cb80ee7-e896-4776-8509-d2967011a1b3.8529622d9a9adbb878a3e747adcc6d8bdf59a6a6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.9fae9d1cc1355f5a153bb6403f986a4b1e82a8cb.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>caaa9247-f93c-4940-9926-f97c5661445a.61953e823f839261a4447373f31dc4321c46d6a9.zh-cn.xlf</t>
   </si>
   <si>
@@ -301,6 +304,15 @@
     <t>f1fe0e7e-25a7-4db6-9685-dac62dff50aa.cfcc86d47d25818f5643a575495befb8b745f988.zh-cn.xlf</t>
   </si>
   <si>
+    <t>8cb80ee7-e896-4776-8509-d2967011a1b3.8529622d9a9adbb878a3e747adcc6d8bdf59a6a6.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:15:51</t>
+  </si>
+  <si>
+    <t>bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.9fae9d1cc1355f5a153bb6403f986a4b1e82a8cb.de-de.xlf</t>
+  </si>
+  <si>
     <t>df2c854f-9007-46f7-8a36-c4a6812e3417.f649b8ecd96d2b4601af7cb13930df8b593f3757.de-de.xlf</t>
   </si>
   <si>
@@ -335,12 +347,6 @@
   </si>
   <si>
     <t>8076503c-d6e8-4062-9b76-e11d84412f33.de449610d6cb272a39a460ebd6c8931ffc069260.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8cb80ee7-e896-4776-8509-d2967011a1b3.8529622d9a9adbb878a3e747adcc6d8bdf59a6a6.de-de.xlf</t>
-  </si>
-  <si>
-    <t>bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.9fae9d1cc1355f5a153bb6403f986a4b1e82a8cb.de-de.xlf</t>
   </si>
   <si>
     <t>caaa9247-f93c-4940-9926-f97c5661445a.61953e823f839261a4447373f31dc4321c46d6a9.de-de.xlf</t>
@@ -558,114 +564,114 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
@@ -673,13 +679,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -696,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -719,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -742,13 +748,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -765,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -788,13 +794,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -811,13 +817,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -834,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -857,28 +863,28 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\8cb80ee7-e896-4776-8509-d2967011a1b3.md" r:id="rId11"/>
-    <hyperlink ref="B12" display="e2e\bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md" r:id="rId12"/>
+    <hyperlink ref="B2" display="e2e\8cb80ee7-e896-4776-8509-d2967011a1b3.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId10"/>
+    <hyperlink ref="B11" display="e2e\789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId11"/>
+    <hyperlink ref="B12" display="e2e\8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId12"/>
     <hyperlink ref="B13" display="e2e\caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId13"/>
     <hyperlink ref="B14" display="e2e\ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId14"/>
     <hyperlink ref="B15" display="e2e\de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId15"/>
@@ -1039,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>65</v>
@@ -1054,19 +1060,19 @@
         <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1089,40 +1095,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="K4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1145,14 +1151,14 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="0" t="s">
         <v>65</v>
       </c>
@@ -1163,22 +1169,22 @@
         <v>66</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1201,29 +1207,29 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1240,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -1252,45 +1258,45 @@
         <v>66</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="K7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -1313,13 +1319,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>65</v>
@@ -1334,7 +1340,7 @@
         <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -1346,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -1364,7 +1370,7 @@
         <v>66</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1375,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>65</v>
@@ -1387,10 +1393,10 @@
         <v>66</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -1402,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -1431,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>65</v>
@@ -1443,10 +1449,10 @@
         <v>66</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -1458,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -1487,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>65</v>
@@ -1499,10 +1505,10 @@
         <v>66</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -1514,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -1543,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>65</v>
@@ -1555,10 +1561,10 @@
         <v>66</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -1570,7 +1576,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -1599,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>65</v>
@@ -1611,10 +1617,10 @@
         <v>66</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
@@ -1623,10 +1629,10 @@
         <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>10</v>
@@ -1644,7 +1650,7 @@
         <v>66</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>65</v>
@@ -1667,10 +1673,10 @@
         <v>66</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -1682,7 +1688,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>10</v>
@@ -1711,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>65</v>
@@ -1723,10 +1729,10 @@
         <v>66</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>10</v>
@@ -1735,10 +1741,10 @@
         <v>43</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>10</v>
@@ -1767,7 +1773,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>65</v>
@@ -1779,10 +1785,10 @@
         <v>66</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>10</v>
@@ -1794,7 +1800,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>10</v>
@@ -1817,25 +1823,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
-    <hyperlink ref="J5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId11"/>
-    <hyperlink ref="A10" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId12"/>
-    <hyperlink ref="A11" display="8cb80ee7-e896-4776-8509-d2967011a1b3.md" r:id="rId13"/>
-    <hyperlink ref="A12" display="bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md" r:id="rId14"/>
-    <hyperlink ref="A13" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId15"/>
-    <hyperlink ref="J13" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId16"/>
-    <hyperlink ref="A14" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId17"/>
-    <hyperlink ref="A15" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId18"/>
-    <hyperlink ref="J15" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId19"/>
-    <hyperlink ref="A16" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId20"/>
+    <hyperlink ref="A2" display="8cb80ee7-e896-4776-8509-d2967011a1b3.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="8cb80ee7-e896-4776-8509-d2967011a1b3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId10"/>
+    <hyperlink ref="J7" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId13"/>
+    <hyperlink ref="A10" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId14"/>
+    <hyperlink ref="A11" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId15"/>
+    <hyperlink ref="A12" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId16"/>
+    <hyperlink ref="A13" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId17"/>
+    <hyperlink ref="J13" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId18"/>
+    <hyperlink ref="A14" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId19"/>
+    <hyperlink ref="A15" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId20"/>
+    <hyperlink ref="J15" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId21"/>
+    <hyperlink ref="A16" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1948,7 +1956,7 @@
         <v>66</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1960,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1992,7 +2000,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>65</v>
@@ -2004,22 +2012,22 @@
         <v>66</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -2042,40 +2050,40 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -2098,14 +2106,14 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="0" t="s">
         <v>65</v>
       </c>
@@ -2116,22 +2124,22 @@
         <v>66</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -2154,28 +2162,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>10</v>
@@ -2187,7 +2195,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>10</v>
@@ -2205,18 +2213,18 @@
         <v>66</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>65</v>
@@ -2231,19 +2239,19 @@
         <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>10</v>
@@ -2266,13 +2274,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>65</v>
@@ -2284,10 +2292,10 @@
         <v>66</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>10</v>
@@ -2299,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>10</v>
@@ -2317,7 +2325,7 @@
         <v>66</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -2328,7 +2336,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>65</v>
@@ -2340,10 +2348,10 @@
         <v>66</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -2355,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>10</v>
@@ -2384,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>65</v>
@@ -2396,10 +2404,10 @@
         <v>66</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>10</v>
@@ -2411,7 +2419,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>10</v>
@@ -2440,7 +2448,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>65</v>
@@ -2452,10 +2460,10 @@
         <v>66</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>10</v>
@@ -2467,7 +2475,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>10</v>
@@ -2496,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>65</v>
@@ -2508,10 +2516,10 @@
         <v>66</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>10</v>
@@ -2523,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>10</v>
@@ -2552,7 +2560,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>65</v>
@@ -2564,10 +2572,10 @@
         <v>66</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>10</v>
@@ -2576,10 +2584,10 @@
         <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>10</v>
@@ -2597,7 +2605,7 @@
         <v>66</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -2608,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>65</v>
@@ -2620,10 +2628,10 @@
         <v>66</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>10</v>
@@ -2635,7 +2643,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>10</v>
@@ -2664,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>65</v>
@@ -2676,10 +2684,10 @@
         <v>66</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>10</v>
@@ -2688,10 +2696,10 @@
         <v>43</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>10</v>
@@ -2720,7 +2728,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>65</v>
@@ -2732,10 +2740,10 @@
         <v>66</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>10</v>
@@ -2747,7 +2755,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>10</v>
@@ -2770,25 +2778,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId4"/>
-    <hyperlink ref="A4" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId5"/>
-    <hyperlink ref="A5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId6"/>
-    <hyperlink ref="J5" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId7"/>
-    <hyperlink ref="A6" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId8"/>
-    <hyperlink ref="A7" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId9"/>
-    <hyperlink ref="A8" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId10"/>
-    <hyperlink ref="A9" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId11"/>
-    <hyperlink ref="A10" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId12"/>
-    <hyperlink ref="A11" display="8cb80ee7-e896-4776-8509-d2967011a1b3.md" r:id="rId13"/>
-    <hyperlink ref="A12" display="bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md" r:id="rId14"/>
-    <hyperlink ref="A13" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId15"/>
-    <hyperlink ref="J13" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId16"/>
-    <hyperlink ref="A14" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId17"/>
-    <hyperlink ref="A15" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId18"/>
-    <hyperlink ref="J15" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId19"/>
-    <hyperlink ref="A16" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId20"/>
+    <hyperlink ref="A2" display="8cb80ee7-e896-4776-8509-d2967011a1b3.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="8cb80ee7-e896-4776-8509-d2967011a1b3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="bf105499-dd4a-42fc-bb4a-8b6b20c66ac5.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="df2c854f-9007-46f7-8a36-c4a6812e3417.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="54eab5df-7df3-468c-a087-4d2a4512d58a.md" r:id="rId8"/>
+    <hyperlink ref="A6" display="fb4beb2a-c7a3-46e9-b710-a1081ae3120e.md" r:id="rId9"/>
+    <hyperlink ref="A7" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId10"/>
+    <hyperlink ref="J7" display="fc27428e-122e-437e-b182-a7091826a6e4.md" r:id="rId11"/>
+    <hyperlink ref="A8" display="1b9bc33a-8ba7-4eeb-a6e7-1800f6e09864.md" r:id="rId12"/>
+    <hyperlink ref="A9" display="5a59bdcd-67c5-4b99-b7bd-5d25c1dba2d3.md" r:id="rId13"/>
+    <hyperlink ref="A10" display="6b9b5f89-f3f8-4a89-a436-3e6bb90dd5d9.md" r:id="rId14"/>
+    <hyperlink ref="A11" display="789b79aa-973b-41b1-bf3d-6618be69d1cf.md" r:id="rId15"/>
+    <hyperlink ref="A12" display="8076503c-d6e8-4062-9b76-e11d84412f33.md" r:id="rId16"/>
+    <hyperlink ref="A13" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId17"/>
+    <hyperlink ref="J13" display="caaa9247-f93c-4940-9926-f97c5661445a.md" r:id="rId18"/>
+    <hyperlink ref="A14" display="ce99729a-3533-4679-b13b-af789b537112.md" r:id="rId19"/>
+    <hyperlink ref="A15" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId20"/>
+    <hyperlink ref="J15" display="de898377-1a40-4256-a36e-cf8b89338f72.md" r:id="rId21"/>
+    <hyperlink ref="A16" display="f1fe0e7e-25a7-4db6-9685-dac62dff50aa.md" r:id="rId22"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-02-17 10:17:34</t>
@@ -268,8 +268,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -340,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -491,7 +491,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -55,6 +55,18 @@
     <t>2017-02-17 10:17:34</t>
   </si>
   <si>
+    <t>8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>e2e\8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:19:01</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,7 +142,16 @@
     <t>True</t>
   </si>
   <si>
+    <t>8f66ff09-ca8c-4f1b-b867-15a1956dbcd5ooooooooooooooooooooooooooooooooooooo.fb47c82f2a8408d2fb0cb029139eebbd8a706cd3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:18:45</t>
+  </si>
+  <si>
     <t>94f8a42a-05e1-4ca3-9567-cf4951ebb0cbooooooooooooooooooooooooooooooooooooo.e6cd4e20c0e63ef6feadd5f33abe1ac0854c1803.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8f66ff09-ca8c-4f1b-b867-15a1956dbcd5ooooooooooooooooooooooooooooooooooooo.fb47c82f2a8408d2fb0cb029139eebbd8a706cd3.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -187,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -214,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -241,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -258,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -268,8 +289,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
+    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -319,9 +340,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -340,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -360,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -425,54 +470,111 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -483,7 +585,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,7 +593,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -511,58 +613,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -576,16 +678,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -600,30 +702,87 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="A3" display="8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,36 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>e2e\8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:19:01</t>
+  </si>
+  <si>
     <t>94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
   </si>
   <si>
     <t>e2e\94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>In Translation</t>
   </si>
   <si>
     <t>2017-02-17 10:17:34</t>
   </si>
   <si>
-    <t>8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
-  </si>
-  <si>
-    <t>e2e\8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
-  </si>
-  <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:19:01</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,6 +130,18 @@
     <t>False</t>
   </si>
   <si>
+    <t>8f66ff09-ca8c-4f1b-b867-15a1956dbcd5ooooooooooooooooooooooooooooooooooooo.fb47c82f2a8408d2fb0cb029139eebbd8a706cd3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:18:45</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:19:41</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>94f8a42a-05e1-4ca3-9567-cf4951ebb0cbooooooooooooooooooooooooooooooooooooo.e6cd4e20c0e63ef6feadd5f33abe1ac0854c1803.zh-cn.xlf</t>
   </si>
   <si>
@@ -139,19 +151,13 @@
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>8f66ff09-ca8c-4f1b-b867-15a1956dbcd5ooooooooooooooooooooooooooooooooooooo.fb47c82f2a8408d2fb0cb029139eebbd8a706cd3.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:18:45</t>
+    <t>8f66ff09-ca8c-4f1b-b867-15a1956dbcd5ooooooooooooooooooooooooooooooooooooo.fb47c82f2a8408d2fb0cb029139eebbd8a706cd3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:20:04</t>
   </si>
   <si>
     <t>94f8a42a-05e1-4ca3-9567-cf4951ebb0cbooooooooooooooooooooooooooooooooooooo.e6cd4e20c0e63ef6feadd5f33abe1ac0854c1803.de-de.xlf</t>
-  </si>
-  <si>
-    <t>8f66ff09-ca8c-4f1b-b867-15a1956dbcd5ooooooooooooooooooooooooooooooooooooo.fb47c82f2a8408d2fb0cb029139eebbd8a706cd3.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -289,8 +295,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -365,8 +371,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -385,15 +391,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -487,11 +493,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>40</v>
@@ -550,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -573,8 +579,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -593,15 +600,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -687,7 +694,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -695,14 +702,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -743,7 +750,7 @@
         <v>37</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -758,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -781,8 +788,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="8f66ff09-ca8c-4f1b-b867-15a1956dbcd5oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="94f8a42a-05e1-4ca3-9567-cf4951ebb0cboooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-02-17 10:21:37</t>
@@ -130,7 +130,7 @@
     <t>2017-02-17 10:21:21</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 10:22:13</t>
   </si>
   <si>
     <t>True</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>3c76a564-2bc0-40fa-bdd9-7f672272ffa3.cf39bda889242f13e1997b684b7d3605a8e2d062.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:22:35</t>
   </si>
   <si>
     <t>56a178da-5ee8-40ec-b336-48b041c3ca5e.66aeac91f46b606504cec4445255b6445d0faaa6.de-de.xlf</t>
@@ -280,8 +283,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -376,15 +379,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -478,11 +481,11 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -534,11 +537,11 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -565,7 +568,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3c76a564-2bc0-40fa-bdd9-7f672272ffa3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="3c76a564-2bc0-40fa-bdd9-7f672272ffa3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -584,15 +589,15 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
@@ -686,14 +691,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -734,7 +739,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -742,14 +747,14 @@
       <c r="I3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -773,7 +778,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="3c76a564-2bc0-40fa-bdd9-7f672272ffa3.md" r:id="rId2"/>
-    <hyperlink ref="A3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId3"/>
+    <hyperlink ref="J2" display="3c76a564-2bc0-40fa-bdd9-7f672272ffa3.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -67,9 +67,6 @@
     <t>e2e\ce70eb5b-4098-48e0-b787-380626d644e1.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
-  </si>
-  <si>
     <t>2017-02-17 10:26:34</t>
   </si>
   <si>
@@ -163,7 +160,7 @@
     <t>2017-02-17 10:26:17</t>
   </si>
   <si>
-    <t>0001-01-01 00:00:00</t>
+    <t>2017-02-17 10:27:08</t>
   </si>
   <si>
     <t>f9510d85-693d-43f1-9cab-0abfca83bae1.f99f967f7bd107e92983b9682be549819a0cc4a9.zh-cn.xlf</t>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>ce70eb5b-4098-48e0-b787-380626d644e1.ecdb88e6124adbb2248cef26746cd42d3007fbfa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:27:31</t>
   </si>
   <si>
     <t>f9510d85-693d-43f1-9cab-0abfca83bae1.f99f967f7bd107e92983b9682be549819a0cc4a9.de-de.xlf</t>
@@ -407,21 +407,21 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -430,13 +430,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -483,58 +483,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -548,19 +548,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -569,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -581,13 +581,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -604,19 +604,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -625,10 +625,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -637,13 +637,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -657,35 +657,35 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -707,41 +707,41 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
       </c>
@@ -749,13 +749,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -768,7 +768,9 @@
     <hyperlink ref="A3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId4"/>
     <hyperlink ref="J3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId5"/>
     <hyperlink ref="A4" display="ce70eb5b-4098-48e0-b787-380626d644e1.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="f9510d85-693d-43f1-9cab-0abfca83bae1.md" r:id="rId7"/>
+    <hyperlink ref="J4" display="ce70eb5b-4098-48e0-b787-380626d644e1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="f9510d85-693d-43f1-9cab-0abfca83bae1.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="f9510d85-693d-43f1-9cab-0abfca83bae1.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -807,58 +809,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -872,16 +874,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -893,11 +895,11 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
       </c>
@@ -905,13 +907,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -928,16 +930,16 @@
         <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -949,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -961,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>10</v>
@@ -981,35 +983,35 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
       </c>
@@ -1017,13 +1019,13 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>10</v>
@@ -1031,40 +1033,40 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1073,13 +1075,13 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>10</v>
@@ -1092,7 +1094,9 @@
     <hyperlink ref="A3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId4"/>
     <hyperlink ref="J3" display="56a178da-5ee8-40ec-b336-48b041c3ca5e.md" r:id="rId5"/>
     <hyperlink ref="A4" display="ce70eb5b-4098-48e0-b787-380626d644e1.md" r:id="rId6"/>
-    <hyperlink ref="A5" display="f9510d85-693d-43f1-9cab-0abfca83bae1.md" r:id="rId7"/>
+    <hyperlink ref="J4" display="ce70eb5b-4098-48e0-b787-380626d644e1.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="f9510d85-693d-43f1-9cab-0abfca83bae1.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="f9510d85-693d-43f1-9cab-0abfca83bae1.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -52,7 +52,7 @@
     <t>In Translation</t>
   </si>
   <si>
-    <t>2017-02-17 10:28:48</t>
+    <t>2017-02-17 10:29:38</t>
   </si>
   <si>
     <t>56a178da-5ee8-40ec-b336-48b041c3ca5e.md</t>
@@ -145,7 +145,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>low</t>
+    <t>ht</t>
   </si>
   <si>
     <t>False</t>
@@ -154,7 +154,7 @@
     <t>3c76a564-2bc0-40fa-bdd9-7f672272ffa3.cf39bda889242f13e1997b684b7d3605a8e2d062.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 10:28:30</t>
+    <t>2017-02-17 10:29:21</t>
   </si>
   <si>
     <t>2017-02-17 10:22:13</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -49,7 +49,7 @@
     <t/>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-02-17 10:31:03</t>
@@ -295,8 +295,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="17.2159881591797" customWidth="1"/>
-    <col min="6" max="6" width="17.2159881591797" customWidth="1"/>
+    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
+    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,7 +415,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -680,7 +680,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="17.2159881591797" customWidth="1"/>
+    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>File Name</t>
   </si>
@@ -37,6 +37,24 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>fbba2a7d-19f7-4466-bb8c-406a9362195d.md</t>
+  </si>
+  <si>
+    <t>e2e\fbba2a7d-19f7-4466-bb8c-406a9362195d.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:31:03</t>
+  </si>
+  <si>
     <t>1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml</t>
   </si>
   <si>
@@ -46,13 +64,7 @@
     <t>.yml</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>In Translation</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:31:03</t>
+    <t>Handback transform failed</t>
   </si>
   <si>
     <t>67a6e90c-ed8f-413b-83b2-defd082cceea.yml</t>
@@ -61,15 +73,6 @@
     <t>e2e\67a6e90c-ed8f-413b-83b2-defd082cceea.yml</t>
   </si>
   <si>
-    <t>fbba2a7d-19f7-4466-bb8c-406a9362195d.md</t>
-  </si>
-  <si>
-    <t>e2e\fbba2a7d-19f7-4466-bb8c-406a9362195d.md</t>
-  </si>
-  <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -133,31 +136,41 @@
     <t>False</t>
   </si>
   <si>
+    <t>fbba2a7d-19f7-4466-bb8c-406a9362195d.5a7ac3b2826f5e2e0cadca10e0826096f3b4fe46.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:30:45</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:32:22</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>1fc35b45-923f-4ba7-b91d-50dc172cc8e1.83407c9b2031c095c7e63fec58c796ee16a8ed35.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-17 10:30:45</t>
-  </si>
-  <si>
     <t>0001-01-01 00:00:00</t>
   </si>
   <si>
-    <t>True</t>
+    <t>值不能为 null。
+参数名: source</t>
   </si>
   <si>
     <t>67a6e90c-ed8f-413b-83b2-defd082cceea.602e4cd21bca98d2dcabd875e3968c44cc1891e7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>fbba2a7d-19f7-4466-bb8c-406a9362195d.5a7ac3b2826f5e2e0cadca10e0826096f3b4fe46.zh-cn.xlf</t>
+    <t>fbba2a7d-19f7-4466-bb8c-406a9362195d.5a7ac3b2826f5e2e0cadca10e0826096f3b4fe46.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:32:45</t>
   </si>
   <si>
     <t>1fc35b45-923f-4ba7-b91d-50dc172cc8e1.83407c9b2031c095c7e63fec58c796ee16a8ed35.de-de.xlf</t>
   </si>
   <si>
     <t>67a6e90c-ed8f-413b-83b2-defd082cceea.602e4cd21bca98d2dcabd875e3968c44cc1891e7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>fbba2a7d-19f7-4466-bb8c-406a9362195d.5a7ac3b2826f5e2e0cadca10e0826096f3b4fe46.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -295,8 +308,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="13.4101848602295" customWidth="1"/>
-    <col min="6" max="6" width="13.4101848602295" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -354,16 +367,16 @@
         <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -371,22 +384,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
@@ -394,9 +407,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -415,78 +428,78 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="16.228048324585" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -500,31 +513,31 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -533,13 +546,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -550,81 +563,81 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>10</v>
@@ -636,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -645,23 +658,24 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId2"/>
-    <hyperlink ref="A3" display="67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId4"/>
+    <hyperlink ref="A4" display="67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -680,78 +694,78 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="13.4101848602295" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="25.2197074890137" customWidth="1"/>
     <col min="9" max="9" width="23.1132164001465" customWidth="1"/>
-    <col min="10" max="10" width="18.6506061553955" customWidth="1"/>
-    <col min="11" max="11" width="21.7054767608643" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
     <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
-    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
+    <col min="18" max="18" width="16.228048324585" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -765,16 +779,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -782,14 +796,14 @@
       <c r="I2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -798,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -815,22 +829,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -845,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -854,39 +868,39 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -901,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -910,23 +924,24 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId2"/>
-    <hyperlink ref="A3" display="67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId3"/>
-    <hyperlink ref="A4" display="fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId4"/>
+    <hyperlink ref="A2" display="fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId4"/>
+    <hyperlink ref="A4" display="67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>File Name</t>
   </si>
@@ -71,6 +71,33 @@
   </si>
   <si>
     <t>e2e\67a6e90c-ed8f-413b-83b2-defd082cceea.yml</t>
+  </si>
+  <si>
+    <t>808bd667-a4cf-43c9-adec-1dccd2215d26.md</t>
+  </si>
+  <si>
+    <t>e2e\808bd667-a4cf-43c9-adec-1dccd2215d26.md</t>
+  </si>
+  <si>
+    <t>Ready for handoff</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:36:37</t>
+  </si>
+  <si>
+    <t>153e9b1b-195d-4bf6-8a50-304075a872fd.png</t>
+  </si>
+  <si>
+    <t>e2e\153e9b1b-195d-4bf6-8a50-304075a872fd.png</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png</t>
+  </si>
+  <si>
+    <t>e2e\e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -161,6 +188,21 @@
     <t>67a6e90c-ed8f-413b-83b2-defd082cceea.602e4cd21bca98d2dcabd875e3968c44cc1891e7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>808bd667-a4cf-43c9-adec-1dccd2215d26.dbcc867f8f94d952f903f2602739cf74b225bc4f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:36:20</t>
+  </si>
+  <si>
+    <t>c4a88a161856732f72c982efde3da0053b2749e0.png</t>
+  </si>
+  <si>
+    <t>True(Dependency)</t>
+  </si>
+  <si>
+    <t>461e6dcae8c44b74c0d1cb506369a62a441f1386.png</t>
+  </si>
+  <si>
     <t>fbba2a7d-19f7-4466-bb8c-406a9362195d.5a7ac3b2826f5e2e0cadca10e0826096f3b4fe46.de-de.xlf</t>
   </si>
   <si>
@@ -171,6 +213,9 @@
   </si>
   <si>
     <t>67a6e90c-ed8f-413b-83b2-defd082cceea.602e4cd21bca98d2dcabd875e3968c44cc1891e7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>808bd667-a4cf-43c9-adec-1dccd2215d26.dbcc867f8f94d952f903f2602739cf74b225bc4f.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -227,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R7" headerRowCount="1">
+  <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -254,8 +299,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R7" headerRowCount="1">
+  <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -281,8 +326,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -298,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,11 +450,83 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\808bd667-a4cf-43c9-adec-1dccd2215d26.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\153e9b1b-195d-4bf6-8a50-304075a872fd.png" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -420,7 +537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -440,66 +557,66 @@
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
-    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
+    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="16.228048324585" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -513,19 +630,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -534,10 +651,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -546,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -569,19 +686,19 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>10</v>
@@ -593,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -602,16 +719,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -625,49 +742,217 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -676,6 +961,9 @@
     <hyperlink ref="J2" display="fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId3"/>
     <hyperlink ref="A3" display="1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId4"/>
     <hyperlink ref="A4" display="67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId5"/>
+    <hyperlink ref="A5" display="808bd667-a4cf-43c9-adec-1dccd2215d26.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="153e9b1b-195d-4bf6-8a50-304075a872fd.png" r:id="rId7"/>
+    <hyperlink ref="A7" display="e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -686,7 +974,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -706,66 +994,66 @@
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
-    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
+    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="16.228048324585" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -779,16 +1067,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -800,10 +1088,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -812,13 +1100,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -835,16 +1123,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -859,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -868,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -891,16 +1179,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -915,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -924,16 +1212,184 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -942,6 +1398,9 @@
     <hyperlink ref="J2" display="fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId3"/>
     <hyperlink ref="A3" display="1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId4"/>
     <hyperlink ref="A4" display="67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId5"/>
+    <hyperlink ref="A5" display="808bd667-a4cf-43c9-adec-1dccd2215d26.md" r:id="rId6"/>
+    <hyperlink ref="A6" display="153e9b1b-195d-4bf6-8a50-304075a872fd.png" r:id="rId7"/>
+    <hyperlink ref="A7" display="e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>File Name</t>
   </si>
@@ -79,25 +79,10 @@
     <t>e2e\808bd667-a4cf-43c9-adec-1dccd2215d26.md</t>
   </si>
   <si>
-    <t>Ready for handoff</t>
+    <t>In Translation</t>
   </si>
   <si>
     <t>2017-02-17 10:36:37</t>
-  </si>
-  <si>
-    <t>153e9b1b-195d-4bf6-8a50-304075a872fd.png</t>
-  </si>
-  <si>
-    <t>e2e\153e9b1b-195d-4bf6-8a50-304075a872fd.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png</t>
-  </si>
-  <si>
-    <t>e2e\e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -192,15 +177,6 @@
   </si>
   <si>
     <t>2017-02-17 10:36:20</t>
-  </si>
-  <si>
-    <t>c4a88a161856732f72c982efde3da0053b2749e0.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>461e6dcae8c44b74c0d1cb506369a62a441f1386.png</t>
   </si>
   <si>
     <t>fbba2a7d-19f7-4466-bb8c-406a9362195d.5a7ac3b2826f5e2e0cadca10e0826096f3b4fe46.de-de.xlf</t>
@@ -272,8 +248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R7" headerRowCount="1">
-  <autoFilter ref="A1:R7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -299,8 +275,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R7" headerRowCount="1">
-  <autoFilter ref="A1:R7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -326,8 +302,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
-  <autoFilter ref="A1:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -343,7 +319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -473,60 +449,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\fbba2a7d-19f7-4466-bb8c-406a9362195d.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\808bd667-a4cf-43c9-adec-1dccd2215d26.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\153e9b1b-195d-4bf6-8a50-304075a872fd.png" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -537,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -557,66 +485,66 @@
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="16.228048324585" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -630,19 +558,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>10</v>
@@ -651,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -663,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -686,49 +614,49 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -742,49 +670,49 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -798,160 +726,48 @@
         <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -962,8 +778,6 @@
     <hyperlink ref="A3" display="1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId4"/>
     <hyperlink ref="A4" display="67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId5"/>
     <hyperlink ref="A5" display="808bd667-a4cf-43c9-adec-1dccd2215d26.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="153e9b1b-195d-4bf6-8a50-304075a872fd.png" r:id="rId7"/>
-    <hyperlink ref="A7" display="e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -974,7 +788,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,66 +808,66 @@
     <col min="12" max="12" width="27.1533012390137" customWidth="1"/>
     <col min="13" max="13" width="23.8743762969971" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="16.228048324585" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -1067,16 +881,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1088,10 +902,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>10</v>
@@ -1100,13 +914,13 @@
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>10</v>
@@ -1123,16 +937,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1147,7 +961,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>10</v>
@@ -1156,16 +970,16 @@
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1179,16 +993,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1203,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>10</v>
@@ -1212,16 +1026,16 @@
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1235,16 +1049,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
@@ -1259,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>10</v>
@@ -1268,127 +1082,15 @@
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1399,8 +1101,6 @@
     <hyperlink ref="A3" display="1fc35b45-923f-4ba7-b91d-50dc172cc8e1.yml" r:id="rId4"/>
     <hyperlink ref="A4" display="67a6e90c-ed8f-413b-83b2-defd082cceea.yml" r:id="rId5"/>
     <hyperlink ref="A5" display="808bd667-a4cf-43c9-adec-1dccd2215d26.md" r:id="rId6"/>
-    <hyperlink ref="A6" display="153e9b1b-195d-4bf6-8a50-304075a872fd.png" r:id="rId7"/>
-    <hyperlink ref="A7" display="e0f090d4-9fa2-4c88-a0f6-6a34821361e1.png" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test0/xinjiang/localization-status.xlsx
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>082a49dc-d587-495e-909b-fe0621510d59.md</t>
-  </si>
-  <si>
-    <t>e2e\082a49dc-d587-495e-909b-fe0621510d59.md</t>
+    <t>e140cfdb-9a92-4755-b893-c7b588bcd18b.md</t>
+  </si>
+  <si>
+    <t>e2e\e140cfdb-9a92-4755-b893-c7b588bcd18b.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -52,7 +52,7 @@
     <t>Ready for handoff</t>
   </si>
   <si>
-    <t>2017-02-17 10:38:49</t>
+    <t>2017-02-17 10:39:39</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,10 +118,10 @@
     <t>False</t>
   </si>
   <si>
-    <t>082a49dc-d587-495e-909b-fe0621510d59.28d8c5518fa478b58e15fb7fc56f45644010ec0d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-17 10:38:33</t>
+    <t>e140cfdb-9a92-4755-b893-c7b588bcd18b.4db8938692fc0722d72c9f1a61cd7eb53609b655.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-17 10:39:22</t>
   </si>
   <si>
     <t>0001-01-01 00:00:00</t>
@@ -130,7 +130,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>082a49dc-d587-495e-909b-fe0621510d59.28d8c5518fa478b58e15fb7fc56f45644010ec0d.de-de.xlf</t>
+    <t>e140cfdb-9a92-4755-b893-c7b588bcd18b.4db8938692fc0722d72c9f1a61cd7eb53609b655.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\082a49dc-d587-495e-909b-fe0621510d59.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\e140cfdb-9a92-4755-b893-c7b588bcd18b.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -472,7 +472,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="082a49dc-d587-495e-909b-fe0621510d59.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="e140cfdb-9a92-4755-b893-c7b588bcd18b.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -623,7 +623,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="082a49dc-d587-495e-909b-fe0621510d59.md" r:id="rId2"/>
+    <hyperlink ref="A2" display="e140cfdb-9a92-4755-b893-c7b588bcd18b.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
